--- a/FACT_INVPT_F.xlsx
+++ b/FACT_INVPT_F.xlsx
@@ -8,19 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FARMIRAL\FINANZAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D70D92DA-22F4-4376-A633-4BB91D824DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1646D340-DD1D-4E87-B48A-A52FD61CC390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{25F4AED2-BFFC-41B8-80A5-F62C87752D57}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{58ED535B-6551-4C0F-9E1E-B05A5D792B84}"/>
   </bookViews>
   <sheets>
     <sheet name="ALPHA ERP® Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="209">
   <si>
     <t>cve_prod</t>
   </si>
@@ -127,19 +132,10 @@
     <t>PRODUCTO TERMINADO</t>
   </si>
   <si>
-    <t>51GLVA04</t>
-  </si>
-  <si>
-    <t>G25001</t>
-  </si>
-  <si>
-    <t>VANESIR GEL 200 G</t>
-  </si>
-  <si>
     <t>51JBNC01</t>
   </si>
   <si>
-    <t>24A0024</t>
+    <t>25C0098</t>
   </si>
   <si>
     <t>NATUBRON CERO JARABE 240 ML</t>
@@ -181,13 +177,7 @@
     <t>25F109</t>
   </si>
   <si>
-    <t>51PLKL01</t>
-  </si>
-  <si>
-    <t>25C032</t>
-  </si>
-  <si>
-    <t>KIDDYLAC 6 SOBRES DE 5GR C/U</t>
+    <t>25H016</t>
   </si>
   <si>
     <t>51TBAC01</t>
@@ -211,6 +201,18 @@
     <t>CASTIN /50 TABS.</t>
   </si>
   <si>
+    <t>51TBTM05</t>
+  </si>
+  <si>
+    <t>24K0278</t>
+  </si>
+  <si>
+    <t>TAMARIN-LX /45 CAPS.</t>
+  </si>
+  <si>
+    <t>25A0024</t>
+  </si>
+  <si>
     <t>51CPCA01</t>
   </si>
   <si>
@@ -256,6 +258,9 @@
     <t>24K0282</t>
   </si>
   <si>
+    <t>25H012</t>
+  </si>
+  <si>
     <t>51CPOM01</t>
   </si>
   <si>
@@ -268,6 +273,12 @@
     <t>25G041</t>
   </si>
   <si>
+    <t>25H003</t>
+  </si>
+  <si>
+    <t>25H044</t>
+  </si>
+  <si>
     <t>51CPOM02</t>
   </si>
   <si>
@@ -283,7 +294,10 @@
     <t>25D020</t>
   </si>
   <si>
-    <t>25G040</t>
+    <t>25H002</t>
+  </si>
+  <si>
+    <t>25H043</t>
   </si>
   <si>
     <t>51CPVAF01</t>
@@ -310,6 +324,24 @@
     <t>MIEL/PROPOLEO/MENTA Y EUCALIPTO 240ML</t>
   </si>
   <si>
+    <t>51PLCX01</t>
+  </si>
+  <si>
+    <t>25F124</t>
+  </si>
+  <si>
+    <t>CART X-3 CAJA CON 30 SOBRES 12.5GR</t>
+  </si>
+  <si>
+    <t>51PLFC01</t>
+  </si>
+  <si>
+    <t>25F032</t>
+  </si>
+  <si>
+    <t>COLÁGENO SABOR FRESA BOLSA CON 300 GR</t>
+  </si>
+  <si>
     <t>51PLFX02</t>
   </si>
   <si>
@@ -496,9 +528,6 @@
     <t>25F125</t>
   </si>
   <si>
-    <t>25F126</t>
-  </si>
-  <si>
     <t>25F127</t>
   </si>
   <si>
@@ -556,6 +585,9 @@
     <t>COMPLEJO B C/30 TABS. AL NATURAL</t>
   </si>
   <si>
+    <t>25G0185</t>
+  </si>
+  <si>
     <t>51TBEX03</t>
   </si>
   <si>
@@ -571,7 +603,7 @@
     <t>25C014</t>
   </si>
   <si>
-    <t>25F091</t>
+    <t>25G032</t>
   </si>
   <si>
     <t>51TBKY01</t>
@@ -592,13 +624,7 @@
     <t>VITAMINA B12 C/30 TABS AL NATURAL</t>
   </si>
   <si>
-    <t>24H0202</t>
-  </si>
-  <si>
     <t>24I0225</t>
-  </si>
-  <si>
-    <t>24J0246</t>
   </si>
   <si>
     <t>25F0175</t>
@@ -1487,8 +1513,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{358D5596-5DA7-4817-8884-325F7A870E09}">
-  <dimension ref="A1:AB129"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95F4CF0C-1419-4D5A-80ED-1FF3D0DFCB03}">
+  <dimension ref="A1:AB133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1668,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>47.31</v>
+        <v>14.25</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -1680,19 +1706,19 @@
         <v>30</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.35</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>600</v>
+        <v>25</v>
       </c>
       <c r="N3">
-        <v>47.31</v>
+        <v>44.21</v>
       </c>
       <c r="O3" s="1">
-        <v>46782</v>
+        <v>46476</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -1701,16 +1727,16 @@
         <v>1</v>
       </c>
       <c r="R3">
-        <v>47.31</v>
+        <v>14.25</v>
       </c>
       <c r="S3">
-        <v>600</v>
+        <v>8.75</v>
       </c>
       <c r="T3" t="s">
         <v>37</v>
       </c>
       <c r="U3">
-        <v>7503020089206</v>
+        <v>7503020089374</v>
       </c>
       <c r="V3" t="s">
         <v>32</v>
@@ -1720,9 +1746,6 @@
       </c>
       <c r="Y3" t="s">
         <v>34</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.3">
@@ -1742,7 +1765,7 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.314500000000001</v>
+        <v>17.2</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -1754,19 +1777,19 @@
         <v>30</v>
       </c>
       <c r="K4">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="N4">
-        <v>11.195062</v>
+        <v>24.88422358</v>
       </c>
       <c r="O4" s="1">
-        <v>46053</v>
+        <v>46507</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -1775,19 +1798,19 @@
         <v>1</v>
       </c>
       <c r="R4">
-        <v>12.314500000000001</v>
+        <v>17.2</v>
       </c>
       <c r="S4">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="T4" t="s">
         <v>40</v>
       </c>
       <c r="U4">
-        <v>7503020089374</v>
+        <v>7503020089503</v>
       </c>
       <c r="V4" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="X4" t="s">
         <v>33</v>
@@ -1798,10 +1821,10 @@
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -1813,7 +1836,7 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.2</v>
+        <v>12.98</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -1831,13 +1854,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="N5">
-        <v>24.88422358</v>
+        <v>21.953416300000001</v>
       </c>
       <c r="O5" s="1">
-        <v>46507</v>
+        <v>46476</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -1846,19 +1869,19 @@
         <v>1</v>
       </c>
       <c r="R5">
-        <v>17.2</v>
+        <v>12.98</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U5">
-        <v>7503020089503</v>
+        <v>7503020089770</v>
       </c>
       <c r="V5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X5" t="s">
         <v>33</v>
@@ -1869,10 +1892,10 @@
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
         <v>45</v>
-      </c>
-      <c r="C6" t="s">
-        <v>46</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -1902,13 +1925,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="N6">
         <v>21.953416300000001</v>
       </c>
       <c r="O6" s="1">
-        <v>46476</v>
+        <v>46507</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1923,13 +1946,13 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="U6">
         <v>7503020089770</v>
       </c>
       <c r="V6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X6" t="s">
         <v>33</v>
@@ -1940,10 +1963,10 @@
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -1955,7 +1978,7 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.98</v>
+        <v>51.85</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -1973,13 +1996,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="N7">
-        <v>21.953416300000001</v>
+        <v>51.85</v>
       </c>
       <c r="O7" s="1">
-        <v>46507</v>
+        <v>46568</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -1988,19 +2011,16 @@
         <v>1</v>
       </c>
       <c r="R7">
-        <v>12.98</v>
+        <v>51.85</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>47</v>
-      </c>
-      <c r="U7">
-        <v>7503020089770</v>
+        <v>48</v>
       </c>
       <c r="V7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X7" t="s">
         <v>33</v>
@@ -2011,10 +2031,10 @@
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" t="s">
         <v>49</v>
-      </c>
-      <c r="C8" t="s">
-        <v>50</v>
       </c>
       <c r="D8">
         <v>5</v>
@@ -2044,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="N8">
         <v>51.85</v>
@@ -2065,10 +2085,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="V8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X8" t="s">
         <v>33</v>
@@ -2079,10 +2099,10 @@
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D9">
         <v>5</v>
@@ -2112,13 +2132,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>57</v>
+        <v>634</v>
       </c>
       <c r="N9">
         <v>51.85</v>
       </c>
       <c r="O9" s="1">
-        <v>46568</v>
+        <v>46630</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -2133,10 +2153,10 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="V9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X9" t="s">
         <v>33</v>
@@ -2147,10 +2167,10 @@
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D10">
         <v>5</v>
@@ -2162,7 +2182,7 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.4600000000000009</v>
+        <v>7.4160399000000004</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -2180,13 +2200,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="N10">
-        <v>8.4600000000000009</v>
+        <v>10.176050760000001</v>
       </c>
       <c r="O10" s="1">
-        <v>46476</v>
+        <v>46021</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -2195,19 +2215,16 @@
         <v>1</v>
       </c>
       <c r="R10">
-        <v>8.4600000000000009</v>
+        <v>7.4160399000000004</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>55</v>
-      </c>
-      <c r="U10">
-        <v>7503020089329</v>
+        <v>53</v>
       </c>
       <c r="V10" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="X10" t="s">
         <v>33</v>
@@ -2218,10 +2235,10 @@
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D11">
         <v>5</v>
@@ -2251,13 +2268,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>42</v>
+        <v>2645</v>
       </c>
       <c r="N11">
-        <v>10.176050760000001</v>
+        <v>7.4096966999999996</v>
       </c>
       <c r="O11" s="1">
-        <v>46021</v>
+        <v>46417</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -2272,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="V11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X11" t="s">
         <v>33</v>
@@ -2286,11 +2303,11 @@
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" t="s">
         <v>56</v>
       </c>
-      <c r="C12" t="s">
-        <v>59</v>
-      </c>
       <c r="D12">
         <v>5</v>
       </c>
@@ -2301,7 +2318,7 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.4160399000000004</v>
+        <v>11.35188507</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -2313,19 +2330,19 @@
         <v>30</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>3200</v>
+        <v>74</v>
       </c>
       <c r="N12">
-        <v>7.4096967600000001</v>
+        <v>10.426695</v>
       </c>
       <c r="O12" s="1">
-        <v>46417</v>
+        <v>46387</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -2334,16 +2351,19 @@
         <v>1</v>
       </c>
       <c r="R12">
-        <v>7.4160399000000004</v>
+        <v>11.35188507</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="T12" t="s">
-        <v>58</v>
+        <v>57</v>
+      </c>
+      <c r="U12">
+        <v>7503020089312</v>
       </c>
       <c r="V12" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="X12" t="s">
         <v>33</v>
@@ -2354,10 +2374,10 @@
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D13">
         <v>5</v>
@@ -2369,7 +2389,7 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>11.35188507</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -2381,19 +2401,19 @@
         <v>30</v>
       </c>
       <c r="K13">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="N13">
-        <v>10.426695</v>
+        <v>302779497.25384599</v>
       </c>
       <c r="O13" s="1">
-        <v>46387</v>
+        <v>46721</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -2402,16 +2422,16 @@
         <v>1</v>
       </c>
       <c r="R13">
-        <v>11.35188507</v>
+        <v>0</v>
       </c>
       <c r="S13">
-        <v>3.7</v>
+        <v>21</v>
       </c>
       <c r="T13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="U13">
-        <v>7503020089312</v>
+        <v>7506623200092</v>
       </c>
       <c r="V13" t="s">
         <v>32</v>
@@ -2425,10 +2445,10 @@
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D14">
         <v>5</v>
@@ -2440,7 +2460,7 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>24.7177948</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -2449,22 +2469,22 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="N14">
-        <v>-123.591759</v>
+        <v>471.80122549999999</v>
       </c>
       <c r="O14" s="1">
-        <v>46386</v>
+        <v>46782</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -2473,13 +2493,16 @@
         <v>1</v>
       </c>
       <c r="R14">
-        <v>24.7177948</v>
+        <v>0</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="T14" t="s">
-        <v>66</v>
+        <v>60</v>
+      </c>
+      <c r="U14">
+        <v>7506623200092</v>
       </c>
       <c r="V14" t="s">
         <v>32</v>
@@ -2493,10 +2516,10 @@
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" t="s">
         <v>63</v>
-      </c>
-      <c r="C15" t="s">
-        <v>67</v>
       </c>
       <c r="D15">
         <v>5</v>
@@ -2517,7 +2540,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -2526,13 +2549,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1366</v>
+        <v>14</v>
       </c>
       <c r="N15">
-        <v>24.71779489</v>
+        <v>-123.591759</v>
       </c>
       <c r="O15" s="1">
-        <v>46476</v>
+        <v>46386</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -2547,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="V15" t="s">
         <v>32</v>
@@ -2561,10 +2584,10 @@
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D16">
         <v>5</v>
@@ -2576,7 +2599,7 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>11.85</v>
+        <v>24.7177948</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -2585,37 +2608,37 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
+        <v>64</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>516</v>
+      </c>
+      <c r="N16">
+        <v>24.7177948</v>
+      </c>
+      <c r="O16" s="1">
+        <v>46476</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>24.7177948</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16" t="s">
         <v>65</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>33</v>
-      </c>
-      <c r="N16">
-        <v>17.581466670000001</v>
-      </c>
-      <c r="O16" s="1">
-        <v>46417</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>1</v>
-      </c>
-      <c r="R16">
-        <v>11.85</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="T16" t="s">
-        <v>70</v>
       </c>
       <c r="V16" t="s">
         <v>32</v>
@@ -2629,10 +2652,10 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" t="s">
         <v>68</v>
-      </c>
-      <c r="C17" t="s">
-        <v>71</v>
       </c>
       <c r="D17">
         <v>5</v>
@@ -2653,7 +2676,7 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2662,13 +2685,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N17">
-        <v>18.3279034</v>
+        <v>17.581466670000001</v>
       </c>
       <c r="O17" s="1">
-        <v>46476</v>
+        <v>46417</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -2683,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="V17" t="s">
         <v>32</v>
@@ -2697,10 +2720,10 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="2">
-        <v>2.5000000000000001E+63</v>
+        <v>67</v>
+      </c>
+      <c r="C18" t="s">
+        <v>70</v>
       </c>
       <c r="D18">
         <v>5</v>
@@ -2721,7 +2744,7 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2730,13 +2753,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>560</v>
+        <v>30</v>
       </c>
       <c r="N18">
-        <v>11.85</v>
+        <v>18.3279034</v>
       </c>
       <c r="O18" s="1">
-        <v>46538</v>
+        <v>46476</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -2751,7 +2774,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="V18" t="s">
         <v>32</v>
@@ -2765,10 +2788,10 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" t="s">
-        <v>73</v>
+        <v>67</v>
+      </c>
+      <c r="C19" s="2">
+        <v>2.5000000000000001E+63</v>
       </c>
       <c r="D19">
         <v>5</v>
@@ -2780,7 +2803,7 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>21.44581333</v>
+        <v>11.85</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -2789,7 +2812,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2798,13 +2821,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>31</v>
+        <v>560</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>11.85</v>
       </c>
       <c r="O19" s="1">
-        <v>46203</v>
+        <v>46538</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -2813,13 +2836,13 @@
         <v>1</v>
       </c>
       <c r="R19">
-        <v>21.44581333</v>
+        <v>11.85</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="V19" t="s">
         <v>32</v>
@@ -2833,11 +2856,11 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" t="s">
         <v>72</v>
       </c>
-      <c r="C20" t="s">
-        <v>75</v>
-      </c>
       <c r="D20">
         <v>5</v>
       </c>
@@ -2848,7 +2871,7 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>21.44581333</v>
+        <v>21.445813000000001</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2857,7 +2880,7 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2866,10 +2889,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="N20">
-        <v>24.084548999999999</v>
+        <v>0</v>
       </c>
       <c r="O20" s="1">
         <v>46203</v>
@@ -2881,13 +2904,13 @@
         <v>1</v>
       </c>
       <c r="R20">
-        <v>21.44581333</v>
+        <v>21.445813000000001</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V20" t="s">
         <v>32</v>
@@ -2901,10 +2924,10 @@
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D21">
         <v>5</v>
@@ -2916,7 +2939,7 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>21.44581333</v>
+        <v>21.445813000000001</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -2925,7 +2948,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2934,13 +2957,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N21">
-        <v>21.443021550000001</v>
+        <v>24.084548999999999</v>
       </c>
       <c r="O21" s="1">
-        <v>46356</v>
+        <v>46203</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -2949,13 +2972,13 @@
         <v>1</v>
       </c>
       <c r="R21">
-        <v>21.44581333</v>
+        <v>21.445813000000001</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V21" t="s">
         <v>32</v>
@@ -2969,10 +2992,10 @@
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D22">
         <v>5</v>
@@ -2984,7 +3007,7 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>21.44581333</v>
+        <v>21.445813000000001</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -2993,7 +3016,7 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -3002,10 +3025,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N22">
-        <v>18.69291904</v>
+        <v>21.443021550000001</v>
       </c>
       <c r="O22" s="1">
         <v>46356</v>
@@ -3017,13 +3040,13 @@
         <v>1</v>
       </c>
       <c r="R22">
-        <v>21.44581333</v>
+        <v>21.445813000000001</v>
       </c>
       <c r="S22">
         <v>0</v>
       </c>
       <c r="T22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V22" t="s">
         <v>32</v>
@@ -3037,10 +3060,10 @@
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C23" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D23">
         <v>5</v>
@@ -3052,7 +3075,7 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>62.92</v>
+        <v>21.445813000000001</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -3061,7 +3084,7 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -3070,13 +3093,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="N23">
-        <v>62.92</v>
+        <v>18.69291934</v>
       </c>
       <c r="O23" s="1">
-        <v>46599</v>
+        <v>46356</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -3085,13 +3108,13 @@
         <v>1</v>
       </c>
       <c r="R23">
-        <v>62.92</v>
+        <v>21.445813000000001</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="V23" t="s">
         <v>32</v>
@@ -3105,10 +3128,10 @@
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C24" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D24">
         <v>5</v>
@@ -3120,7 +3143,7 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>62.92</v>
+        <v>21.445813000000001</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -3129,7 +3152,7 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -3138,13 +3161,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>14</v>
+        <v>1131</v>
       </c>
       <c r="N24">
-        <v>62.92</v>
+        <v>21.445813000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>46599</v>
+        <v>46630</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -3153,13 +3176,13 @@
         <v>1</v>
       </c>
       <c r="R24">
-        <v>62.92</v>
+        <v>21.445813000000001</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="V24" t="s">
         <v>32</v>
@@ -3173,10 +3196,10 @@
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C25" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D25">
         <v>5</v>
@@ -3188,7 +3211,7 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>29.05</v>
+        <v>62.92</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -3197,7 +3220,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -3206,13 +3229,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>62.92</v>
       </c>
       <c r="O25" s="1">
-        <v>46782</v>
+        <v>46599</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -3221,13 +3244,13 @@
         <v>1</v>
       </c>
       <c r="R25">
-        <v>29.05</v>
+        <v>62.92</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="V25" t="s">
         <v>32</v>
@@ -3241,10 +3264,10 @@
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C26" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D26">
         <v>5</v>
@@ -3256,7 +3279,7 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>29.05</v>
+        <v>62.92</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -3265,7 +3288,7 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -3274,13 +3297,13 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="N26">
-        <v>56.490813129999999</v>
+        <v>62.92</v>
       </c>
       <c r="O26" s="1">
-        <v>46476</v>
+        <v>46599</v>
       </c>
       <c r="P26">
         <v>0</v>
@@ -3289,13 +3312,13 @@
         <v>1</v>
       </c>
       <c r="R26">
-        <v>29.05</v>
+        <v>62.92</v>
       </c>
       <c r="S26">
         <v>0</v>
       </c>
       <c r="T26" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="V26" t="s">
         <v>32</v>
@@ -3309,11 +3332,11 @@
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" t="s">
         <v>82</v>
       </c>
-      <c r="C27" t="s">
-        <v>86</v>
-      </c>
       <c r="D27">
         <v>5</v>
       </c>
@@ -3324,7 +3347,7 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>29.05</v>
+        <v>62.92</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -3333,7 +3356,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -3342,13 +3365,13 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="N27">
-        <v>56.490813129999999</v>
+        <v>62.92</v>
       </c>
       <c r="O27" s="1">
-        <v>46507</v>
+        <v>46630</v>
       </c>
       <c r="P27">
         <v>0</v>
@@ -3357,13 +3380,13 @@
         <v>1</v>
       </c>
       <c r="R27">
-        <v>29.05</v>
+        <v>62.92</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="V27" t="s">
         <v>32</v>
@@ -3377,10 +3400,10 @@
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>82</v>
-      </c>
-      <c r="C28" s="2">
-        <v>2.4999999999999999E+32</v>
+        <v>78</v>
+      </c>
+      <c r="C28" t="s">
+        <v>83</v>
       </c>
       <c r="D28">
         <v>5</v>
@@ -3392,7 +3415,7 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>29.05</v>
+        <v>62.92</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -3401,7 +3424,7 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -3410,13 +3433,13 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>27</v>
+        <v>947</v>
       </c>
       <c r="N28">
-        <v>56.490813129999999</v>
+        <v>62.92</v>
       </c>
       <c r="O28" s="1">
-        <v>46537</v>
+        <v>46630</v>
       </c>
       <c r="P28">
         <v>0</v>
@@ -3425,13 +3448,13 @@
         <v>1</v>
       </c>
       <c r="R28">
-        <v>29.05</v>
+        <v>62.92</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="V28" t="s">
         <v>32</v>
@@ -3445,10 +3468,10 @@
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C29" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D29">
         <v>5</v>
@@ -3469,7 +3492,7 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3478,13 +3501,13 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N29">
-        <v>29.05</v>
+        <v>0</v>
       </c>
       <c r="O29" s="1">
-        <v>46599</v>
+        <v>46782</v>
       </c>
       <c r="P29">
         <v>0</v>
@@ -3499,7 +3522,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="V29" t="s">
         <v>32</v>
@@ -3513,10 +3536,10 @@
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C30" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D30">
         <v>5</v>
@@ -3528,7 +3551,7 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>24.469519999999999</v>
+        <v>29.05</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -3537,7 +3560,7 @@
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3546,13 +3569,13 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>1092</v>
+        <v>14</v>
       </c>
       <c r="N30">
-        <v>27.287152880000001</v>
+        <v>56.490813129999999</v>
       </c>
       <c r="O30" s="1">
-        <v>46446</v>
+        <v>46476</v>
       </c>
       <c r="P30">
         <v>0</v>
@@ -3561,13 +3584,13 @@
         <v>1</v>
       </c>
       <c r="R30">
-        <v>24.469519999999999</v>
+        <v>29.05</v>
       </c>
       <c r="S30">
         <v>0</v>
       </c>
       <c r="T30" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="V30" t="s">
         <v>32</v>
@@ -3581,10 +3604,10 @@
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>91</v>
-      </c>
-      <c r="C31" s="2">
-        <v>2.5E+64</v>
+        <v>84</v>
+      </c>
+      <c r="C31" t="s">
+        <v>88</v>
       </c>
       <c r="D31">
         <v>5</v>
@@ -3596,7 +3619,7 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>16.899999999999999</v>
+        <v>29.05</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -3605,7 +3628,7 @@
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3614,13 +3637,13 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>2500</v>
+        <v>1</v>
       </c>
       <c r="N31">
-        <v>16.899999999999999</v>
+        <v>56.490813129999999</v>
       </c>
       <c r="O31" s="1">
-        <v>46538</v>
+        <v>46507</v>
       </c>
       <c r="P31">
         <v>0</v>
@@ -3629,16 +3652,16 @@
         <v>1</v>
       </c>
       <c r="R31">
-        <v>16.899999999999999</v>
+        <v>29.05</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="V31" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="X31" t="s">
         <v>33</v>
@@ -3649,10 +3672,10 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C32" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D32">
         <v>5</v>
@@ -3664,7 +3687,7 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>14.73136768</v>
+        <v>29.05</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -3673,22 +3696,22 @@
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K32">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="L32">
         <v>0</v>
       </c>
       <c r="M32">
-        <v>898</v>
+        <v>3</v>
       </c>
       <c r="N32">
-        <v>14.73136787</v>
+        <v>29.05</v>
       </c>
       <c r="O32" s="1">
-        <v>46417</v>
+        <v>46630</v>
       </c>
       <c r="P32">
         <v>0</v>
@@ -3697,13 +3720,13 @@
         <v>1</v>
       </c>
       <c r="R32">
-        <v>14.73136768</v>
+        <v>29.05</v>
       </c>
       <c r="S32">
-        <v>314.3</v>
+        <v>0</v>
       </c>
       <c r="T32" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="V32" t="s">
         <v>32</v>
@@ -3717,10 +3740,10 @@
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>96</v>
-      </c>
-      <c r="C33" s="2">
-        <v>230000</v>
+        <v>84</v>
+      </c>
+      <c r="C33" t="s">
+        <v>90</v>
       </c>
       <c r="D33">
         <v>5</v>
@@ -3732,7 +3755,7 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>17.420000000000002</v>
+        <v>29.05</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -3741,7 +3764,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3750,13 +3773,13 @@
         <v>0</v>
       </c>
       <c r="M33">
-        <v>5</v>
+        <v>551</v>
       </c>
       <c r="N33">
-        <v>18.99068596</v>
+        <v>29.05</v>
       </c>
       <c r="O33" s="1">
-        <v>45808</v>
+        <v>46629</v>
       </c>
       <c r="P33">
         <v>0</v>
@@ -3765,16 +3788,16 @@
         <v>1</v>
       </c>
       <c r="R33">
-        <v>17.420000000000002</v>
+        <v>29.05</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="V33" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="X33" t="s">
         <v>33</v>
@@ -3785,10 +3808,10 @@
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>96</v>
-      </c>
-      <c r="C34" s="2">
-        <v>2300000</v>
+        <v>91</v>
+      </c>
+      <c r="C34" t="s">
+        <v>92</v>
       </c>
       <c r="D34">
         <v>5</v>
@@ -3800,7 +3823,7 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>17.420000000000002</v>
+        <v>24.469519999999999</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -3809,7 +3832,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3818,13 +3841,13 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <v>5</v>
+        <v>992</v>
       </c>
       <c r="N34">
-        <v>22.556133559999999</v>
+        <v>27.28715287</v>
       </c>
       <c r="O34" s="1">
-        <v>45808</v>
+        <v>46446</v>
       </c>
       <c r="P34">
         <v>0</v>
@@ -3833,16 +3856,16 @@
         <v>1</v>
       </c>
       <c r="R34">
-        <v>17.420000000000002</v>
+        <v>24.469519999999999</v>
       </c>
       <c r="S34">
         <v>0</v>
       </c>
       <c r="T34" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="V34" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="X34" t="s">
         <v>33</v>
@@ -3853,10 +3876,10 @@
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C35" s="2">
-        <v>23000000000000</v>
+        <v>2.5E+64</v>
       </c>
       <c r="D35">
         <v>5</v>
@@ -3868,7 +3891,7 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>17.420000000000002</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -3877,7 +3900,7 @@
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3886,13 +3909,13 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>13</v>
+        <v>1250</v>
       </c>
       <c r="N35">
-        <v>24.13637937</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="O35" s="1">
-        <v>45808</v>
+        <v>46538</v>
       </c>
       <c r="P35">
         <v>0</v>
@@ -3901,16 +3924,16 @@
         <v>1</v>
       </c>
       <c r="R35">
-        <v>17.420000000000002</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="V35" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X35" t="s">
         <v>33</v>
@@ -3923,8 +3946,8 @@
       <c r="A36" t="s">
         <v>96</v>
       </c>
-      <c r="C36" s="2">
-        <v>230000000000000</v>
+      <c r="C36" t="s">
+        <v>97</v>
       </c>
       <c r="D36">
         <v>5</v>
@@ -3936,7 +3959,7 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>17.420000000000002</v>
+        <v>14.73136768</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3945,22 +3968,22 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="L36">
         <v>0</v>
       </c>
       <c r="M36">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N36">
-        <v>18.96525299</v>
+        <v>14.73136768</v>
       </c>
       <c r="O36" s="1">
-        <v>45808</v>
+        <v>46417</v>
       </c>
       <c r="P36">
         <v>0</v>
@@ -3969,16 +3992,16 @@
         <v>1</v>
       </c>
       <c r="R36">
-        <v>17.420000000000002</v>
+        <v>14.73136768</v>
       </c>
       <c r="S36">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="T36" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="V36" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="X36" t="s">
         <v>33</v>
@@ -3989,10 +4012,10 @@
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C37" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D37">
         <v>5</v>
@@ -4004,7 +4027,7 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>17.420000000000002</v>
+        <v>89.01</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -4013,22 +4036,22 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37">
         <v>0</v>
       </c>
       <c r="M37">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="N37">
-        <v>16.5714711</v>
+        <v>89.01</v>
       </c>
       <c r="O37" s="1">
-        <v>45838</v>
+        <v>46568</v>
       </c>
       <c r="P37">
         <v>0</v>
@@ -4037,16 +4060,19 @@
         <v>1</v>
       </c>
       <c r="R37">
-        <v>17.420000000000002</v>
+        <v>89.01</v>
       </c>
       <c r="S37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T37" t="s">
-        <v>97</v>
+        <v>101</v>
+      </c>
+      <c r="U37">
+        <v>7506429300019</v>
       </c>
       <c r="V37" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="X37" t="s">
         <v>33</v>
@@ -4057,10 +4083,10 @@
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C38" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D38">
         <v>5</v>
@@ -4072,7 +4098,7 @@
         <v>1</v>
       </c>
       <c r="G38">
-        <v>17.420000000000002</v>
+        <v>0</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -4081,7 +4107,7 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -4090,13 +4116,13 @@
         <v>0</v>
       </c>
       <c r="M38">
-        <v>6</v>
+        <v>632</v>
       </c>
       <c r="N38">
-        <v>16.06377458</v>
+        <v>198.54004626</v>
       </c>
       <c r="O38" s="1">
-        <v>45838</v>
+        <v>46568</v>
       </c>
       <c r="P38">
         <v>0</v>
@@ -4105,16 +4131,16 @@
         <v>1</v>
       </c>
       <c r="R38">
-        <v>17.420000000000002</v>
+        <v>0</v>
       </c>
       <c r="S38">
         <v>0</v>
       </c>
       <c r="T38" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="V38" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="X38" t="s">
         <v>33</v>
@@ -4125,10 +4151,10 @@
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>96</v>
-      </c>
-      <c r="C39" t="s">
-        <v>100</v>
+        <v>105</v>
+      </c>
+      <c r="C39" s="2">
+        <v>230000</v>
       </c>
       <c r="D39">
         <v>5</v>
@@ -4149,7 +4175,7 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -4158,13 +4184,13 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="N39">
-        <v>15.95149692</v>
+        <v>18.99068596</v>
       </c>
       <c r="O39" s="1">
-        <v>45838</v>
+        <v>45808</v>
       </c>
       <c r="P39">
         <v>0</v>
@@ -4179,10 +4205,10 @@
         <v>0</v>
       </c>
       <c r="T39" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="V39" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X39" t="s">
         <v>33</v>
@@ -4193,10 +4219,10 @@
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>96</v>
-      </c>
-      <c r="C40" t="s">
-        <v>101</v>
+        <v>105</v>
+      </c>
+      <c r="C40" s="2">
+        <v>2300000</v>
       </c>
       <c r="D40">
         <v>5</v>
@@ -4217,7 +4243,7 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -4226,13 +4252,13 @@
         <v>0</v>
       </c>
       <c r="M40">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="N40">
-        <v>15.80452107</v>
+        <v>22.556133559999999</v>
       </c>
       <c r="O40" s="1">
-        <v>45869</v>
+        <v>45808</v>
       </c>
       <c r="P40">
         <v>0</v>
@@ -4247,10 +4273,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="V40" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X40" t="s">
         <v>33</v>
@@ -4261,10 +4287,10 @@
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>96</v>
-      </c>
-      <c r="C41" t="s">
-        <v>102</v>
+        <v>105</v>
+      </c>
+      <c r="C41" s="2">
+        <v>23000000000000</v>
       </c>
       <c r="D41">
         <v>5</v>
@@ -4285,7 +4311,7 @@
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4294,13 +4320,13 @@
         <v>0</v>
       </c>
       <c r="M41">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="N41">
-        <v>17.617315229999999</v>
+        <v>24.13637937</v>
       </c>
       <c r="O41" s="1">
-        <v>45869</v>
+        <v>45808</v>
       </c>
       <c r="P41">
         <v>0</v>
@@ -4315,10 +4341,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="V41" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X41" t="s">
         <v>33</v>
@@ -4329,10 +4355,10 @@
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>96</v>
-      </c>
-      <c r="C42" t="s">
-        <v>103</v>
+        <v>105</v>
+      </c>
+      <c r="C42" s="2">
+        <v>230000000000000</v>
       </c>
       <c r="D42">
         <v>5</v>
@@ -4353,7 +4379,7 @@
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K42">
         <v>0</v>
@@ -4362,13 +4388,13 @@
         <v>0</v>
       </c>
       <c r="M42">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="N42">
-        <v>15.68514367</v>
+        <v>18.96525299</v>
       </c>
       <c r="O42" s="1">
-        <v>45869</v>
+        <v>45808</v>
       </c>
       <c r="P42">
         <v>0</v>
@@ -4383,10 +4409,10 @@
         <v>0</v>
       </c>
       <c r="T42" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="V42" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X42" t="s">
         <v>33</v>
@@ -4397,10 +4423,10 @@
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C43" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D43">
         <v>5</v>
@@ -4421,7 +4447,7 @@
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -4430,13 +4456,13 @@
         <v>0</v>
       </c>
       <c r="M43">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N43">
-        <v>15.875601899999999</v>
+        <v>16.5714711</v>
       </c>
       <c r="O43" s="1">
-        <v>45869</v>
+        <v>45838</v>
       </c>
       <c r="P43">
         <v>0</v>
@@ -4451,10 +4477,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="V43" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X43" t="s">
         <v>33</v>
@@ -4465,10 +4491,10 @@
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C44" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D44">
         <v>5</v>
@@ -4489,7 +4515,7 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K44">
         <v>0</v>
@@ -4498,13 +4524,13 @@
         <v>0</v>
       </c>
       <c r="M44">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="N44">
-        <v>15.553117840000001</v>
+        <v>16.06377458</v>
       </c>
       <c r="O44" s="1">
-        <v>45869</v>
+        <v>45838</v>
       </c>
       <c r="P44">
         <v>0</v>
@@ -4519,10 +4545,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="V44" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X44" t="s">
         <v>33</v>
@@ -4533,64 +4559,64 @@
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C45" t="s">
+        <v>109</v>
+      </c>
+      <c r="D45">
+        <v>5</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>17.420000000000002</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45" t="s">
+        <v>64</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>12</v>
+      </c>
+      <c r="N45">
+        <v>15.95149692</v>
+      </c>
+      <c r="O45" s="1">
+        <v>45838</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>1</v>
+      </c>
+      <c r="R45">
+        <v>17.420000000000002</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45" t="s">
         <v>106</v>
       </c>
-      <c r="D45">
-        <v>5</v>
-      </c>
-      <c r="E45">
-        <v>1</v>
-      </c>
-      <c r="F45">
-        <v>1</v>
-      </c>
-      <c r="G45">
-        <v>17.420000000000002</v>
-      </c>
-      <c r="H45">
-        <v>1</v>
-      </c>
-      <c r="I45">
-        <v>1</v>
-      </c>
-      <c r="J45" t="s">
-        <v>65</v>
-      </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-      <c r="L45">
-        <v>0</v>
-      </c>
-      <c r="M45">
-        <v>15</v>
-      </c>
-      <c r="N45">
-        <v>16.072372860000002</v>
-      </c>
-      <c r="O45" s="1">
-        <v>45869</v>
-      </c>
-      <c r="P45">
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <v>1</v>
-      </c>
-      <c r="R45">
-        <v>17.420000000000002</v>
-      </c>
-      <c r="S45">
-        <v>0</v>
-      </c>
-      <c r="T45" t="s">
-        <v>97</v>
-      </c>
       <c r="V45" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X45" t="s">
         <v>33</v>
@@ -4601,10 +4627,10 @@
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C46" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D46">
         <v>5</v>
@@ -4625,7 +4651,7 @@
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K46">
         <v>0</v>
@@ -4634,10 +4660,10 @@
         <v>0</v>
       </c>
       <c r="M46">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="N46">
-        <v>16.412520529999998</v>
+        <v>15.80452107</v>
       </c>
       <c r="O46" s="1">
         <v>45869</v>
@@ -4655,10 +4681,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="V46" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X46" t="s">
         <v>33</v>
@@ -4669,10 +4695,10 @@
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C47" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D47">
         <v>5</v>
@@ -4693,7 +4719,7 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K47">
         <v>0</v>
@@ -4702,10 +4728,10 @@
         <v>0</v>
       </c>
       <c r="M47">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N47">
-        <v>15.744386</v>
+        <v>17.617315229999999</v>
       </c>
       <c r="O47" s="1">
         <v>45869</v>
@@ -4723,10 +4749,10 @@
         <v>0</v>
       </c>
       <c r="T47" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="V47" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X47" t="s">
         <v>33</v>
@@ -4737,10 +4763,10 @@
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C48" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D48">
         <v>5</v>
@@ -4761,7 +4787,7 @@
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K48">
         <v>0</v>
@@ -4770,10 +4796,10 @@
         <v>0</v>
       </c>
       <c r="M48">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="N48">
-        <v>15.744386</v>
+        <v>15.68514367</v>
       </c>
       <c r="O48" s="1">
         <v>45869</v>
@@ -4791,10 +4817,10 @@
         <v>0</v>
       </c>
       <c r="T48" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="V48" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X48" t="s">
         <v>33</v>
@@ -4805,10 +4831,10 @@
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C49" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D49">
         <v>5</v>
@@ -4829,7 +4855,7 @@
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -4838,13 +4864,13 @@
         <v>0</v>
       </c>
       <c r="M49">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="N49">
-        <v>16.299073969999998</v>
+        <v>15.875601899999999</v>
       </c>
       <c r="O49" s="1">
-        <v>45868</v>
+        <v>45869</v>
       </c>
       <c r="P49">
         <v>0</v>
@@ -4859,10 +4885,10 @@
         <v>0</v>
       </c>
       <c r="T49" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="V49" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X49" t="s">
         <v>33</v>
@@ -4873,10 +4899,10 @@
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C50" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D50">
         <v>5</v>
@@ -4897,7 +4923,7 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K50">
         <v>0</v>
@@ -4906,10 +4932,10 @@
         <v>0</v>
       </c>
       <c r="M50">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="N50">
-        <v>15.685392909999999</v>
+        <v>15.553117840000001</v>
       </c>
       <c r="O50" s="1">
         <v>45869</v>
@@ -4927,10 +4953,10 @@
         <v>0</v>
       </c>
       <c r="T50" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="V50" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X50" t="s">
         <v>33</v>
@@ -4941,10 +4967,10 @@
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C51" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D51">
         <v>5</v>
@@ -4965,7 +4991,7 @@
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K51">
         <v>0</v>
@@ -4974,10 +5000,10 @@
         <v>0</v>
       </c>
       <c r="M51">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N51">
-        <v>15.80305983</v>
+        <v>16.072372860000002</v>
       </c>
       <c r="O51" s="1">
         <v>45869</v>
@@ -4995,10 +5021,10 @@
         <v>0</v>
       </c>
       <c r="T51" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="V51" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X51" t="s">
         <v>33</v>
@@ -5009,10 +5035,10 @@
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C52" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D52">
         <v>5</v>
@@ -5033,7 +5059,7 @@
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K52">
         <v>0</v>
@@ -5042,10 +5068,10 @@
         <v>0</v>
       </c>
       <c r="M52">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N52">
-        <v>15.74372258</v>
+        <v>16.412520529999998</v>
       </c>
       <c r="O52" s="1">
         <v>45869</v>
@@ -5063,10 +5089,10 @@
         <v>0</v>
       </c>
       <c r="T52" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="V52" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X52" t="s">
         <v>33</v>
@@ -5077,10 +5103,10 @@
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C53" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D53">
         <v>5</v>
@@ -5101,7 +5127,7 @@
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K53">
         <v>0</v>
@@ -5110,10 +5136,10 @@
         <v>0</v>
       </c>
       <c r="M53">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="N53">
-        <v>15.804721109999999</v>
+        <v>15.744386</v>
       </c>
       <c r="O53" s="1">
         <v>45869</v>
@@ -5131,10 +5157,10 @@
         <v>0</v>
       </c>
       <c r="T53" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="V53" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X53" t="s">
         <v>33</v>
@@ -5145,10 +5171,10 @@
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C54" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D54">
         <v>5</v>
@@ -5169,7 +5195,7 @@
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K54">
         <v>0</v>
@@ -5178,10 +5204,10 @@
         <v>0</v>
       </c>
       <c r="M54">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="N54">
-        <v>15.848007000000001</v>
+        <v>15.744386</v>
       </c>
       <c r="O54" s="1">
         <v>45869</v>
@@ -5199,10 +5225,10 @@
         <v>0</v>
       </c>
       <c r="T54" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="V54" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X54" t="s">
         <v>33</v>
@@ -5213,10 +5239,10 @@
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C55" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D55">
         <v>5</v>
@@ -5237,7 +5263,7 @@
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K55">
         <v>0</v>
@@ -5246,13 +5272,13 @@
         <v>0</v>
       </c>
       <c r="M55">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N55">
-        <v>16.153361360000002</v>
+        <v>16.299073969999998</v>
       </c>
       <c r="O55" s="1">
-        <v>45869</v>
+        <v>45868</v>
       </c>
       <c r="P55">
         <v>0</v>
@@ -5267,10 +5293,10 @@
         <v>0</v>
       </c>
       <c r="T55" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="V55" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X55" t="s">
         <v>33</v>
@@ -5281,10 +5307,10 @@
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C56" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D56">
         <v>5</v>
@@ -5305,7 +5331,7 @@
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K56">
         <v>0</v>
@@ -5314,10 +5340,10 @@
         <v>0</v>
       </c>
       <c r="M56">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N56">
-        <v>15.69670498</v>
+        <v>15.685392909999999</v>
       </c>
       <c r="O56" s="1">
         <v>45869</v>
@@ -5335,10 +5361,10 @@
         <v>0</v>
       </c>
       <c r="T56" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="V56" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X56" t="s">
         <v>33</v>
@@ -5349,10 +5375,10 @@
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C57" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D57">
         <v>5</v>
@@ -5373,7 +5399,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K57">
         <v>0</v>
@@ -5382,13 +5408,13 @@
         <v>0</v>
       </c>
       <c r="M57">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N57">
-        <v>15.859595759999999</v>
+        <v>15.80305983</v>
       </c>
       <c r="O57" s="1">
-        <v>45868</v>
+        <v>45869</v>
       </c>
       <c r="P57">
         <v>0</v>
@@ -5403,10 +5429,10 @@
         <v>0</v>
       </c>
       <c r="T57" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="V57" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X57" t="s">
         <v>33</v>
@@ -5417,10 +5443,10 @@
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C58" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D58">
         <v>5</v>
@@ -5441,7 +5467,7 @@
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K58">
         <v>0</v>
@@ -5450,13 +5476,13 @@
         <v>0</v>
       </c>
       <c r="M58">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N58">
-        <v>16.232195659999999</v>
+        <v>15.74372258</v>
       </c>
       <c r="O58" s="1">
-        <v>45868</v>
+        <v>45869</v>
       </c>
       <c r="P58">
         <v>0</v>
@@ -5471,10 +5497,10 @@
         <v>0</v>
       </c>
       <c r="T58" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="V58" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X58" t="s">
         <v>33</v>
@@ -5485,10 +5511,10 @@
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C59" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D59">
         <v>5</v>
@@ -5509,7 +5535,7 @@
         <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K59">
         <v>0</v>
@@ -5518,13 +5544,13 @@
         <v>0</v>
       </c>
       <c r="M59">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="N59">
-        <v>15.90906038</v>
+        <v>15.804721109999999</v>
       </c>
       <c r="O59" s="1">
-        <v>45868</v>
+        <v>45869</v>
       </c>
       <c r="P59">
         <v>0</v>
@@ -5539,10 +5565,10 @@
         <v>0</v>
       </c>
       <c r="T59" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="V59" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X59" t="s">
         <v>33</v>
@@ -5553,10 +5579,10 @@
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C60" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D60">
         <v>5</v>
@@ -5577,7 +5603,7 @@
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K60">
         <v>0</v>
@@ -5586,13 +5612,13 @@
         <v>0</v>
       </c>
       <c r="M60">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N60">
-        <v>15.6787183</v>
+        <v>15.848007000000001</v>
       </c>
       <c r="O60" s="1">
-        <v>45899</v>
+        <v>45869</v>
       </c>
       <c r="P60">
         <v>0</v>
@@ -5607,10 +5633,10 @@
         <v>0</v>
       </c>
       <c r="T60" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="V60" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X60" t="s">
         <v>33</v>
@@ -5621,10 +5647,10 @@
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C61" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D61">
         <v>5</v>
@@ -5645,7 +5671,7 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K61">
         <v>0</v>
@@ -5657,10 +5683,10 @@
         <v>13</v>
       </c>
       <c r="N61">
-        <v>15.87980563</v>
+        <v>16.153361360000002</v>
       </c>
       <c r="O61" s="1">
-        <v>45899</v>
+        <v>45869</v>
       </c>
       <c r="P61">
         <v>0</v>
@@ -5675,10 +5701,10 @@
         <v>0</v>
       </c>
       <c r="T61" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="V61" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X61" t="s">
         <v>33</v>
@@ -5689,10 +5715,10 @@
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C62" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D62">
         <v>5</v>
@@ -5713,7 +5739,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K62">
         <v>0</v>
@@ -5722,13 +5748,13 @@
         <v>0</v>
       </c>
       <c r="M62">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N62">
-        <v>15.90286044</v>
+        <v>15.69670498</v>
       </c>
       <c r="O62" s="1">
-        <v>45899</v>
+        <v>45869</v>
       </c>
       <c r="P62">
         <v>0</v>
@@ -5743,10 +5769,10 @@
         <v>0</v>
       </c>
       <c r="T62" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="V62" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X62" t="s">
         <v>33</v>
@@ -5757,10 +5783,10 @@
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C63" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D63">
         <v>5</v>
@@ -5781,7 +5807,7 @@
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K63">
         <v>0</v>
@@ -5790,13 +5816,13 @@
         <v>0</v>
       </c>
       <c r="M63">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="N63">
-        <v>16.790501070000001</v>
+        <v>15.859595759999999</v>
       </c>
       <c r="O63" s="1">
-        <v>45899</v>
+        <v>45868</v>
       </c>
       <c r="P63">
         <v>0</v>
@@ -5811,10 +5837,10 @@
         <v>0</v>
       </c>
       <c r="T63" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="V63" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X63" t="s">
         <v>33</v>
@@ -5825,10 +5851,10 @@
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C64" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D64">
         <v>5</v>
@@ -5849,7 +5875,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K64">
         <v>0</v>
@@ -5858,13 +5884,13 @@
         <v>0</v>
       </c>
       <c r="M64">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="N64">
-        <v>16.196605600000002</v>
+        <v>16.232195659999999</v>
       </c>
       <c r="O64" s="1">
-        <v>45899</v>
+        <v>45868</v>
       </c>
       <c r="P64">
         <v>0</v>
@@ -5879,10 +5905,10 @@
         <v>0</v>
       </c>
       <c r="T64" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="V64" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X64" t="s">
         <v>33</v>
@@ -5893,10 +5919,10 @@
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C65" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D65">
         <v>5</v>
@@ -5917,7 +5943,7 @@
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K65">
         <v>0</v>
@@ -5926,13 +5952,13 @@
         <v>0</v>
       </c>
       <c r="M65">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N65">
-        <v>16.71610707</v>
+        <v>15.90906038</v>
       </c>
       <c r="O65" s="1">
-        <v>45899</v>
+        <v>45868</v>
       </c>
       <c r="P65">
         <v>0</v>
@@ -5947,10 +5973,10 @@
         <v>0</v>
       </c>
       <c r="T65" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="V65" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X65" t="s">
         <v>33</v>
@@ -5961,10 +5987,10 @@
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C66" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D66">
         <v>5</v>
@@ -5985,7 +6011,7 @@
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K66">
         <v>0</v>
@@ -5994,10 +6020,10 @@
         <v>0</v>
       </c>
       <c r="M66">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N66">
-        <v>-15903.272727879999</v>
+        <v>15.6787183</v>
       </c>
       <c r="O66" s="1">
         <v>45899</v>
@@ -6015,10 +6041,10 @@
         <v>0</v>
       </c>
       <c r="T66" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="V66" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X66" t="s">
         <v>33</v>
@@ -6029,10 +6055,10 @@
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C67" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D67">
         <v>5</v>
@@ -6053,7 +6079,7 @@
         <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K67">
         <v>0</v>
@@ -6062,10 +6088,10 @@
         <v>0</v>
       </c>
       <c r="M67">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N67">
-        <v>-118.11523284</v>
+        <v>15.87980563</v>
       </c>
       <c r="O67" s="1">
         <v>45899</v>
@@ -6083,10 +6109,10 @@
         <v>0</v>
       </c>
       <c r="T67" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="V67" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X67" t="s">
         <v>33</v>
@@ -6097,10 +6123,10 @@
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C68" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D68">
         <v>5</v>
@@ -6121,7 +6147,7 @@
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K68">
         <v>0</v>
@@ -6130,10 +6156,10 @@
         <v>0</v>
       </c>
       <c r="M68">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N68">
-        <v>16.725840550000001</v>
+        <v>15.90286044</v>
       </c>
       <c r="O68" s="1">
         <v>45899</v>
@@ -6151,10 +6177,10 @@
         <v>0</v>
       </c>
       <c r="T68" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="V68" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X68" t="s">
         <v>33</v>
@@ -6165,10 +6191,10 @@
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C69" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D69">
         <v>5</v>
@@ -6189,7 +6215,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K69">
         <v>0</v>
@@ -6198,10 +6224,10 @@
         <v>0</v>
       </c>
       <c r="M69">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N69">
-        <v>16.20789147</v>
+        <v>16.790501070000001</v>
       </c>
       <c r="O69" s="1">
         <v>45899</v>
@@ -6219,10 +6245,10 @@
         <v>0</v>
       </c>
       <c r="T69" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="V69" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X69" t="s">
         <v>33</v>
@@ -6233,10 +6259,10 @@
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C70" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D70">
         <v>5</v>
@@ -6257,7 +6283,7 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K70">
         <v>0</v>
@@ -6266,10 +6292,10 @@
         <v>0</v>
       </c>
       <c r="M70">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N70">
-        <v>12.489257289999999</v>
+        <v>16.196605600000002</v>
       </c>
       <c r="O70" s="1">
         <v>45899</v>
@@ -6287,10 +6313,10 @@
         <v>0</v>
       </c>
       <c r="T70" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="V70" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X70" t="s">
         <v>33</v>
@@ -6301,10 +6327,10 @@
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C71" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D71">
         <v>5</v>
@@ -6325,7 +6351,7 @@
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K71">
         <v>0</v>
@@ -6334,10 +6360,10 @@
         <v>0</v>
       </c>
       <c r="M71">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N71">
-        <v>15.783574249999999</v>
+        <v>16.71610707</v>
       </c>
       <c r="O71" s="1">
         <v>45899</v>
@@ -6355,10 +6381,10 @@
         <v>0</v>
       </c>
       <c r="T71" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="V71" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X71" t="s">
         <v>33</v>
@@ -6369,10 +6395,10 @@
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C72" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D72">
         <v>5</v>
@@ -6393,7 +6419,7 @@
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K72">
         <v>0</v>
@@ -6402,13 +6428,13 @@
         <v>0</v>
       </c>
       <c r="M72">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="N72">
-        <v>16.362517149999999</v>
+        <v>-15903.272727879999</v>
       </c>
       <c r="O72" s="1">
-        <v>45900</v>
+        <v>45899</v>
       </c>
       <c r="P72">
         <v>0</v>
@@ -6423,10 +6449,10 @@
         <v>0</v>
       </c>
       <c r="T72" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="V72" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X72" t="s">
         <v>33</v>
@@ -6437,10 +6463,10 @@
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C73" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D73">
         <v>5</v>
@@ -6461,7 +6487,7 @@
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K73">
         <v>0</v>
@@ -6470,10 +6496,10 @@
         <v>0</v>
       </c>
       <c r="M73">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="N73">
-        <v>15.30303237</v>
+        <v>-118.11523284</v>
       </c>
       <c r="O73" s="1">
         <v>45899</v>
@@ -6491,10 +6517,10 @@
         <v>0</v>
       </c>
       <c r="T73" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="V73" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X73" t="s">
         <v>33</v>
@@ -6505,10 +6531,10 @@
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C74" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D74">
         <v>5</v>
@@ -6529,7 +6555,7 @@
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K74">
         <v>0</v>
@@ -6538,10 +6564,10 @@
         <v>0</v>
       </c>
       <c r="M74">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N74">
-        <v>14.74408764</v>
+        <v>16.725840550000001</v>
       </c>
       <c r="O74" s="1">
         <v>45899</v>
@@ -6559,10 +6585,10 @@
         <v>0</v>
       </c>
       <c r="T74" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="V74" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X74" t="s">
         <v>33</v>
@@ -6573,10 +6599,10 @@
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C75" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D75">
         <v>5</v>
@@ -6597,7 +6623,7 @@
         <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K75">
         <v>0</v>
@@ -6606,10 +6632,10 @@
         <v>0</v>
       </c>
       <c r="M75">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="N75">
-        <v>-167.30579082</v>
+        <v>16.20789147</v>
       </c>
       <c r="O75" s="1">
         <v>45899</v>
@@ -6627,10 +6653,10 @@
         <v>0</v>
       </c>
       <c r="T75" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="V75" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X75" t="s">
         <v>33</v>
@@ -6641,10 +6667,10 @@
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C76" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D76">
         <v>5</v>
@@ -6665,7 +6691,7 @@
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K76">
         <v>0</v>
@@ -6674,10 +6700,10 @@
         <v>0</v>
       </c>
       <c r="M76">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N76">
-        <v>16.429637509999999</v>
+        <v>12.489257289999999</v>
       </c>
       <c r="O76" s="1">
         <v>45899</v>
@@ -6695,10 +6721,10 @@
         <v>0</v>
       </c>
       <c r="T76" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="V76" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X76" t="s">
         <v>33</v>
@@ -6709,10 +6735,10 @@
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C77" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D77">
         <v>5</v>
@@ -6733,7 +6759,7 @@
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K77">
         <v>0</v>
@@ -6742,13 +6768,13 @@
         <v>0</v>
       </c>
       <c r="M77">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N77">
-        <v>15.504705660000001</v>
+        <v>15.783574249999999</v>
       </c>
       <c r="O77" s="1">
-        <v>45930</v>
+        <v>45899</v>
       </c>
       <c r="P77">
         <v>0</v>
@@ -6763,10 +6789,10 @@
         <v>0</v>
       </c>
       <c r="T77" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="V77" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X77" t="s">
         <v>33</v>
@@ -6777,10 +6803,10 @@
     </row>
     <row r="78" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C78" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D78">
         <v>5</v>
@@ -6801,7 +6827,7 @@
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K78">
         <v>0</v>
@@ -6810,13 +6836,13 @@
         <v>0</v>
       </c>
       <c r="M78">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="N78">
-        <v>12.48350714</v>
+        <v>16.362517149999999</v>
       </c>
       <c r="O78" s="1">
-        <v>45930</v>
+        <v>45900</v>
       </c>
       <c r="P78">
         <v>0</v>
@@ -6831,10 +6857,10 @@
         <v>0</v>
       </c>
       <c r="T78" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="V78" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X78" t="s">
         <v>33</v>
@@ -6845,10 +6871,10 @@
     </row>
     <row r="79" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C79" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D79">
         <v>5</v>
@@ -6869,7 +6895,7 @@
         <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K79">
         <v>0</v>
@@ -6878,13 +6904,13 @@
         <v>0</v>
       </c>
       <c r="M79">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="N79">
-        <v>13.89320987</v>
+        <v>15.30303237</v>
       </c>
       <c r="O79" s="1">
-        <v>45930</v>
+        <v>45899</v>
       </c>
       <c r="P79">
         <v>0</v>
@@ -6899,10 +6925,10 @@
         <v>0</v>
       </c>
       <c r="T79" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="V79" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X79" t="s">
         <v>33</v>
@@ -6913,10 +6939,10 @@
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C80" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D80">
         <v>5</v>
@@ -6937,7 +6963,7 @@
         <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K80">
         <v>0</v>
@@ -6946,13 +6972,13 @@
         <v>0</v>
       </c>
       <c r="M80">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N80">
-        <v>14.70860188</v>
+        <v>14.74408764</v>
       </c>
       <c r="O80" s="1">
-        <v>45930</v>
+        <v>45899</v>
       </c>
       <c r="P80">
         <v>0</v>
@@ -6967,10 +6993,10 @@
         <v>0</v>
       </c>
       <c r="T80" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="V80" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X80" t="s">
         <v>33</v>
@@ -6981,10 +7007,10 @@
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C81" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D81">
         <v>5</v>
@@ -7005,7 +7031,7 @@
         <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K81">
         <v>0</v>
@@ -7014,13 +7040,13 @@
         <v>0</v>
       </c>
       <c r="M81">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="N81">
-        <v>14.70286306</v>
+        <v>-167.30579082</v>
       </c>
       <c r="O81" s="1">
-        <v>45930</v>
+        <v>45899</v>
       </c>
       <c r="P81">
         <v>0</v>
@@ -7035,10 +7061,10 @@
         <v>0</v>
       </c>
       <c r="T81" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="V81" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X81" t="s">
         <v>33</v>
@@ -7049,10 +7075,10 @@
     </row>
     <row r="82" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C82" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D82">
         <v>5</v>
@@ -7073,7 +7099,7 @@
         <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K82">
         <v>0</v>
@@ -7082,13 +7108,13 @@
         <v>0</v>
       </c>
       <c r="M82">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N82">
-        <v>17.77806344</v>
+        <v>16.429637509999999</v>
       </c>
       <c r="O82" s="1">
-        <v>45930</v>
+        <v>45899</v>
       </c>
       <c r="P82">
         <v>0</v>
@@ -7103,10 +7129,10 @@
         <v>0</v>
       </c>
       <c r="T82" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="V82" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X82" t="s">
         <v>33</v>
@@ -7117,10 +7143,10 @@
     </row>
     <row r="83" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C83" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D83">
         <v>5</v>
@@ -7141,7 +7167,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K83">
         <v>0</v>
@@ -7150,13 +7176,13 @@
         <v>0</v>
       </c>
       <c r="M83">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N83">
-        <v>-31.541053739999999</v>
+        <v>15.504705660000001</v>
       </c>
       <c r="O83" s="1">
-        <v>46142</v>
+        <v>45930</v>
       </c>
       <c r="P83">
         <v>0</v>
@@ -7171,10 +7197,10 @@
         <v>0</v>
       </c>
       <c r="T83" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="V83" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X83" t="s">
         <v>33</v>
@@ -7185,10 +7211,10 @@
     </row>
     <row r="84" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C84" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D84">
         <v>5</v>
@@ -7209,7 +7235,7 @@
         <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K84">
         <v>0</v>
@@ -7218,13 +7244,13 @@
         <v>0</v>
       </c>
       <c r="M84">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="N84">
-        <v>-30.828954769999999</v>
+        <v>12.48350714</v>
       </c>
       <c r="O84" s="1">
-        <v>46203</v>
+        <v>45930</v>
       </c>
       <c r="P84">
         <v>0</v>
@@ -7239,10 +7265,10 @@
         <v>0</v>
       </c>
       <c r="T84" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="V84" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X84" t="s">
         <v>33</v>
@@ -7253,10 +7279,10 @@
     </row>
     <row r="85" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C85" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D85">
         <v>5</v>
@@ -7277,7 +7303,7 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K85">
         <v>0</v>
@@ -7286,13 +7312,13 @@
         <v>0</v>
       </c>
       <c r="M85">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N85">
-        <v>17.958016260000001</v>
+        <v>13.89320987</v>
       </c>
       <c r="O85" s="1">
-        <v>46476</v>
+        <v>45930</v>
       </c>
       <c r="P85">
         <v>0</v>
@@ -7307,10 +7333,10 @@
         <v>0</v>
       </c>
       <c r="T85" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="V85" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X85" t="s">
         <v>33</v>
@@ -7321,10 +7347,10 @@
     </row>
     <row r="86" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C86" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D86">
         <v>5</v>
@@ -7345,7 +7371,7 @@
         <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K86">
         <v>0</v>
@@ -7354,13 +7380,13 @@
         <v>0</v>
       </c>
       <c r="M86">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="N86">
-        <v>17.958016260000001</v>
+        <v>14.70860188</v>
       </c>
       <c r="O86" s="1">
-        <v>46476</v>
+        <v>45930</v>
       </c>
       <c r="P86">
         <v>0</v>
@@ -7375,10 +7401,10 @@
         <v>0</v>
       </c>
       <c r="T86" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="V86" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X86" t="s">
         <v>33</v>
@@ -7389,10 +7415,10 @@
     </row>
     <row r="87" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C87" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D87">
         <v>5</v>
@@ -7413,7 +7439,7 @@
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K87">
         <v>0</v>
@@ -7422,13 +7448,13 @@
         <v>0</v>
       </c>
       <c r="M87">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="N87">
-        <v>17.958016260000001</v>
+        <v>14.70286306</v>
       </c>
       <c r="O87" s="1">
-        <v>46476</v>
+        <v>45930</v>
       </c>
       <c r="P87">
         <v>0</v>
@@ -7443,10 +7469,10 @@
         <v>0</v>
       </c>
       <c r="T87" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="V87" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X87" t="s">
         <v>33</v>
@@ -7457,10 +7483,10 @@
     </row>
     <row r="88" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C88" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D88">
         <v>5</v>
@@ -7481,7 +7507,7 @@
         <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K88">
         <v>0</v>
@@ -7490,13 +7516,13 @@
         <v>0</v>
       </c>
       <c r="M88">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="N88">
-        <v>17.958016199999999</v>
+        <v>17.77806344</v>
       </c>
       <c r="O88" s="1">
-        <v>46476</v>
+        <v>45930</v>
       </c>
       <c r="P88">
         <v>0</v>
@@ -7511,10 +7537,10 @@
         <v>0</v>
       </c>
       <c r="T88" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="V88" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X88" t="s">
         <v>33</v>
@@ -7525,10 +7551,10 @@
     </row>
     <row r="89" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C89" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D89">
         <v>5</v>
@@ -7549,7 +7575,7 @@
         <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K89">
         <v>0</v>
@@ -7558,13 +7584,13 @@
         <v>0</v>
       </c>
       <c r="M89">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="N89">
-        <v>0</v>
+        <v>-31.541053739999999</v>
       </c>
       <c r="O89" s="1">
-        <v>46476</v>
+        <v>46142</v>
       </c>
       <c r="P89">
         <v>0</v>
@@ -7579,10 +7605,10 @@
         <v>0</v>
       </c>
       <c r="T89" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="V89" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X89" t="s">
         <v>33</v>
@@ -7593,10 +7619,10 @@
     </row>
     <row r="90" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C90" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D90">
         <v>5</v>
@@ -7617,7 +7643,7 @@
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K90">
         <v>0</v>
@@ -7626,13 +7652,13 @@
         <v>0</v>
       </c>
       <c r="M90">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N90">
-        <v>17.958016220000001</v>
+        <v>-30.828954769999999</v>
       </c>
       <c r="O90" s="1">
-        <v>46507</v>
+        <v>46203</v>
       </c>
       <c r="P90">
         <v>0</v>
@@ -7647,10 +7673,10 @@
         <v>0</v>
       </c>
       <c r="T90" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="V90" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X90" t="s">
         <v>33</v>
@@ -7661,10 +7687,10 @@
     </row>
     <row r="91" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C91" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D91">
         <v>5</v>
@@ -7685,7 +7711,7 @@
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K91">
         <v>0</v>
@@ -7694,13 +7720,13 @@
         <v>0</v>
       </c>
       <c r="M91">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="N91">
         <v>17.958016260000001</v>
       </c>
       <c r="O91" s="1">
-        <v>46507</v>
+        <v>46476</v>
       </c>
       <c r="P91">
         <v>0</v>
@@ -7715,10 +7741,10 @@
         <v>0</v>
       </c>
       <c r="T91" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="V91" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X91" t="s">
         <v>33</v>
@@ -7729,10 +7755,10 @@
     </row>
     <row r="92" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C92" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D92">
         <v>5</v>
@@ -7753,7 +7779,7 @@
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K92">
         <v>0</v>
@@ -7762,13 +7788,13 @@
         <v>0</v>
       </c>
       <c r="M92">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="N92">
         <v>17.958016260000001</v>
       </c>
       <c r="O92" s="1">
-        <v>46507</v>
+        <v>46476</v>
       </c>
       <c r="P92">
         <v>0</v>
@@ -7783,10 +7809,10 @@
         <v>0</v>
       </c>
       <c r="T92" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="V92" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X92" t="s">
         <v>33</v>
@@ -7797,10 +7823,10 @@
     </row>
     <row r="93" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C93" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D93">
         <v>5</v>
@@ -7821,7 +7847,7 @@
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K93">
         <v>0</v>
@@ -7830,13 +7856,13 @@
         <v>0</v>
       </c>
       <c r="M93">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="N93">
-        <v>14.89</v>
+        <v>17.958016260000001</v>
       </c>
       <c r="O93" s="1">
-        <v>46507</v>
+        <v>46476</v>
       </c>
       <c r="P93">
         <v>0</v>
@@ -7851,10 +7877,10 @@
         <v>0</v>
       </c>
       <c r="T93" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="V93" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X93" t="s">
         <v>33</v>
@@ -7865,10 +7891,10 @@
     </row>
     <row r="94" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>96</v>
-      </c>
-      <c r="C94" s="2">
-        <v>2.4999999999999999E+67</v>
+        <v>105</v>
+      </c>
+      <c r="C94" t="s">
+        <v>158</v>
       </c>
       <c r="D94">
         <v>5</v>
@@ -7889,7 +7915,7 @@
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K94">
         <v>0</v>
@@ -7898,13 +7924,13 @@
         <v>0</v>
       </c>
       <c r="M94">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="N94">
-        <v>23.636849999999999</v>
+        <v>17.958016199999999</v>
       </c>
       <c r="O94" s="1">
-        <v>46537</v>
+        <v>46476</v>
       </c>
       <c r="P94">
         <v>0</v>
@@ -7919,10 +7945,10 @@
         <v>0</v>
       </c>
       <c r="T94" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="V94" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X94" t="s">
         <v>33</v>
@@ -7933,10 +7959,10 @@
     </row>
     <row r="95" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>96</v>
-      </c>
-      <c r="C95" s="2">
-        <v>2.5000000000000002E+69</v>
+        <v>105</v>
+      </c>
+      <c r="C95" t="s">
+        <v>159</v>
       </c>
       <c r="D95">
         <v>5</v>
@@ -7957,7 +7983,7 @@
         <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K95">
         <v>0</v>
@@ -7966,13 +7992,13 @@
         <v>0</v>
       </c>
       <c r="M95">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="N95">
-        <v>17.420000000000002</v>
+        <v>0</v>
       </c>
       <c r="O95" s="1">
-        <v>46537</v>
+        <v>46476</v>
       </c>
       <c r="P95">
         <v>0</v>
@@ -7987,10 +8013,10 @@
         <v>0</v>
       </c>
       <c r="T95" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="V95" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X95" t="s">
         <v>33</v>
@@ -8001,10 +8027,10 @@
     </row>
     <row r="96" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C96" t="s">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="D96">
         <v>5</v>
@@ -8025,7 +8051,7 @@
         <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K96">
         <v>0</v>
@@ -8034,13 +8060,13 @@
         <v>0</v>
       </c>
       <c r="M96">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="N96">
-        <v>17.420000000000002</v>
+        <v>17.958016220000001</v>
       </c>
       <c r="O96" s="1">
-        <v>46568</v>
+        <v>46507</v>
       </c>
       <c r="P96">
         <v>0</v>
@@ -8055,10 +8081,10 @@
         <v>0</v>
       </c>
       <c r="T96" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="V96" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X96" t="s">
         <v>33</v>
@@ -8069,10 +8095,10 @@
     </row>
     <row r="97" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C97" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="D97">
         <v>5</v>
@@ -8093,7 +8119,7 @@
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K97">
         <v>0</v>
@@ -8102,13 +8128,13 @@
         <v>0</v>
       </c>
       <c r="M97">
-        <v>117</v>
+        <v>22</v>
       </c>
       <c r="N97">
-        <v>17.420000000000002</v>
+        <v>17.958016260000001</v>
       </c>
       <c r="O97" s="1">
-        <v>46568</v>
+        <v>46507</v>
       </c>
       <c r="P97">
         <v>0</v>
@@ -8123,10 +8149,10 @@
         <v>0</v>
       </c>
       <c r="T97" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="V97" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X97" t="s">
         <v>33</v>
@@ -8137,10 +8163,10 @@
     </row>
     <row r="98" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C98" t="s">
-        <v>52</v>
+        <v>162</v>
       </c>
       <c r="D98">
         <v>5</v>
@@ -8161,7 +8187,7 @@
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K98">
         <v>0</v>
@@ -8170,13 +8196,13 @@
         <v>0</v>
       </c>
       <c r="M98">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="N98">
-        <v>17.420000000000002</v>
+        <v>17.958016260000001</v>
       </c>
       <c r="O98" s="1">
-        <v>46568</v>
+        <v>46507</v>
       </c>
       <c r="P98">
         <v>0</v>
@@ -8191,10 +8217,10 @@
         <v>0</v>
       </c>
       <c r="T98" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="V98" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X98" t="s">
         <v>33</v>
@@ -8205,10 +8231,10 @@
     </row>
     <row r="99" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C99" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="D99">
         <v>5</v>
@@ -8229,7 +8255,7 @@
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K99">
         <v>0</v>
@@ -8238,13 +8264,13 @@
         <v>0</v>
       </c>
       <c r="M99">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="N99">
-        <v>17.420000000000002</v>
+        <v>14.89</v>
       </c>
       <c r="O99" s="1">
-        <v>46568</v>
+        <v>46507</v>
       </c>
       <c r="P99">
         <v>0</v>
@@ -8259,10 +8285,10 @@
         <v>0</v>
       </c>
       <c r="T99" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="V99" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X99" t="s">
         <v>33</v>
@@ -8273,10 +8299,10 @@
     </row>
     <row r="100" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>96</v>
-      </c>
-      <c r="C100" t="s">
-        <v>157</v>
+        <v>105</v>
+      </c>
+      <c r="C100" s="2">
+        <v>2.4999999999999999E+67</v>
       </c>
       <c r="D100">
         <v>5</v>
@@ -8297,7 +8323,7 @@
         <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K100">
         <v>0</v>
@@ -8306,13 +8332,13 @@
         <v>0</v>
       </c>
       <c r="M100">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="N100">
-        <v>17.420000000000002</v>
+        <v>23.636849999999999</v>
       </c>
       <c r="O100" s="1">
-        <v>46568</v>
+        <v>46537</v>
       </c>
       <c r="P100">
         <v>0</v>
@@ -8327,10 +8353,10 @@
         <v>0</v>
       </c>
       <c r="T100" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="V100" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X100" t="s">
         <v>33</v>
@@ -8341,10 +8367,10 @@
     </row>
     <row r="101" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>96</v>
-      </c>
-      <c r="C101" t="s">
-        <v>158</v>
+        <v>105</v>
+      </c>
+      <c r="C101" s="2">
+        <v>2.5000000000000002E+69</v>
       </c>
       <c r="D101">
         <v>5</v>
@@ -8365,7 +8391,7 @@
         <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K101">
         <v>0</v>
@@ -8374,13 +8400,13 @@
         <v>0</v>
       </c>
       <c r="M101">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N101">
         <v>17.420000000000002</v>
       </c>
       <c r="O101" s="1">
-        <v>46568</v>
+        <v>46537</v>
       </c>
       <c r="P101">
         <v>0</v>
@@ -8395,10 +8421,10 @@
         <v>0</v>
       </c>
       <c r="T101" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="V101" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X101" t="s">
         <v>33</v>
@@ -8409,10 +8435,10 @@
     </row>
     <row r="102" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C102" t="s">
-        <v>159</v>
+        <v>47</v>
       </c>
       <c r="D102">
         <v>5</v>
@@ -8433,7 +8459,7 @@
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K102">
         <v>0</v>
@@ -8442,7 +8468,7 @@
         <v>0</v>
       </c>
       <c r="M102">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="N102">
         <v>17.420000000000002</v>
@@ -8463,10 +8489,10 @@
         <v>0</v>
       </c>
       <c r="T102" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="V102" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X102" t="s">
         <v>33</v>
@@ -8477,10 +8503,10 @@
     </row>
     <row r="103" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C103" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D103">
         <v>5</v>
@@ -8501,7 +8527,7 @@
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K103">
         <v>0</v>
@@ -8510,7 +8536,7 @@
         <v>0</v>
       </c>
       <c r="M103">
-        <v>47</v>
+        <v>117</v>
       </c>
       <c r="N103">
         <v>17.420000000000002</v>
@@ -8531,10 +8557,10 @@
         <v>0</v>
       </c>
       <c r="T103" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="V103" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X103" t="s">
         <v>33</v>
@@ -8545,10 +8571,10 @@
     </row>
     <row r="104" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C104" t="s">
-        <v>161</v>
+        <v>49</v>
       </c>
       <c r="D104">
         <v>5</v>
@@ -8569,7 +8595,7 @@
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K104">
         <v>0</v>
@@ -8578,10 +8604,10 @@
         <v>0</v>
       </c>
       <c r="M104">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="N104">
-        <v>35.335040429999999</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="O104" s="1">
         <v>46568</v>
@@ -8599,10 +8625,10 @@
         <v>0</v>
       </c>
       <c r="T104" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="V104" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X104" t="s">
         <v>33</v>
@@ -8613,10 +8639,10 @@
     </row>
     <row r="105" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C105" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D105">
         <v>5</v>
@@ -8637,7 +8663,7 @@
         <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K105">
         <v>0</v>
@@ -8646,13 +8672,13 @@
         <v>0</v>
       </c>
       <c r="M105">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="N105">
         <v>17.420000000000002</v>
       </c>
       <c r="O105" s="1">
-        <v>46599</v>
+        <v>46568</v>
       </c>
       <c r="P105">
         <v>0</v>
@@ -8667,10 +8693,10 @@
         <v>0</v>
       </c>
       <c r="T105" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="V105" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X105" t="s">
         <v>33</v>
@@ -8681,10 +8707,10 @@
     </row>
     <row r="106" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C106" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D106">
         <v>5</v>
@@ -8705,7 +8731,7 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K106">
         <v>0</v>
@@ -8714,13 +8740,13 @@
         <v>0</v>
       </c>
       <c r="M106">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="N106">
         <v>17.420000000000002</v>
       </c>
       <c r="O106" s="1">
-        <v>46599</v>
+        <v>46568</v>
       </c>
       <c r="P106">
         <v>0</v>
@@ -8735,10 +8761,10 @@
         <v>0</v>
       </c>
       <c r="T106" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="V106" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X106" t="s">
         <v>33</v>
@@ -8749,10 +8775,10 @@
     </row>
     <row r="107" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C107" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D107">
         <v>5</v>
@@ -8773,7 +8799,7 @@
         <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K107">
         <v>0</v>
@@ -8782,13 +8808,13 @@
         <v>0</v>
       </c>
       <c r="M107">
-        <v>760</v>
+        <v>35</v>
       </c>
       <c r="N107">
         <v>17.420000000000002</v>
       </c>
       <c r="O107" s="1">
-        <v>46599</v>
+        <v>46568</v>
       </c>
       <c r="P107">
         <v>0</v>
@@ -8803,10 +8829,10 @@
         <v>0</v>
       </c>
       <c r="T107" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="V107" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X107" t="s">
         <v>33</v>
@@ -8817,10 +8843,10 @@
     </row>
     <row r="108" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>165</v>
+        <v>105</v>
       </c>
       <c r="C108" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D108">
         <v>5</v>
@@ -8832,7 +8858,7 @@
         <v>1</v>
       </c>
       <c r="G108">
-        <v>140.12</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -8841,7 +8867,7 @@
         <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K108">
         <v>0</v>
@@ -8850,10 +8876,10 @@
         <v>0</v>
       </c>
       <c r="M108">
-        <v>406</v>
+        <v>47</v>
       </c>
       <c r="N108">
-        <v>140.12</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="O108" s="1">
         <v>46568</v>
@@ -8865,16 +8891,16 @@
         <v>1</v>
       </c>
       <c r="R108">
-        <v>140.12</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="S108">
         <v>0</v>
       </c>
       <c r="T108" t="s">
-        <v>167</v>
+        <v>106</v>
       </c>
       <c r="V108" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="X108" t="s">
         <v>33</v>
@@ -8885,7 +8911,7 @@
     </row>
     <row r="109" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>168</v>
+        <v>105</v>
       </c>
       <c r="C109" t="s">
         <v>169</v>
@@ -8900,7 +8926,7 @@
         <v>1</v>
       </c>
       <c r="G109">
-        <v>9.2899999999999991</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -8909,7 +8935,7 @@
         <v>1</v>
       </c>
       <c r="J109" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K109">
         <v>0</v>
@@ -8918,13 +8944,13 @@
         <v>0</v>
       </c>
       <c r="M109">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="N109">
-        <v>0</v>
+        <v>35.335040429999999</v>
       </c>
       <c r="O109" s="1">
-        <v>46052</v>
+        <v>46568</v>
       </c>
       <c r="P109">
         <v>0</v>
@@ -8933,16 +8959,16 @@
         <v>1</v>
       </c>
       <c r="R109">
-        <v>9.2899999999999991</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="S109">
         <v>0</v>
       </c>
       <c r="T109" t="s">
-        <v>170</v>
+        <v>106</v>
       </c>
       <c r="V109" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X109" t="s">
         <v>33</v>
@@ -8953,10 +8979,10 @@
     </row>
     <row r="110" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>168</v>
+        <v>105</v>
       </c>
       <c r="C110" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D110">
         <v>5</v>
@@ -8968,7 +8994,7 @@
         <v>1</v>
       </c>
       <c r="G110">
-        <v>9.2899999999999991</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -8977,7 +9003,7 @@
         <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K110">
         <v>0</v>
@@ -8986,13 +9012,13 @@
         <v>0</v>
       </c>
       <c r="M110">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N110">
-        <v>-9.0044384999999991</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="O110" s="1">
-        <v>46203</v>
+        <v>46599</v>
       </c>
       <c r="P110">
         <v>0</v>
@@ -9001,16 +9027,16 @@
         <v>1</v>
       </c>
       <c r="R110">
-        <v>9.2899999999999991</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="S110">
         <v>0</v>
       </c>
       <c r="T110" t="s">
-        <v>170</v>
+        <v>106</v>
       </c>
       <c r="V110" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X110" t="s">
         <v>33</v>
@@ -9021,10 +9047,10 @@
     </row>
     <row r="111" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>168</v>
+        <v>105</v>
       </c>
       <c r="C111" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D111">
         <v>5</v>
@@ -9036,7 +9062,7 @@
         <v>1</v>
       </c>
       <c r="G111">
-        <v>9.2899999999999991</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -9045,7 +9071,7 @@
         <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K111">
         <v>0</v>
@@ -9054,13 +9080,13 @@
         <v>0</v>
       </c>
       <c r="M111">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="N111">
-        <v>9.4051674100000007</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="O111" s="1">
-        <v>46417</v>
+        <v>46599</v>
       </c>
       <c r="P111">
         <v>0</v>
@@ -9069,16 +9095,16 @@
         <v>1</v>
       </c>
       <c r="R111">
-        <v>9.2899999999999991</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="S111">
         <v>0</v>
       </c>
       <c r="T111" t="s">
-        <v>170</v>
+        <v>106</v>
       </c>
       <c r="V111" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X111" t="s">
         <v>33</v>
@@ -9089,10 +9115,10 @@
     </row>
     <row r="112" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>168</v>
+        <v>105</v>
       </c>
       <c r="C112" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D112">
         <v>5</v>
@@ -9104,7 +9130,7 @@
         <v>1</v>
       </c>
       <c r="G112">
-        <v>9.2899999999999991</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="H112">
         <v>1</v>
@@ -9113,7 +9139,7 @@
         <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K112">
         <v>0</v>
@@ -9125,10 +9151,10 @@
         <v>13</v>
       </c>
       <c r="N112">
-        <v>9.9091374999999999</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="O112" s="1">
-        <v>46476</v>
+        <v>46599</v>
       </c>
       <c r="P112">
         <v>0</v>
@@ -9137,16 +9163,16 @@
         <v>1</v>
       </c>
       <c r="R112">
-        <v>9.2899999999999991</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="S112">
         <v>0</v>
       </c>
       <c r="T112" t="s">
-        <v>170</v>
+        <v>106</v>
       </c>
       <c r="V112" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X112" t="s">
         <v>33</v>
@@ -9157,10 +9183,10 @@
     </row>
     <row r="113" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>168</v>
-      </c>
-      <c r="C113" s="2">
-        <v>2.5000000000000001E+25</v>
+        <v>173</v>
+      </c>
+      <c r="C113" t="s">
+        <v>174</v>
       </c>
       <c r="D113">
         <v>5</v>
@@ -9172,7 +9198,7 @@
         <v>1</v>
       </c>
       <c r="G113">
-        <v>9.2899999999999991</v>
+        <v>140.12</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -9181,7 +9207,7 @@
         <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K113">
         <v>0</v>
@@ -9190,13 +9216,13 @@
         <v>0</v>
       </c>
       <c r="M113">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="N113">
-        <v>9.9091374999999999</v>
+        <v>140.12</v>
       </c>
       <c r="O113" s="1">
-        <v>46537</v>
+        <v>46568</v>
       </c>
       <c r="P113">
         <v>0</v>
@@ -9205,16 +9231,16 @@
         <v>1</v>
       </c>
       <c r="R113">
-        <v>9.2899999999999991</v>
+        <v>140.12</v>
       </c>
       <c r="S113">
         <v>0</v>
       </c>
       <c r="T113" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="V113" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="X113" t="s">
         <v>33</v>
@@ -9225,10 +9251,10 @@
     </row>
     <row r="114" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="C114" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D114">
         <v>5</v>
@@ -9249,7 +9275,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K114">
         <v>0</v>
@@ -9258,13 +9284,13 @@
         <v>0</v>
       </c>
       <c r="M114">
-        <v>2783</v>
+        <v>49</v>
       </c>
       <c r="N114">
-        <v>9.2899999999999991</v>
+        <v>0</v>
       </c>
       <c r="O114" s="1">
-        <v>46568</v>
+        <v>46052</v>
       </c>
       <c r="P114">
         <v>0</v>
@@ -9279,10 +9305,10 @@
         <v>0</v>
       </c>
       <c r="T114" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="V114" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X114" t="s">
         <v>33</v>
@@ -9293,10 +9319,10 @@
     </row>
     <row r="115" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C115" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D115">
         <v>5</v>
@@ -9308,7 +9334,7 @@
         <v>1</v>
       </c>
       <c r="G115">
-        <v>6.77</v>
+        <v>9.2899999999999991</v>
       </c>
       <c r="H115">
         <v>1</v>
@@ -9317,7 +9343,7 @@
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K115">
         <v>0</v>
@@ -9326,13 +9352,13 @@
         <v>0</v>
       </c>
       <c r="M115">
-        <v>2257</v>
+        <v>1</v>
       </c>
       <c r="N115">
-        <v>6.77</v>
+        <v>-9.0044384999999991</v>
       </c>
       <c r="O115" s="1">
-        <v>46568</v>
+        <v>46203</v>
       </c>
       <c r="P115">
         <v>0</v>
@@ -9341,16 +9367,16 @@
         <v>1</v>
       </c>
       <c r="R115">
-        <v>6.77</v>
+        <v>9.2899999999999991</v>
       </c>
       <c r="S115">
         <v>0</v>
       </c>
       <c r="T115" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="V115" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X115" t="s">
         <v>33</v>
@@ -9361,67 +9387,64 @@
     </row>
     <row r="116" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
+        <v>176</v>
+      </c>
+      <c r="C116" t="s">
+        <v>180</v>
+      </c>
+      <c r="D116">
+        <v>5</v>
+      </c>
+      <c r="E116">
+        <v>1</v>
+      </c>
+      <c r="F116">
+        <v>1</v>
+      </c>
+      <c r="G116">
+        <v>9.2899999999999991</v>
+      </c>
+      <c r="H116">
+        <v>1</v>
+      </c>
+      <c r="I116">
+        <v>1</v>
+      </c>
+      <c r="J116" t="s">
+        <v>64</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+      <c r="M116">
+        <v>9</v>
+      </c>
+      <c r="N116">
+        <v>9.4051674100000007</v>
+      </c>
+      <c r="O116" s="1">
+        <v>46417</v>
+      </c>
+      <c r="P116">
+        <v>0</v>
+      </c>
+      <c r="Q116">
+        <v>1</v>
+      </c>
+      <c r="R116">
+        <v>9.2899999999999991</v>
+      </c>
+      <c r="S116">
+        <v>0</v>
+      </c>
+      <c r="T116" t="s">
         <v>178</v>
       </c>
-      <c r="C116" t="s">
-        <v>179</v>
-      </c>
-      <c r="D116">
-        <v>5</v>
-      </c>
-      <c r="E116">
-        <v>1</v>
-      </c>
-      <c r="F116">
-        <v>1</v>
-      </c>
-      <c r="G116">
-        <v>21.12</v>
-      </c>
-      <c r="H116">
-        <v>1</v>
-      </c>
-      <c r="I116">
-        <v>1</v>
-      </c>
-      <c r="J116" t="s">
-        <v>65</v>
-      </c>
-      <c r="K116">
-        <v>0</v>
-      </c>
-      <c r="L116">
-        <v>0</v>
-      </c>
-      <c r="M116">
-        <v>20</v>
-      </c>
-      <c r="N116">
-        <v>0</v>
-      </c>
-      <c r="O116" s="1">
-        <v>45503</v>
-      </c>
-      <c r="P116">
-        <v>0</v>
-      </c>
-      <c r="Q116">
-        <v>1</v>
-      </c>
-      <c r="R116">
-        <v>21.12</v>
-      </c>
-      <c r="S116">
-        <v>0</v>
-      </c>
-      <c r="T116" t="s">
-        <v>180</v>
-      </c>
-      <c r="U116">
-        <v>7506375207240</v>
-      </c>
       <c r="V116" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="X116" t="s">
         <v>33</v>
@@ -9432,7 +9455,7 @@
     </row>
     <row r="117" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C117" t="s">
         <v>181</v>
@@ -9447,7 +9470,7 @@
         <v>1</v>
       </c>
       <c r="G117">
-        <v>21.12</v>
+        <v>9.2899999999999991</v>
       </c>
       <c r="H117">
         <v>1</v>
@@ -9456,7 +9479,7 @@
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K117">
         <v>0</v>
@@ -9465,13 +9488,13 @@
         <v>0</v>
       </c>
       <c r="M117">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="N117">
-        <v>0</v>
+        <v>9.9091374999999999</v>
       </c>
       <c r="O117" s="1">
-        <v>46021</v>
+        <v>46476</v>
       </c>
       <c r="P117">
         <v>0</v>
@@ -9480,19 +9503,16 @@
         <v>1</v>
       </c>
       <c r="R117">
-        <v>21.12</v>
+        <v>9.2899999999999991</v>
       </c>
       <c r="S117">
         <v>0</v>
       </c>
       <c r="T117" t="s">
-        <v>180</v>
-      </c>
-      <c r="U117">
-        <v>7506375207240</v>
+        <v>178</v>
       </c>
       <c r="V117" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="X117" t="s">
         <v>33</v>
@@ -9503,67 +9523,64 @@
     </row>
     <row r="118" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
+        <v>176</v>
+      </c>
+      <c r="C118" s="2">
+        <v>2.5000000000000001E+25</v>
+      </c>
+      <c r="D118">
+        <v>5</v>
+      </c>
+      <c r="E118">
+        <v>1</v>
+      </c>
+      <c r="F118">
+        <v>1</v>
+      </c>
+      <c r="G118">
+        <v>9.2899999999999991</v>
+      </c>
+      <c r="H118">
+        <v>1</v>
+      </c>
+      <c r="I118">
+        <v>1</v>
+      </c>
+      <c r="J118" t="s">
+        <v>64</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="M118">
+        <v>11</v>
+      </c>
+      <c r="N118">
+        <v>9.9091374999999999</v>
+      </c>
+      <c r="O118" s="1">
+        <v>46537</v>
+      </c>
+      <c r="P118">
+        <v>0</v>
+      </c>
+      <c r="Q118">
+        <v>1</v>
+      </c>
+      <c r="R118">
+        <v>9.2899999999999991</v>
+      </c>
+      <c r="S118">
+        <v>0</v>
+      </c>
+      <c r="T118" t="s">
         <v>178</v>
       </c>
-      <c r="C118" t="s">
-        <v>182</v>
-      </c>
-      <c r="D118">
-        <v>5</v>
-      </c>
-      <c r="E118">
-        <v>1</v>
-      </c>
-      <c r="F118">
-        <v>1</v>
-      </c>
-      <c r="G118">
-        <v>21.12</v>
-      </c>
-      <c r="H118">
-        <v>1</v>
-      </c>
-      <c r="I118">
-        <v>1</v>
-      </c>
-      <c r="J118" t="s">
-        <v>65</v>
-      </c>
-      <c r="K118">
-        <v>0</v>
-      </c>
-      <c r="L118">
-        <v>0</v>
-      </c>
-      <c r="M118">
-        <v>25</v>
-      </c>
-      <c r="N118">
-        <v>26.937799829999999</v>
-      </c>
-      <c r="O118" s="1">
-        <v>46476</v>
-      </c>
-      <c r="P118">
-        <v>0</v>
-      </c>
-      <c r="Q118">
-        <v>1</v>
-      </c>
-      <c r="R118">
-        <v>21.12</v>
-      </c>
-      <c r="S118">
-        <v>0</v>
-      </c>
-      <c r="T118" t="s">
-        <v>180</v>
-      </c>
-      <c r="U118">
-        <v>7506375207240</v>
-      </c>
       <c r="V118" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="X118" t="s">
         <v>33</v>
@@ -9574,10 +9591,10 @@
     </row>
     <row r="119" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C119" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D119">
         <v>5</v>
@@ -9589,7 +9606,7 @@
         <v>1</v>
       </c>
       <c r="G119">
-        <v>21.12</v>
+        <v>9.2899999999999991</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -9598,7 +9615,7 @@
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K119">
         <v>0</v>
@@ -9607,10 +9624,10 @@
         <v>0</v>
       </c>
       <c r="M119">
-        <v>440</v>
+        <v>583</v>
       </c>
       <c r="N119">
-        <v>21.12</v>
+        <v>9.2899999999999991</v>
       </c>
       <c r="O119" s="1">
         <v>46568</v>
@@ -9622,19 +9639,16 @@
         <v>1</v>
       </c>
       <c r="R119">
-        <v>21.12</v>
+        <v>9.2899999999999991</v>
       </c>
       <c r="S119">
         <v>0</v>
       </c>
       <c r="T119" t="s">
-        <v>180</v>
-      </c>
-      <c r="U119">
-        <v>7506375207240</v>
+        <v>178</v>
       </c>
       <c r="V119" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="X119" t="s">
         <v>33</v>
@@ -9645,64 +9659,64 @@
     </row>
     <row r="120" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
+        <v>183</v>
+      </c>
+      <c r="C120" t="s">
         <v>184</v>
       </c>
-      <c r="C120" t="s">
+      <c r="D120">
+        <v>5</v>
+      </c>
+      <c r="E120">
+        <v>1</v>
+      </c>
+      <c r="F120">
+        <v>1</v>
+      </c>
+      <c r="G120">
+        <v>6.77</v>
+      </c>
+      <c r="H120">
+        <v>1</v>
+      </c>
+      <c r="I120">
+        <v>1</v>
+      </c>
+      <c r="J120" t="s">
+        <v>64</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120">
+        <v>316</v>
+      </c>
+      <c r="N120">
+        <v>6.77</v>
+      </c>
+      <c r="O120" s="1">
+        <v>46568</v>
+      </c>
+      <c r="P120">
+        <v>0</v>
+      </c>
+      <c r="Q120">
+        <v>1</v>
+      </c>
+      <c r="R120">
+        <v>6.77</v>
+      </c>
+      <c r="S120">
+        <v>0</v>
+      </c>
+      <c r="T120" t="s">
         <v>185</v>
       </c>
-      <c r="D120">
-        <v>5</v>
-      </c>
-      <c r="E120">
-        <v>1</v>
-      </c>
-      <c r="F120">
-        <v>1</v>
-      </c>
-      <c r="G120">
-        <v>10.810359999999999</v>
-      </c>
-      <c r="H120">
-        <v>1</v>
-      </c>
-      <c r="I120">
-        <v>1</v>
-      </c>
-      <c r="J120" t="s">
-        <v>65</v>
-      </c>
-      <c r="K120">
-        <v>0</v>
-      </c>
-      <c r="L120">
-        <v>0</v>
-      </c>
-      <c r="M120">
-        <v>2753</v>
-      </c>
-      <c r="N120">
-        <v>10.50675139</v>
-      </c>
-      <c r="O120" s="1">
-        <v>46386</v>
-      </c>
-      <c r="P120">
-        <v>0</v>
-      </c>
-      <c r="Q120">
-        <v>1</v>
-      </c>
-      <c r="R120">
-        <v>10.810359999999999</v>
-      </c>
-      <c r="S120">
-        <v>0</v>
-      </c>
-      <c r="T120" t="s">
-        <v>186</v>
-      </c>
       <c r="V120" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X120" t="s">
         <v>33</v>
@@ -9713,10 +9727,10 @@
     </row>
     <row r="121" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C121" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D121">
         <v>5</v>
@@ -9728,7 +9742,7 @@
         <v>1</v>
       </c>
       <c r="G121">
-        <v>7.3037999999999998</v>
+        <v>6.77</v>
       </c>
       <c r="H121">
         <v>1</v>
@@ -9737,7 +9751,7 @@
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K121">
         <v>0</v>
@@ -9746,13 +9760,13 @@
         <v>0</v>
       </c>
       <c r="M121">
-        <v>17</v>
+        <v>2410</v>
       </c>
       <c r="N121">
-        <v>-7.8902360000000005E-2</v>
+        <v>6.77</v>
       </c>
       <c r="O121" s="1">
-        <v>46052</v>
+        <v>46599</v>
       </c>
       <c r="P121">
         <v>0</v>
@@ -9761,16 +9775,16 @@
         <v>1</v>
       </c>
       <c r="R121">
-        <v>7.3037999999999998</v>
+        <v>6.77</v>
       </c>
       <c r="S121">
         <v>0</v>
       </c>
       <c r="T121" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="V121" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="X121" t="s">
         <v>33</v>
@@ -9784,7 +9798,7 @@
         <v>187</v>
       </c>
       <c r="C122" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D122">
         <v>5</v>
@@ -9796,7 +9810,7 @@
         <v>1</v>
       </c>
       <c r="G122">
-        <v>7.3037999999999998</v>
+        <v>21.12</v>
       </c>
       <c r="H122">
         <v>1</v>
@@ -9805,7 +9819,7 @@
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K122">
         <v>0</v>
@@ -9814,13 +9828,13 @@
         <v>0</v>
       </c>
       <c r="M122">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N122">
-        <v>7.4168222400000001</v>
+        <v>0</v>
       </c>
       <c r="O122" s="1">
-        <v>46264</v>
+        <v>45503</v>
       </c>
       <c r="P122">
         <v>0</v>
@@ -9829,13 +9843,16 @@
         <v>1</v>
       </c>
       <c r="R122">
-        <v>7.3037999999999998</v>
+        <v>21.12</v>
       </c>
       <c r="S122">
         <v>0</v>
       </c>
       <c r="T122" t="s">
         <v>189</v>
+      </c>
+      <c r="U122">
+        <v>7506375207240</v>
       </c>
       <c r="V122" t="s">
         <v>32</v>
@@ -9852,7 +9869,7 @@
         <v>187</v>
       </c>
       <c r="C123" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D123">
         <v>5</v>
@@ -9864,7 +9881,7 @@
         <v>1</v>
       </c>
       <c r="G123">
-        <v>7.3037999999999998</v>
+        <v>21.12</v>
       </c>
       <c r="H123">
         <v>1</v>
@@ -9873,7 +9890,7 @@
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K123">
         <v>0</v>
@@ -9882,13 +9899,13 @@
         <v>0</v>
       </c>
       <c r="M123">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N123">
-        <v>7.8232012199999996</v>
+        <v>0</v>
       </c>
       <c r="O123" s="1">
-        <v>46285</v>
+        <v>46021</v>
       </c>
       <c r="P123">
         <v>0</v>
@@ -9897,13 +9914,16 @@
         <v>1</v>
       </c>
       <c r="R123">
-        <v>7.3037999999999998</v>
+        <v>21.12</v>
       </c>
       <c r="S123">
         <v>0</v>
       </c>
       <c r="T123" t="s">
         <v>189</v>
+      </c>
+      <c r="U123">
+        <v>7506375207240</v>
       </c>
       <c r="V123" t="s">
         <v>32</v>
@@ -9920,7 +9940,7 @@
         <v>187</v>
       </c>
       <c r="C124" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D124">
         <v>5</v>
@@ -9932,7 +9952,7 @@
         <v>1</v>
       </c>
       <c r="G124">
-        <v>7.3037999999999998</v>
+        <v>21.12</v>
       </c>
       <c r="H124">
         <v>1</v>
@@ -9941,7 +9961,7 @@
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K124">
         <v>0</v>
@@ -9950,13 +9970,13 @@
         <v>0</v>
       </c>
       <c r="M124">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="N124">
-        <v>11.5669807</v>
+        <v>26.937799829999999</v>
       </c>
       <c r="O124" s="1">
-        <v>46325</v>
+        <v>46476</v>
       </c>
       <c r="P124">
         <v>0</v>
@@ -9965,13 +9985,16 @@
         <v>1</v>
       </c>
       <c r="R124">
-        <v>7.3037999999999998</v>
+        <v>21.12</v>
       </c>
       <c r="S124">
         <v>0</v>
       </c>
       <c r="T124" t="s">
         <v>189</v>
+      </c>
+      <c r="U124">
+        <v>7506375207240</v>
       </c>
       <c r="V124" t="s">
         <v>32</v>
@@ -9988,7 +10011,7 @@
         <v>187</v>
       </c>
       <c r="C125" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D125">
         <v>5</v>
@@ -10000,7 +10023,7 @@
         <v>1</v>
       </c>
       <c r="G125">
-        <v>7.3037999999999998</v>
+        <v>21.12</v>
       </c>
       <c r="H125">
         <v>1</v>
@@ -10009,7 +10032,7 @@
         <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K125">
         <v>0</v>
@@ -10018,13 +10041,13 @@
         <v>0</v>
       </c>
       <c r="M125">
-        <v>1204</v>
+        <v>480</v>
       </c>
       <c r="N125">
-        <v>7.3037999999999998</v>
+        <v>21.12</v>
       </c>
       <c r="O125" s="1">
-        <v>46568</v>
+        <v>46599</v>
       </c>
       <c r="P125">
         <v>0</v>
@@ -10033,7 +10056,7 @@
         <v>1</v>
       </c>
       <c r="R125">
-        <v>7.3037999999999998</v>
+        <v>21.12</v>
       </c>
       <c r="S125">
         <v>0</v>
@@ -10041,6 +10064,9 @@
       <c r="T125" t="s">
         <v>189</v>
       </c>
+      <c r="U125">
+        <v>7506375207240</v>
+      </c>
       <c r="V125" t="s">
         <v>32</v>
       </c>
@@ -10053,64 +10079,64 @@
     </row>
     <row r="126" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
+        <v>193</v>
+      </c>
+      <c r="C126" t="s">
         <v>194</v>
       </c>
-      <c r="C126" t="s">
+      <c r="D126">
+        <v>5</v>
+      </c>
+      <c r="E126">
+        <v>1</v>
+      </c>
+      <c r="F126">
+        <v>1</v>
+      </c>
+      <c r="G126">
+        <v>10.810359999999999</v>
+      </c>
+      <c r="H126">
+        <v>1</v>
+      </c>
+      <c r="I126">
+        <v>1</v>
+      </c>
+      <c r="J126" t="s">
+        <v>64</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+      <c r="M126">
+        <v>1653</v>
+      </c>
+      <c r="N126">
+        <v>10.506751469999999</v>
+      </c>
+      <c r="O126" s="1">
+        <v>46386</v>
+      </c>
+      <c r="P126">
+        <v>0</v>
+      </c>
+      <c r="Q126">
+        <v>1</v>
+      </c>
+      <c r="R126">
+        <v>10.810359999999999</v>
+      </c>
+      <c r="S126">
+        <v>0</v>
+      </c>
+      <c r="T126" t="s">
         <v>195</v>
       </c>
-      <c r="D126">
-        <v>5</v>
-      </c>
-      <c r="E126">
-        <v>1</v>
-      </c>
-      <c r="F126">
-        <v>1</v>
-      </c>
-      <c r="G126">
-        <v>11.6244525</v>
-      </c>
-      <c r="H126">
-        <v>1</v>
-      </c>
-      <c r="I126">
-        <v>1</v>
-      </c>
-      <c r="J126" t="s">
-        <v>65</v>
-      </c>
-      <c r="K126">
-        <v>0</v>
-      </c>
-      <c r="L126">
-        <v>0</v>
-      </c>
-      <c r="M126">
-        <v>1515</v>
-      </c>
-      <c r="N126">
-        <v>11.4525393</v>
-      </c>
-      <c r="O126" s="1">
-        <v>46233</v>
-      </c>
-      <c r="P126">
-        <v>0</v>
-      </c>
-      <c r="Q126">
-        <v>1</v>
-      </c>
-      <c r="R126">
-        <v>11.6244525</v>
-      </c>
-      <c r="S126">
-        <v>0</v>
-      </c>
-      <c r="T126" t="s">
-        <v>196</v>
-      </c>
       <c r="V126" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X126" t="s">
         <v>33</v>
@@ -10121,61 +10147,61 @@
     </row>
     <row r="127" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
+        <v>196</v>
+      </c>
+      <c r="C127" t="s">
         <v>197</v>
       </c>
-      <c r="C127" t="s">
+      <c r="D127">
+        <v>5</v>
+      </c>
+      <c r="E127">
+        <v>1</v>
+      </c>
+      <c r="F127">
+        <v>1</v>
+      </c>
+      <c r="G127">
+        <v>7.3037999999999998</v>
+      </c>
+      <c r="H127">
+        <v>1</v>
+      </c>
+      <c r="I127">
+        <v>1</v>
+      </c>
+      <c r="J127" t="s">
+        <v>64</v>
+      </c>
+      <c r="K127">
+        <v>0</v>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+      <c r="M127">
+        <v>17</v>
+      </c>
+      <c r="N127">
+        <v>-7.8902360000000005E-2</v>
+      </c>
+      <c r="O127" s="1">
+        <v>46052</v>
+      </c>
+      <c r="P127">
+        <v>0</v>
+      </c>
+      <c r="Q127">
+        <v>1</v>
+      </c>
+      <c r="R127">
+        <v>7.3037999999999998</v>
+      </c>
+      <c r="S127">
+        <v>0</v>
+      </c>
+      <c r="T127" t="s">
         <v>198</v>
-      </c>
-      <c r="D127">
-        <v>5</v>
-      </c>
-      <c r="E127">
-        <v>1</v>
-      </c>
-      <c r="F127">
-        <v>1</v>
-      </c>
-      <c r="G127">
-        <v>7.71</v>
-      </c>
-      <c r="H127">
-        <v>1</v>
-      </c>
-      <c r="I127">
-        <v>1</v>
-      </c>
-      <c r="J127" t="s">
-        <v>65</v>
-      </c>
-      <c r="K127">
-        <v>0</v>
-      </c>
-      <c r="L127">
-        <v>0</v>
-      </c>
-      <c r="M127">
-        <v>5</v>
-      </c>
-      <c r="N127">
-        <v>3.0707444399999999</v>
-      </c>
-      <c r="O127" s="1">
-        <v>46021</v>
-      </c>
-      <c r="P127">
-        <v>0</v>
-      </c>
-      <c r="Q127">
-        <v>1</v>
-      </c>
-      <c r="R127">
-        <v>7.71</v>
-      </c>
-      <c r="S127">
-        <v>0</v>
-      </c>
-      <c r="T127" t="s">
-        <v>199</v>
       </c>
       <c r="V127" t="s">
         <v>32</v>
@@ -10189,10 +10215,10 @@
     </row>
     <row r="128" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C128" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D128">
         <v>5</v>
@@ -10204,7 +10230,7 @@
         <v>1</v>
       </c>
       <c r="G128">
-        <v>7.71</v>
+        <v>7.3037999999999998</v>
       </c>
       <c r="H128">
         <v>1</v>
@@ -10213,7 +10239,7 @@
         <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K128">
         <v>0</v>
@@ -10222,13 +10248,13 @@
         <v>0</v>
       </c>
       <c r="M128">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N128">
-        <v>10.89314774</v>
+        <v>7.8232012199999996</v>
       </c>
       <c r="O128" s="1">
-        <v>46234</v>
+        <v>46285</v>
       </c>
       <c r="P128">
         <v>0</v>
@@ -10237,13 +10263,13 @@
         <v>1</v>
       </c>
       <c r="R128">
-        <v>7.71</v>
+        <v>7.3037999999999998</v>
       </c>
       <c r="S128">
         <v>0</v>
       </c>
       <c r="T128" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="V128" t="s">
         <v>32</v>
@@ -10257,10 +10283,10 @@
     </row>
     <row r="129" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C129" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D129">
         <v>5</v>
@@ -10272,7 +10298,7 @@
         <v>1</v>
       </c>
       <c r="G129">
-        <v>7.71</v>
+        <v>7.3037999999999998</v>
       </c>
       <c r="H129">
         <v>1</v>
@@ -10281,7 +10307,7 @@
         <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K129">
         <v>0</v>
@@ -10290,10 +10316,10 @@
         <v>0</v>
       </c>
       <c r="M129">
-        <v>2073</v>
+        <v>224</v>
       </c>
       <c r="N129">
-        <v>7.7108753300000004</v>
+        <v>7.3037999999999998</v>
       </c>
       <c r="O129" s="1">
         <v>46568</v>
@@ -10305,13 +10331,13 @@
         <v>1</v>
       </c>
       <c r="R129">
-        <v>7.71</v>
+        <v>7.3037999999999998</v>
       </c>
       <c r="S129">
         <v>0</v>
       </c>
       <c r="T129" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="V129" t="s">
         <v>32</v>
@@ -10320,6 +10346,278 @@
         <v>33</v>
       </c>
       <c r="Y129" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="130" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>201</v>
+      </c>
+      <c r="C130" t="s">
+        <v>202</v>
+      </c>
+      <c r="D130">
+        <v>5</v>
+      </c>
+      <c r="E130">
+        <v>1</v>
+      </c>
+      <c r="F130">
+        <v>1</v>
+      </c>
+      <c r="G130">
+        <v>11.6244525</v>
+      </c>
+      <c r="H130">
+        <v>1</v>
+      </c>
+      <c r="I130">
+        <v>1</v>
+      </c>
+      <c r="J130" t="s">
+        <v>64</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130">
+        <v>0</v>
+      </c>
+      <c r="M130">
+        <v>415</v>
+      </c>
+      <c r="N130">
+        <v>11.45253943</v>
+      </c>
+      <c r="O130" s="1">
+        <v>46233</v>
+      </c>
+      <c r="P130">
+        <v>0</v>
+      </c>
+      <c r="Q130">
+        <v>1</v>
+      </c>
+      <c r="R130">
+        <v>11.6244525</v>
+      </c>
+      <c r="S130">
+        <v>0</v>
+      </c>
+      <c r="T130" t="s">
+        <v>203</v>
+      </c>
+      <c r="V130" t="s">
+        <v>41</v>
+      </c>
+      <c r="X130" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y130" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="131" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>204</v>
+      </c>
+      <c r="C131" t="s">
+        <v>205</v>
+      </c>
+      <c r="D131">
+        <v>5</v>
+      </c>
+      <c r="E131">
+        <v>1</v>
+      </c>
+      <c r="F131">
+        <v>1</v>
+      </c>
+      <c r="G131">
+        <v>7.71</v>
+      </c>
+      <c r="H131">
+        <v>1</v>
+      </c>
+      <c r="I131">
+        <v>1</v>
+      </c>
+      <c r="J131" t="s">
+        <v>64</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+      <c r="M131">
+        <v>5</v>
+      </c>
+      <c r="N131">
+        <v>3.0707444399999999</v>
+      </c>
+      <c r="O131" s="1">
+        <v>46021</v>
+      </c>
+      <c r="P131">
+        <v>0</v>
+      </c>
+      <c r="Q131">
+        <v>1</v>
+      </c>
+      <c r="R131">
+        <v>7.71</v>
+      </c>
+      <c r="S131">
+        <v>0</v>
+      </c>
+      <c r="T131" t="s">
+        <v>206</v>
+      </c>
+      <c r="V131" t="s">
+        <v>32</v>
+      </c>
+      <c r="X131" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y131" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="132" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>204</v>
+      </c>
+      <c r="C132" t="s">
+        <v>207</v>
+      </c>
+      <c r="D132">
+        <v>5</v>
+      </c>
+      <c r="E132">
+        <v>1</v>
+      </c>
+      <c r="F132">
+        <v>1</v>
+      </c>
+      <c r="G132">
+        <v>7.71</v>
+      </c>
+      <c r="H132">
+        <v>1</v>
+      </c>
+      <c r="I132">
+        <v>1</v>
+      </c>
+      <c r="J132" t="s">
+        <v>64</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
+      <c r="M132">
+        <v>7</v>
+      </c>
+      <c r="N132">
+        <v>10.89314774</v>
+      </c>
+      <c r="O132" s="1">
+        <v>46234</v>
+      </c>
+      <c r="P132">
+        <v>0</v>
+      </c>
+      <c r="Q132">
+        <v>1</v>
+      </c>
+      <c r="R132">
+        <v>7.71</v>
+      </c>
+      <c r="S132">
+        <v>0</v>
+      </c>
+      <c r="T132" t="s">
+        <v>206</v>
+      </c>
+      <c r="V132" t="s">
+        <v>32</v>
+      </c>
+      <c r="X132" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y132" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="133" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>204</v>
+      </c>
+      <c r="C133" t="s">
+        <v>208</v>
+      </c>
+      <c r="D133">
+        <v>5</v>
+      </c>
+      <c r="E133">
+        <v>1</v>
+      </c>
+      <c r="F133">
+        <v>1</v>
+      </c>
+      <c r="G133">
+        <v>7.71</v>
+      </c>
+      <c r="H133">
+        <v>1</v>
+      </c>
+      <c r="I133">
+        <v>1</v>
+      </c>
+      <c r="J133" t="s">
+        <v>64</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>0</v>
+      </c>
+      <c r="M133">
+        <v>784</v>
+      </c>
+      <c r="N133">
+        <v>7.7110655599999998</v>
+      </c>
+      <c r="O133" s="1">
+        <v>46568</v>
+      </c>
+      <c r="P133">
+        <v>0</v>
+      </c>
+      <c r="Q133">
+        <v>1</v>
+      </c>
+      <c r="R133">
+        <v>7.71</v>
+      </c>
+      <c r="S133">
+        <v>0</v>
+      </c>
+      <c r="T133" t="s">
+        <v>206</v>
+      </c>
+      <c r="V133" t="s">
+        <v>32</v>
+      </c>
+      <c r="X133" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y133" t="s">
         <v>34</v>
       </c>
     </row>

--- a/FACT_INVPT_F.xlsx
+++ b/FACT_INVPT_F.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FARMIRAL\FINANZAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1646D340-DD1D-4E87-B48A-A52FD61CC390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{81149406-CDB3-4CF7-A929-96018DDE92E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{58ED535B-6551-4C0F-9E1E-B05A5D792B84}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0BFAF5DA-03E7-44DC-B60B-423F800051E2}"/>
   </bookViews>
   <sheets>
     <sheet name="ALPHA ERP® Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="190">
   <si>
     <t>cve_prod</t>
   </si>
@@ -111,73 +111,385 @@
     <t>desc_med</t>
   </si>
   <si>
-    <t>51CPDL01</t>
-  </si>
-  <si>
-    <t>24H0214</t>
+    <t>51PLCV01</t>
+  </si>
+  <si>
+    <t>25D017</t>
   </si>
   <si>
     <t>LINEA</t>
   </si>
   <si>
-    <t>DIALAVIT CAJA C/30 CAPS</t>
+    <t>C-VYM NARANJA-MANDARINA C/11 SOBRES</t>
+  </si>
+  <si>
+    <t>PIEZA</t>
+  </si>
+  <si>
+    <t>ALMACEN PT APROBADOS</t>
+  </si>
+  <si>
+    <t>PRODUCTO TERMINADO</t>
+  </si>
+  <si>
+    <t>51PLCV03</t>
+  </si>
+  <si>
+    <t>25D018</t>
+  </si>
+  <si>
+    <t>C-VYM CERO AZUCAR C/11 SOBRES</t>
+  </si>
+  <si>
+    <t>51PLFX04</t>
+  </si>
+  <si>
+    <t>25H016</t>
+  </si>
+  <si>
+    <t>FIBOTAX 10g C/30 SOBRES</t>
+  </si>
+  <si>
+    <t>51TBTM05</t>
+  </si>
+  <si>
+    <t>24K0278</t>
+  </si>
+  <si>
+    <t>TAMARIN-LX /45 CAPS.</t>
   </si>
   <si>
     <t>PZA</t>
   </si>
   <si>
-    <t>ALMACEN PT APROBADOS</t>
-  </si>
-  <si>
-    <t>PRODUCTO TERMINADO</t>
-  </si>
-  <si>
-    <t>51JBNC01</t>
-  </si>
-  <si>
-    <t>25C0098</t>
-  </si>
-  <si>
-    <t>NATUBRON CERO JARABE 240 ML</t>
-  </si>
-  <si>
-    <t>51PLCV01</t>
-  </si>
-  <si>
-    <t>25D017</t>
-  </si>
-  <si>
-    <t>C-VYM NARANJA-MANDARINA C/11 SOBRES</t>
-  </si>
-  <si>
-    <t>PIEZA</t>
-  </si>
-  <si>
-    <t>51PLCV03</t>
-  </si>
-  <si>
-    <t>25C034</t>
-  </si>
-  <si>
-    <t>C-VYM CERO AZUCAR C/11 SOBRES</t>
-  </si>
-  <si>
-    <t>25D018</t>
-  </si>
-  <si>
-    <t>51PLFX04</t>
+    <t>51PLFX02</t>
+  </si>
+  <si>
+    <t>MAQUILA</t>
+  </si>
+  <si>
+    <t>FIBOTAX SIMILARES 10g C/10 SOBRES</t>
+  </si>
+  <si>
+    <t>23F009</t>
+  </si>
+  <si>
+    <t>23F013</t>
+  </si>
+  <si>
+    <t>23F014</t>
+  </si>
+  <si>
+    <t>23G002</t>
+  </si>
+  <si>
+    <t>23G003</t>
+  </si>
+  <si>
+    <t>23G005</t>
+  </si>
+  <si>
+    <t>23G006</t>
+  </si>
+  <si>
+    <t>23G007</t>
+  </si>
+  <si>
+    <t>23G008</t>
+  </si>
+  <si>
+    <t>23G009</t>
+  </si>
+  <si>
+    <t>23G010</t>
+  </si>
+  <si>
+    <t>23G011</t>
+  </si>
+  <si>
+    <t>23G012</t>
+  </si>
+  <si>
+    <t>23G013</t>
+  </si>
+  <si>
+    <t>23G022</t>
+  </si>
+  <si>
+    <t>23G023</t>
+  </si>
+  <si>
+    <t>23G024</t>
+  </si>
+  <si>
+    <t>23G027</t>
+  </si>
+  <si>
+    <t>23G028</t>
+  </si>
+  <si>
+    <t>23G030</t>
+  </si>
+  <si>
+    <t>23G038</t>
+  </si>
+  <si>
+    <t>23G039</t>
+  </si>
+  <si>
+    <t>23G041</t>
+  </si>
+  <si>
+    <t>23H001</t>
+  </si>
+  <si>
+    <t>23H003</t>
+  </si>
+  <si>
+    <t>23H004</t>
+  </si>
+  <si>
+    <t>23H008</t>
+  </si>
+  <si>
+    <t>23H022</t>
+  </si>
+  <si>
+    <t>23H024</t>
+  </si>
+  <si>
+    <t>23H027</t>
+  </si>
+  <si>
+    <t>23H028</t>
+  </si>
+  <si>
+    <t>23H030</t>
+  </si>
+  <si>
+    <t>23H032</t>
+  </si>
+  <si>
+    <t>23H035</t>
+  </si>
+  <si>
+    <t>23H036</t>
+  </si>
+  <si>
+    <t>23H037</t>
+  </si>
+  <si>
+    <t>23H050</t>
+  </si>
+  <si>
+    <t>23H051</t>
+  </si>
+  <si>
+    <t>23H053</t>
+  </si>
+  <si>
+    <t>23H055</t>
+  </si>
+  <si>
+    <t>23I001</t>
+  </si>
+  <si>
+    <t>23I004</t>
+  </si>
+  <si>
+    <t>23I005</t>
+  </si>
+  <si>
+    <t>23I006</t>
+  </si>
+  <si>
+    <t>23I007</t>
+  </si>
+  <si>
+    <t>23I008</t>
+  </si>
+  <si>
+    <t>24D024</t>
+  </si>
+  <si>
+    <t>24F006</t>
+  </si>
+  <si>
+    <t>25C001</t>
+  </si>
+  <si>
+    <t>25C002</t>
+  </si>
+  <si>
+    <t>25C003</t>
+  </si>
+  <si>
+    <t>25C004</t>
+  </si>
+  <si>
+    <t>25C033</t>
+  </si>
+  <si>
+    <t>25D009</t>
+  </si>
+  <si>
+    <t>25D012</t>
+  </si>
+  <si>
+    <t>25D013</t>
+  </si>
+  <si>
+    <t>25D014</t>
   </si>
   <si>
     <t>25F105</t>
   </si>
   <si>
-    <t>FIBOTAX 10g C/30 SOBRES</t>
+    <t>25F108</t>
   </si>
   <si>
     <t>25F109</t>
   </si>
   <si>
-    <t>25H016</t>
+    <t>25F110</t>
+  </si>
+  <si>
+    <t>25F125</t>
+  </si>
+  <si>
+    <t>25F127</t>
+  </si>
+  <si>
+    <t>25F128</t>
+  </si>
+  <si>
+    <t>25G022</t>
+  </si>
+  <si>
+    <t>25G035</t>
+  </si>
+  <si>
+    <t>25G036</t>
+  </si>
+  <si>
+    <t>25G037</t>
+  </si>
+  <si>
+    <t>51CPCA01</t>
+  </si>
+  <si>
+    <t>24L019</t>
+  </si>
+  <si>
+    <t>MARCA PROP</t>
+  </si>
+  <si>
+    <t>COMPLETE ACTIVE FCO/60 CAPS</t>
+  </si>
+  <si>
+    <t>25C009</t>
+  </si>
+  <si>
+    <t>51CPCD01</t>
+  </si>
+  <si>
+    <t>25A056</t>
+  </si>
+  <si>
+    <t>CALCIO, VIT. D3 Y COLÁGENO FCO/60 CAPS</t>
+  </si>
+  <si>
+    <t>51CPCV01</t>
+  </si>
+  <si>
+    <t>24F0148</t>
+  </si>
+  <si>
+    <t>COENZIMAQ10, OM3, VIT Y MIN FCO/30 CAPS</t>
+  </si>
+  <si>
+    <t>24F0155</t>
+  </si>
+  <si>
+    <t>24K0281</t>
+  </si>
+  <si>
+    <t>25H012</t>
+  </si>
+  <si>
+    <t>51CPOM01</t>
+  </si>
+  <si>
+    <t>25G021</t>
+  </si>
+  <si>
+    <t>OMEGA 3, 6 Y 9 C/60 CAPS AL NATURAL</t>
+  </si>
+  <si>
+    <t>25H003</t>
+  </si>
+  <si>
+    <t>25H044</t>
+  </si>
+  <si>
+    <t>51CPOM02</t>
+  </si>
+  <si>
+    <t>25B057</t>
+  </si>
+  <si>
+    <t>OMEGA 3 C/60 CAPS AL NATURAL</t>
+  </si>
+  <si>
+    <t>25C041</t>
+  </si>
+  <si>
+    <t>25I028</t>
+  </si>
+  <si>
+    <t>51CPVAF01</t>
+  </si>
+  <si>
+    <t>24L062</t>
+  </si>
+  <si>
+    <t>VITAMINA A 200 MG C/30 CAPSULAS BLANDAS</t>
+  </si>
+  <si>
+    <t>51CPVB01</t>
+  </si>
+  <si>
+    <t>VITAMINA B12 C/30 CÁPSULAS 400mg</t>
+  </si>
+  <si>
+    <t>51JBMP01</t>
+  </si>
+  <si>
+    <t>25F0141</t>
+  </si>
+  <si>
+    <t>MIEL/PROPOLEO/MENTA Y EUCALIPTO 240ML</t>
+  </si>
+  <si>
+    <t>51PLFC01</t>
+  </si>
+  <si>
+    <t>25F032</t>
+  </si>
+  <si>
+    <t>COLÁGENO SABOR FRESA BOLSA CON 300 GR</t>
+  </si>
+  <si>
+    <t>51PLVC01</t>
+  </si>
+  <si>
+    <t>25F033</t>
+  </si>
+  <si>
+    <t>COLÁGENO SABOR VAINILLA BOLSA CON 600 g</t>
+  </si>
+  <si>
+    <t>25G012</t>
   </si>
   <si>
     <t>51TBAC01</t>
@@ -192,369 +504,6 @@
     <t>25A0015</t>
   </si>
   <si>
-    <t>51TBCA01</t>
-  </si>
-  <si>
-    <t>23L0336</t>
-  </si>
-  <si>
-    <t>CASTIN /50 TABS.</t>
-  </si>
-  <si>
-    <t>51TBTM05</t>
-  </si>
-  <si>
-    <t>24K0278</t>
-  </si>
-  <si>
-    <t>TAMARIN-LX /45 CAPS.</t>
-  </si>
-  <si>
-    <t>25A0024</t>
-  </si>
-  <si>
-    <t>51CPCA01</t>
-  </si>
-  <si>
-    <t>24L019</t>
-  </si>
-  <si>
-    <t>MAQUILA</t>
-  </si>
-  <si>
-    <t>COMPLETE ACTIVE FCO/60 CAPS</t>
-  </si>
-  <si>
-    <t>25C009</t>
-  </si>
-  <si>
-    <t>51CPCD01</t>
-  </si>
-  <si>
-    <t>25A056</t>
-  </si>
-  <si>
-    <t>CALCIO, VIT. D3 Y COLÁGENO FCO/60 CAPS</t>
-  </si>
-  <si>
-    <t>25C006</t>
-  </si>
-  <si>
-    <t>51CPCV01</t>
-  </si>
-  <si>
-    <t>24F0148</t>
-  </si>
-  <si>
-    <t>COENZIMAQ10, OM3, VIT Y MIN FCO/30 CAPS</t>
-  </si>
-  <si>
-    <t>24F0155</t>
-  </si>
-  <si>
-    <t>24K0281</t>
-  </si>
-  <si>
-    <t>24K0282</t>
-  </si>
-  <si>
-    <t>25H012</t>
-  </si>
-  <si>
-    <t>51CPOM01</t>
-  </si>
-  <si>
-    <t>25G021</t>
-  </si>
-  <si>
-    <t>OMEGA 3, 6 Y 9 C/60 CAPS AL NATURAL</t>
-  </si>
-  <si>
-    <t>25G041</t>
-  </si>
-  <si>
-    <t>25H003</t>
-  </si>
-  <si>
-    <t>25H044</t>
-  </si>
-  <si>
-    <t>51CPOM02</t>
-  </si>
-  <si>
-    <t>25B057</t>
-  </si>
-  <si>
-    <t>OMEGA 3 C/60 CAPS AL NATURAL</t>
-  </si>
-  <si>
-    <t>25C041</t>
-  </si>
-  <si>
-    <t>25D020</t>
-  </si>
-  <si>
-    <t>25H002</t>
-  </si>
-  <si>
-    <t>25H043</t>
-  </si>
-  <si>
-    <t>51CPVAF01</t>
-  </si>
-  <si>
-    <t>24L062</t>
-  </si>
-  <si>
-    <t>VITAMINA A 200 MG C/30 CAPSULAS BLANDAS</t>
-  </si>
-  <si>
-    <t>51CPVB01</t>
-  </si>
-  <si>
-    <t>VITAMINA B12 C/30 CÁPSULAS 400mg</t>
-  </si>
-  <si>
-    <t>51JBMP01</t>
-  </si>
-  <si>
-    <t>25A0020</t>
-  </si>
-  <si>
-    <t>MIEL/PROPOLEO/MENTA Y EUCALIPTO 240ML</t>
-  </si>
-  <si>
-    <t>51PLCX01</t>
-  </si>
-  <si>
-    <t>25F124</t>
-  </si>
-  <si>
-    <t>CART X-3 CAJA CON 30 SOBRES 12.5GR</t>
-  </si>
-  <si>
-    <t>51PLFC01</t>
-  </si>
-  <si>
-    <t>25F032</t>
-  </si>
-  <si>
-    <t>COLÁGENO SABOR FRESA BOLSA CON 300 GR</t>
-  </si>
-  <si>
-    <t>51PLFX02</t>
-  </si>
-  <si>
-    <t>FIBOTAX SIMILARES 10g C/10 SOBRES</t>
-  </si>
-  <si>
-    <t>23F009</t>
-  </si>
-  <si>
-    <t>23F013</t>
-  </si>
-  <si>
-    <t>23F014</t>
-  </si>
-  <si>
-    <t>23G002</t>
-  </si>
-  <si>
-    <t>23G003</t>
-  </si>
-  <si>
-    <t>23G005</t>
-  </si>
-  <si>
-    <t>23G006</t>
-  </si>
-  <si>
-    <t>23G007</t>
-  </si>
-  <si>
-    <t>23G008</t>
-  </si>
-  <si>
-    <t>23G009</t>
-  </si>
-  <si>
-    <t>23G010</t>
-  </si>
-  <si>
-    <t>23G011</t>
-  </si>
-  <si>
-    <t>23G012</t>
-  </si>
-  <si>
-    <t>23G013</t>
-  </si>
-  <si>
-    <t>23G022</t>
-  </si>
-  <si>
-    <t>23G023</t>
-  </si>
-  <si>
-    <t>23G024</t>
-  </si>
-  <si>
-    <t>23G027</t>
-  </si>
-  <si>
-    <t>23G028</t>
-  </si>
-  <si>
-    <t>23G030</t>
-  </si>
-  <si>
-    <t>23G038</t>
-  </si>
-  <si>
-    <t>23G039</t>
-  </si>
-  <si>
-    <t>23G041</t>
-  </si>
-  <si>
-    <t>23H001</t>
-  </si>
-  <si>
-    <t>23H003</t>
-  </si>
-  <si>
-    <t>23H004</t>
-  </si>
-  <si>
-    <t>23H008</t>
-  </si>
-  <si>
-    <t>23H022</t>
-  </si>
-  <si>
-    <t>23H024</t>
-  </si>
-  <si>
-    <t>23H027</t>
-  </si>
-  <si>
-    <t>23H028</t>
-  </si>
-  <si>
-    <t>23H030</t>
-  </si>
-  <si>
-    <t>23H032</t>
-  </si>
-  <si>
-    <t>23H035</t>
-  </si>
-  <si>
-    <t>23H036</t>
-  </si>
-  <si>
-    <t>23H037</t>
-  </si>
-  <si>
-    <t>23H050</t>
-  </si>
-  <si>
-    <t>23H051</t>
-  </si>
-  <si>
-    <t>23H053</t>
-  </si>
-  <si>
-    <t>23H055</t>
-  </si>
-  <si>
-    <t>23I001</t>
-  </si>
-  <si>
-    <t>23I004</t>
-  </si>
-  <si>
-    <t>23I005</t>
-  </si>
-  <si>
-    <t>23I006</t>
-  </si>
-  <si>
-    <t>23I007</t>
-  </si>
-  <si>
-    <t>23I008</t>
-  </si>
-  <si>
-    <t>24D024</t>
-  </si>
-  <si>
-    <t>24F006</t>
-  </si>
-  <si>
-    <t>25C001</t>
-  </si>
-  <si>
-    <t>25C002</t>
-  </si>
-  <si>
-    <t>25C003</t>
-  </si>
-  <si>
-    <t>25C004</t>
-  </si>
-  <si>
-    <t>25C033</t>
-  </si>
-  <si>
-    <t>25D009</t>
-  </si>
-  <si>
-    <t>25D012</t>
-  </si>
-  <si>
-    <t>25D013</t>
-  </si>
-  <si>
-    <t>25D014</t>
-  </si>
-  <si>
-    <t>25F108</t>
-  </si>
-  <si>
-    <t>25F110</t>
-  </si>
-  <si>
-    <t>25F125</t>
-  </si>
-  <si>
-    <t>25F127</t>
-  </si>
-  <si>
-    <t>25F128</t>
-  </si>
-  <si>
-    <t>25G022</t>
-  </si>
-  <si>
-    <t>25G035</t>
-  </si>
-  <si>
-    <t>25G036</t>
-  </si>
-  <si>
-    <t>25G037</t>
-  </si>
-  <si>
-    <t>51PLVC01</t>
-  </si>
-  <si>
-    <t>25F033</t>
-  </si>
-  <si>
-    <t>COLÁGENO SABOR VAINILLA BOLSA CON 600 g</t>
-  </si>
-  <si>
     <t>51TBAP01</t>
   </si>
   <si>
@@ -567,9 +516,6 @@
     <t>24F009</t>
   </si>
   <si>
-    <t>25A095</t>
-  </si>
-  <si>
     <t>25C008</t>
   </si>
   <si>
@@ -588,24 +534,24 @@
     <t>25G0185</t>
   </si>
   <si>
+    <t>51TBCR01</t>
+  </si>
+  <si>
+    <t>24H0210</t>
+  </si>
+  <si>
+    <t>C-REVITAL KIDS FCO 50 TABS DE 800 mg</t>
+  </si>
+  <si>
     <t>51TBEX03</t>
   </si>
   <si>
-    <t>22G0255</t>
+    <t>25G032</t>
   </si>
   <si>
     <t>FIBRA/BIOFLAV/LACTOB/VITAMINAS 90 TABS</t>
   </si>
   <si>
-    <t>23K029</t>
-  </si>
-  <si>
-    <t>25C014</t>
-  </si>
-  <si>
-    <t>25G032</t>
-  </si>
-  <si>
     <t>51TBKY01</t>
   </si>
   <si>
@@ -625,9 +571,6 @@
   </si>
   <si>
     <t>24I0225</t>
-  </si>
-  <si>
-    <t>25F0175</t>
   </si>
   <si>
     <t>51TBVK01</t>
@@ -1513,8 +1456,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95F4CF0C-1419-4D5A-80ED-1FF3D0DFCB03}">
-  <dimension ref="A1:AB133"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC15AB10-328B-45A9-922A-41F6835D0351}">
+  <dimension ref="A1:AB117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1623,7 +1566,7 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.649999999999999</v>
+        <v>17.2</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -1641,13 +1584,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="N2">
-        <v>19.399999999999999</v>
+        <v>24.88422358</v>
       </c>
       <c r="O2" s="1">
-        <v>46264</v>
+        <v>46507</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -1656,7 +1599,7 @@
         <v>1</v>
       </c>
       <c r="R2">
-        <v>17.649999999999999</v>
+        <v>17.2</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -1665,7 +1608,7 @@
         <v>31</v>
       </c>
       <c r="U2">
-        <v>7503020089657</v>
+        <v>7503020089503</v>
       </c>
       <c r="V2" t="s">
         <v>32</v>
@@ -1694,7 +1637,7 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.25</v>
+        <v>12.98</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -1706,19 +1649,19 @@
         <v>30</v>
       </c>
       <c r="K3">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N3">
-        <v>44.21</v>
+        <v>21.953416300000001</v>
       </c>
       <c r="O3" s="1">
-        <v>46476</v>
+        <v>46507</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -1727,16 +1670,16 @@
         <v>1</v>
       </c>
       <c r="R3">
-        <v>14.25</v>
+        <v>12.98</v>
       </c>
       <c r="S3">
-        <v>8.75</v>
+        <v>0</v>
       </c>
       <c r="T3" t="s">
         <v>37</v>
       </c>
       <c r="U3">
-        <v>7503020089374</v>
+        <v>7503020089770</v>
       </c>
       <c r="V3" t="s">
         <v>32</v>
@@ -1765,7 +1708,7 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.2</v>
+        <v>51.85</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -1783,13 +1726,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>40</v>
+        <v>598</v>
       </c>
       <c r="N4">
-        <v>24.88422358</v>
+        <v>51.85</v>
       </c>
       <c r="O4" s="1">
-        <v>46507</v>
+        <v>46630</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -1798,7 +1741,7 @@
         <v>1</v>
       </c>
       <c r="R4">
-        <v>17.2</v>
+        <v>51.85</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -1806,11 +1749,8 @@
       <c r="T4" t="s">
         <v>40</v>
       </c>
-      <c r="U4">
-        <v>7503020089503</v>
-      </c>
       <c r="V4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="X4" t="s">
         <v>33</v>
@@ -1821,11 +1761,11 @@
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
         <v>42</v>
       </c>
-      <c r="C5" t="s">
-        <v>43</v>
-      </c>
       <c r="D5">
         <v>5</v>
       </c>
@@ -1836,7 +1776,7 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.98</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -1848,19 +1788,19 @@
         <v>30</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="N5">
-        <v>21.953416300000001</v>
+        <v>11.973092919999999</v>
       </c>
       <c r="O5" s="1">
-        <v>46476</v>
+        <v>46721</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -1869,19 +1809,19 @@
         <v>1</v>
       </c>
       <c r="R5">
-        <v>12.98</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="T5" t="s">
+        <v>43</v>
+      </c>
+      <c r="U5">
+        <v>7506623200092</v>
+      </c>
+      <c r="V5" t="s">
         <v>44</v>
-      </c>
-      <c r="U5">
-        <v>7503020089770</v>
-      </c>
-      <c r="V5" t="s">
-        <v>41</v>
       </c>
       <c r="X5" t="s">
         <v>33</v>
@@ -1892,11 +1832,11 @@
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" t="s">
         <v>45</v>
       </c>
+      <c r="C6" s="2">
+        <v>230000</v>
+      </c>
       <c r="D6">
         <v>5</v>
       </c>
@@ -1907,7 +1847,7 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.98</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -1916,7 +1856,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1925,13 +1865,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="N6">
-        <v>21.953416300000001</v>
+        <v>18.99068596</v>
       </c>
       <c r="O6" s="1">
-        <v>46507</v>
+        <v>45808</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1940,19 +1880,16 @@
         <v>1</v>
       </c>
       <c r="R6">
-        <v>12.98</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>44</v>
-      </c>
-      <c r="U6">
-        <v>7503020089770</v>
+        <v>47</v>
       </c>
       <c r="V6" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="X6" t="s">
         <v>33</v>
@@ -1963,64 +1900,64 @@
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2300000</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>17.420000000000002</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
         <v>46</v>
       </c>
-      <c r="C7" t="s">
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>5</v>
+      </c>
+      <c r="N7">
+        <v>22.556133559999999</v>
+      </c>
+      <c r="O7" s="1">
+        <v>45808</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>17.420000000000002</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7" t="s">
         <v>47</v>
       </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>51.85</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>12</v>
-      </c>
-      <c r="N7">
-        <v>51.85</v>
-      </c>
-      <c r="O7" s="1">
-        <v>46568</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>1</v>
-      </c>
-      <c r="R7">
-        <v>51.85</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7" t="s">
-        <v>48</v>
-      </c>
       <c r="V7" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="X7" t="s">
         <v>33</v>
@@ -2031,32 +1968,32 @@
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="2">
+        <v>23000000000000</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>17.420000000000002</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
         <v>46</v>
       </c>
-      <c r="C8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>51.85</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8" t="s">
-        <v>30</v>
-      </c>
       <c r="K8">
         <v>0</v>
       </c>
@@ -2064,13 +2001,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="N8">
-        <v>51.85</v>
+        <v>24.13637937</v>
       </c>
       <c r="O8" s="1">
-        <v>46568</v>
+        <v>45808</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -2079,16 +2016,16 @@
         <v>1</v>
       </c>
       <c r="R8">
-        <v>51.85</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="V8" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="X8" t="s">
         <v>33</v>
@@ -2099,32 +2036,32 @@
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="2">
+        <v>230000000000000</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>17.420000000000002</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
         <v>46</v>
       </c>
-      <c r="C9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9">
-        <v>5</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>51.85</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9" t="s">
-        <v>30</v>
-      </c>
       <c r="K9">
         <v>0</v>
       </c>
@@ -2132,13 +2069,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>634</v>
+        <v>12</v>
       </c>
       <c r="N9">
-        <v>51.85</v>
+        <v>18.96525299</v>
       </c>
       <c r="O9" s="1">
-        <v>46630</v>
+        <v>45808</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -2147,16 +2084,16 @@
         <v>1</v>
       </c>
       <c r="R9">
-        <v>51.85</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="V9" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="X9" t="s">
         <v>33</v>
@@ -2167,10 +2104,10 @@
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D10">
         <v>5</v>
@@ -2182,7 +2119,7 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.4160399000000004</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -2191,7 +2128,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -2200,13 +2137,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="N10">
-        <v>10.176050760000001</v>
+        <v>16.5714711</v>
       </c>
       <c r="O10" s="1">
-        <v>46021</v>
+        <v>45838</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -2215,16 +2152,16 @@
         <v>1</v>
       </c>
       <c r="R10">
-        <v>7.4160399000000004</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="V10" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="X10" t="s">
         <v>33</v>
@@ -2235,10 +2172,10 @@
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D11">
         <v>5</v>
@@ -2250,7 +2187,7 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.4160399000000004</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -2259,7 +2196,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -2268,13 +2205,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>2645</v>
+        <v>6</v>
       </c>
       <c r="N11">
-        <v>7.4096966999999996</v>
+        <v>16.06377458</v>
       </c>
       <c r="O11" s="1">
-        <v>46417</v>
+        <v>45838</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -2283,16 +2220,16 @@
         <v>1</v>
       </c>
       <c r="R11">
-        <v>7.4160399000000004</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="V11" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="X11" t="s">
         <v>33</v>
@@ -2303,10 +2240,10 @@
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D12">
         <v>5</v>
@@ -2318,7 +2255,7 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>11.35188507</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -2327,22 +2264,22 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="K12">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="N12">
-        <v>10.426695</v>
+        <v>15.95149692</v>
       </c>
       <c r="O12" s="1">
-        <v>46387</v>
+        <v>45838</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -2351,16 +2288,13 @@
         <v>1</v>
       </c>
       <c r="R12">
-        <v>11.35188507</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="S12">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>57</v>
-      </c>
-      <c r="U12">
-        <v>7503020089312</v>
+        <v>47</v>
       </c>
       <c r="V12" t="s">
         <v>32</v>
@@ -2374,10 +2308,10 @@
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D13">
         <v>5</v>
@@ -2389,7 +2323,7 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -2398,22 +2332,22 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="N13">
-        <v>302779497.25384599</v>
+        <v>15.80452107</v>
       </c>
       <c r="O13" s="1">
-        <v>46721</v>
+        <v>45869</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -2422,16 +2356,13 @@
         <v>1</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="S13">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>60</v>
-      </c>
-      <c r="U13">
-        <v>7506623200092</v>
+        <v>47</v>
       </c>
       <c r="V13" t="s">
         <v>32</v>
@@ -2445,10 +2376,10 @@
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D14">
         <v>5</v>
@@ -2460,7 +2391,7 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -2469,22 +2400,22 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
         <v>30</v>
       </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>93</v>
-      </c>
       <c r="N14">
-        <v>471.80122549999999</v>
+        <v>17.617315229999999</v>
       </c>
       <c r="O14" s="1">
-        <v>46782</v>
+        <v>45869</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -2493,16 +2424,13 @@
         <v>1</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="S14">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>60</v>
-      </c>
-      <c r="U14">
-        <v>7506623200092</v>
+        <v>47</v>
       </c>
       <c r="V14" t="s">
         <v>32</v>
@@ -2516,10 +2444,10 @@
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D15">
         <v>5</v>
@@ -2531,7 +2459,7 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>24.7177948</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -2540,7 +2468,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -2549,13 +2477,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="N15">
-        <v>-123.591759</v>
+        <v>15.68514367</v>
       </c>
       <c r="O15" s="1">
-        <v>46386</v>
+        <v>45869</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -2564,13 +2492,13 @@
         <v>1</v>
       </c>
       <c r="R15">
-        <v>24.7177948</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="V15" t="s">
         <v>32</v>
@@ -2584,10 +2512,10 @@
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="D16">
         <v>5</v>
@@ -2599,7 +2527,7 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>24.7177948</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -2608,7 +2536,7 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -2617,13 +2545,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>516</v>
+        <v>4</v>
       </c>
       <c r="N16">
-        <v>24.7177948</v>
+        <v>15.875601899999999</v>
       </c>
       <c r="O16" s="1">
-        <v>46476</v>
+        <v>45869</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -2632,13 +2560,13 @@
         <v>1</v>
       </c>
       <c r="R16">
-        <v>24.7177948</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="V16" t="s">
         <v>32</v>
@@ -2652,10 +2580,10 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="D17">
         <v>5</v>
@@ -2667,7 +2595,7 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>11.85</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -2676,7 +2604,7 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2685,13 +2613,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="N17">
-        <v>17.581466670000001</v>
+        <v>15.553117840000001</v>
       </c>
       <c r="O17" s="1">
-        <v>46417</v>
+        <v>45869</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -2700,13 +2628,13 @@
         <v>1</v>
       </c>
       <c r="R17">
-        <v>11.85</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="V17" t="s">
         <v>32</v>
@@ -2720,10 +2648,10 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="D18">
         <v>5</v>
@@ -2735,7 +2663,7 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>11.85</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2744,7 +2672,7 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2753,13 +2681,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N18">
-        <v>18.3279034</v>
+        <v>16.072372860000002</v>
       </c>
       <c r="O18" s="1">
-        <v>46476</v>
+        <v>45869</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -2768,13 +2696,13 @@
         <v>1</v>
       </c>
       <c r="R18">
-        <v>11.85</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="S18">
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="V18" t="s">
         <v>32</v>
@@ -2788,10 +2716,10 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="2">
-        <v>2.5000000000000001E+63</v>
+        <v>45</v>
+      </c>
+      <c r="C19" t="s">
+        <v>57</v>
       </c>
       <c r="D19">
         <v>5</v>
@@ -2803,7 +2731,7 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>11.85</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -2812,7 +2740,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2821,13 +2749,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>560</v>
+        <v>33</v>
       </c>
       <c r="N19">
-        <v>11.85</v>
+        <v>16.412520529999998</v>
       </c>
       <c r="O19" s="1">
-        <v>46538</v>
+        <v>45869</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -2836,13 +2764,13 @@
         <v>1</v>
       </c>
       <c r="R19">
-        <v>11.85</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="V19" t="s">
         <v>32</v>
@@ -2856,10 +2784,10 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="D20">
         <v>5</v>
@@ -2871,7 +2799,7 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>21.445813000000001</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2880,7 +2808,7 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2889,13 +2817,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>15.744386</v>
       </c>
       <c r="O20" s="1">
-        <v>46203</v>
+        <v>45869</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -2904,13 +2832,13 @@
         <v>1</v>
       </c>
       <c r="R20">
-        <v>21.445813000000001</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="V20" t="s">
         <v>32</v>
@@ -2924,10 +2852,10 @@
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="C21" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="D21">
         <v>5</v>
@@ -2939,7 +2867,7 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>21.445813000000001</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -2948,7 +2876,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2957,13 +2885,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="N21">
-        <v>24.084548999999999</v>
+        <v>15.744386</v>
       </c>
       <c r="O21" s="1">
-        <v>46203</v>
+        <v>45869</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -2972,13 +2900,13 @@
         <v>1</v>
       </c>
       <c r="R21">
-        <v>21.445813000000001</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="V21" t="s">
         <v>32</v>
@@ -2992,10 +2920,10 @@
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="C22" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="D22">
         <v>5</v>
@@ -3007,7 +2935,7 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>21.445813000000001</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -3016,7 +2944,7 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -3025,13 +2953,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="N22">
-        <v>21.443021550000001</v>
+        <v>16.299073969999998</v>
       </c>
       <c r="O22" s="1">
-        <v>46356</v>
+        <v>45868</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -3040,13 +2968,13 @@
         <v>1</v>
       </c>
       <c r="R22">
-        <v>21.445813000000001</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="S22">
         <v>0</v>
       </c>
       <c r="T22" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="V22" t="s">
         <v>32</v>
@@ -3060,10 +2988,10 @@
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="C23" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="D23">
         <v>5</v>
@@ -3075,7 +3003,7 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>21.445813000000001</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -3084,7 +3012,7 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -3093,13 +3021,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="N23">
-        <v>18.69291934</v>
+        <v>15.685392909999999</v>
       </c>
       <c r="O23" s="1">
-        <v>46356</v>
+        <v>45869</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -3108,13 +3036,13 @@
         <v>1</v>
       </c>
       <c r="R23">
-        <v>21.445813000000001</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="V23" t="s">
         <v>32</v>
@@ -3128,10 +3056,10 @@
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="C24" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="D24">
         <v>5</v>
@@ -3143,7 +3071,7 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>21.445813000000001</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -3152,7 +3080,7 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -3161,13 +3089,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1131</v>
+        <v>17</v>
       </c>
       <c r="N24">
-        <v>21.445813000000001</v>
+        <v>15.80305983</v>
       </c>
       <c r="O24" s="1">
-        <v>46630</v>
+        <v>45869</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -3176,13 +3104,13 @@
         <v>1</v>
       </c>
       <c r="R24">
-        <v>21.445813000000001</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="V24" t="s">
         <v>32</v>
@@ -3196,10 +3124,10 @@
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="C25" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="D25">
         <v>5</v>
@@ -3211,7 +3139,7 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>62.92</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -3220,7 +3148,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -3229,13 +3157,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="N25">
-        <v>62.92</v>
+        <v>15.74372258</v>
       </c>
       <c r="O25" s="1">
-        <v>46599</v>
+        <v>45869</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -3244,13 +3172,13 @@
         <v>1</v>
       </c>
       <c r="R25">
-        <v>62.92</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="V25" t="s">
         <v>32</v>
@@ -3264,10 +3192,10 @@
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="C26" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="D26">
         <v>5</v>
@@ -3279,7 +3207,7 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>62.92</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -3288,7 +3216,7 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -3297,13 +3225,13 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="N26">
-        <v>62.92</v>
+        <v>15.804721109999999</v>
       </c>
       <c r="O26" s="1">
-        <v>46599</v>
+        <v>45869</v>
       </c>
       <c r="P26">
         <v>0</v>
@@ -3312,13 +3240,13 @@
         <v>1</v>
       </c>
       <c r="R26">
-        <v>62.92</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="S26">
         <v>0</v>
       </c>
       <c r="T26" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="V26" t="s">
         <v>32</v>
@@ -3332,10 +3260,10 @@
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="C27" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="D27">
         <v>5</v>
@@ -3347,7 +3275,7 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>62.92</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -3356,7 +3284,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -3365,13 +3293,13 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="N27">
-        <v>62.92</v>
+        <v>15.848007000000001</v>
       </c>
       <c r="O27" s="1">
-        <v>46630</v>
+        <v>45869</v>
       </c>
       <c r="P27">
         <v>0</v>
@@ -3380,13 +3308,13 @@
         <v>1</v>
       </c>
       <c r="R27">
-        <v>62.92</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="V27" t="s">
         <v>32</v>
@@ -3400,10 +3328,10 @@
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="C28" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="D28">
         <v>5</v>
@@ -3415,7 +3343,7 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>62.92</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -3424,7 +3352,7 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -3433,13 +3361,13 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>947</v>
+        <v>13</v>
       </c>
       <c r="N28">
-        <v>62.92</v>
+        <v>16.153361360000002</v>
       </c>
       <c r="O28" s="1">
-        <v>46630</v>
+        <v>45869</v>
       </c>
       <c r="P28">
         <v>0</v>
@@ -3448,13 +3376,13 @@
         <v>1</v>
       </c>
       <c r="R28">
-        <v>62.92</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="V28" t="s">
         <v>32</v>
@@ -3468,10 +3396,10 @@
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="C29" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="D29">
         <v>5</v>
@@ -3483,7 +3411,7 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>29.05</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -3492,7 +3420,7 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3501,13 +3429,13 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>15.69670498</v>
       </c>
       <c r="O29" s="1">
-        <v>46782</v>
+        <v>45869</v>
       </c>
       <c r="P29">
         <v>0</v>
@@ -3516,13 +3444,13 @@
         <v>1</v>
       </c>
       <c r="R29">
-        <v>29.05</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="V29" t="s">
         <v>32</v>
@@ -3536,10 +3464,10 @@
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="C30" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="D30">
         <v>5</v>
@@ -3551,7 +3479,7 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>29.05</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -3560,7 +3488,7 @@
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3569,13 +3497,13 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N30">
-        <v>56.490813129999999</v>
+        <v>15.859595759999999</v>
       </c>
       <c r="O30" s="1">
-        <v>46476</v>
+        <v>45868</v>
       </c>
       <c r="P30">
         <v>0</v>
@@ -3584,13 +3512,13 @@
         <v>1</v>
       </c>
       <c r="R30">
-        <v>29.05</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="S30">
         <v>0</v>
       </c>
       <c r="T30" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="V30" t="s">
         <v>32</v>
@@ -3604,10 +3532,10 @@
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="C31" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="D31">
         <v>5</v>
@@ -3619,7 +3547,7 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>29.05</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -3628,7 +3556,7 @@
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3637,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="N31">
-        <v>56.490813129999999</v>
+        <v>16.232195659999999</v>
       </c>
       <c r="O31" s="1">
-        <v>46507</v>
+        <v>45868</v>
       </c>
       <c r="P31">
         <v>0</v>
@@ -3652,13 +3580,13 @@
         <v>1</v>
       </c>
       <c r="R31">
-        <v>29.05</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="V31" t="s">
         <v>32</v>
@@ -3672,10 +3600,10 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="C32" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="D32">
         <v>5</v>
@@ -3687,7 +3615,7 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>29.05</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -3696,7 +3624,7 @@
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3705,13 +3633,13 @@
         <v>0</v>
       </c>
       <c r="M32">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N32">
-        <v>29.05</v>
+        <v>15.90906038</v>
       </c>
       <c r="O32" s="1">
-        <v>46630</v>
+        <v>45868</v>
       </c>
       <c r="P32">
         <v>0</v>
@@ -3720,13 +3648,13 @@
         <v>1</v>
       </c>
       <c r="R32">
-        <v>29.05</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="V32" t="s">
         <v>32</v>
@@ -3740,10 +3668,10 @@
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="C33" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D33">
         <v>5</v>
@@ -3755,7 +3683,7 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>29.05</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -3764,7 +3692,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3773,13 +3701,13 @@
         <v>0</v>
       </c>
       <c r="M33">
-        <v>551</v>
+        <v>6</v>
       </c>
       <c r="N33">
-        <v>29.05</v>
+        <v>15.6787183</v>
       </c>
       <c r="O33" s="1">
-        <v>46629</v>
+        <v>45899</v>
       </c>
       <c r="P33">
         <v>0</v>
@@ -3788,13 +3716,13 @@
         <v>1</v>
       </c>
       <c r="R33">
-        <v>29.05</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="V33" t="s">
         <v>32</v>
@@ -3808,10 +3736,10 @@
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="C34" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="D34">
         <v>5</v>
@@ -3823,7 +3751,7 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>24.469519999999999</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -3832,7 +3760,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3841,13 +3769,13 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <v>992</v>
+        <v>13</v>
       </c>
       <c r="N34">
-        <v>27.28715287</v>
+        <v>15.87980563</v>
       </c>
       <c r="O34" s="1">
-        <v>46446</v>
+        <v>45899</v>
       </c>
       <c r="P34">
         <v>0</v>
@@ -3856,13 +3784,13 @@
         <v>1</v>
       </c>
       <c r="R34">
-        <v>24.469519999999999</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="S34">
         <v>0</v>
       </c>
       <c r="T34" t="s">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="V34" t="s">
         <v>32</v>
@@ -3876,10 +3804,10 @@
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>94</v>
-      </c>
-      <c r="C35" s="2">
-        <v>2.5E+64</v>
+        <v>45</v>
+      </c>
+      <c r="C35" t="s">
+        <v>73</v>
       </c>
       <c r="D35">
         <v>5</v>
@@ -3891,7 +3819,7 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>16.899999999999999</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -3900,7 +3828,7 @@
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3909,13 +3837,13 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>1250</v>
+        <v>6</v>
       </c>
       <c r="N35">
-        <v>16.899999999999999</v>
+        <v>15.90286044</v>
       </c>
       <c r="O35" s="1">
-        <v>46538</v>
+        <v>45899</v>
       </c>
       <c r="P35">
         <v>0</v>
@@ -3924,16 +3852,16 @@
         <v>1</v>
       </c>
       <c r="R35">
-        <v>16.899999999999999</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="V35" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="X35" t="s">
         <v>33</v>
@@ -3944,10 +3872,10 @@
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="C36" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="D36">
         <v>5</v>
@@ -3959,7 +3887,7 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>14.73136768</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3968,22 +3896,22 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="K36">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="L36">
         <v>0</v>
       </c>
       <c r="M36">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="N36">
-        <v>14.73136768</v>
+        <v>16.790501070000001</v>
       </c>
       <c r="O36" s="1">
-        <v>46417</v>
+        <v>45899</v>
       </c>
       <c r="P36">
         <v>0</v>
@@ -3992,13 +3920,13 @@
         <v>1</v>
       </c>
       <c r="R36">
-        <v>14.73136768</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="S36">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="T36" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="V36" t="s">
         <v>32</v>
@@ -4012,10 +3940,10 @@
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="C37" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D37">
         <v>5</v>
@@ -4027,7 +3955,7 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>89.01</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -4036,22 +3964,22 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L37">
         <v>0</v>
       </c>
       <c r="M37">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="N37">
-        <v>89.01</v>
+        <v>16.196605600000002</v>
       </c>
       <c r="O37" s="1">
-        <v>46568</v>
+        <v>45899</v>
       </c>
       <c r="P37">
         <v>0</v>
@@ -4060,16 +3988,13 @@
         <v>1</v>
       </c>
       <c r="R37">
-        <v>89.01</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="S37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T37" t="s">
-        <v>101</v>
-      </c>
-      <c r="U37">
-        <v>7506429300019</v>
+        <v>47</v>
       </c>
       <c r="V37" t="s">
         <v>32</v>
@@ -4083,10 +4008,10 @@
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="D38">
         <v>5</v>
@@ -4098,7 +4023,7 @@
         <v>1</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -4107,7 +4032,7 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -4116,13 +4041,13 @@
         <v>0</v>
       </c>
       <c r="M38">
-        <v>632</v>
+        <v>3</v>
       </c>
       <c r="N38">
-        <v>198.54004626</v>
+        <v>16.71610707</v>
       </c>
       <c r="O38" s="1">
-        <v>46568</v>
+        <v>45899</v>
       </c>
       <c r="P38">
         <v>0</v>
@@ -4131,13 +4056,13 @@
         <v>1</v>
       </c>
       <c r="R38">
-        <v>0</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="S38">
         <v>0</v>
       </c>
       <c r="T38" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="V38" t="s">
         <v>32</v>
@@ -4151,10 +4076,10 @@
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>105</v>
-      </c>
-      <c r="C39" s="2">
-        <v>230000</v>
+        <v>45</v>
+      </c>
+      <c r="C39" t="s">
+        <v>77</v>
       </c>
       <c r="D39">
         <v>5</v>
@@ -4175,7 +4100,7 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -4184,13 +4109,13 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N39">
-        <v>18.99068596</v>
+        <v>-15903.272727879999</v>
       </c>
       <c r="O39" s="1">
-        <v>45808</v>
+        <v>45899</v>
       </c>
       <c r="P39">
         <v>0</v>
@@ -4205,10 +4130,10 @@
         <v>0</v>
       </c>
       <c r="T39" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="V39" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="X39" t="s">
         <v>33</v>
@@ -4219,10 +4144,10 @@
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>105</v>
-      </c>
-      <c r="C40" s="2">
-        <v>2300000</v>
+        <v>45</v>
+      </c>
+      <c r="C40" t="s">
+        <v>78</v>
       </c>
       <c r="D40">
         <v>5</v>
@@ -4243,7 +4168,7 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -4252,13 +4177,13 @@
         <v>0</v>
       </c>
       <c r="M40">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="N40">
-        <v>22.556133559999999</v>
+        <v>-118.11523284</v>
       </c>
       <c r="O40" s="1">
-        <v>45808</v>
+        <v>45899</v>
       </c>
       <c r="P40">
         <v>0</v>
@@ -4273,10 +4198,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="V40" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="X40" t="s">
         <v>33</v>
@@ -4287,10 +4212,10 @@
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>105</v>
-      </c>
-      <c r="C41" s="2">
-        <v>23000000000000</v>
+        <v>45</v>
+      </c>
+      <c r="C41" t="s">
+        <v>79</v>
       </c>
       <c r="D41">
         <v>5</v>
@@ -4311,7 +4236,7 @@
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4320,13 +4245,13 @@
         <v>0</v>
       </c>
       <c r="M41">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="N41">
-        <v>24.13637937</v>
+        <v>16.725840550000001</v>
       </c>
       <c r="O41" s="1">
-        <v>45808</v>
+        <v>45899</v>
       </c>
       <c r="P41">
         <v>0</v>
@@ -4341,10 +4266,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="V41" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="X41" t="s">
         <v>33</v>
@@ -4355,10 +4280,10 @@
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>105</v>
-      </c>
-      <c r="C42" s="2">
-        <v>230000000000000</v>
+        <v>45</v>
+      </c>
+      <c r="C42" t="s">
+        <v>80</v>
       </c>
       <c r="D42">
         <v>5</v>
@@ -4379,7 +4304,7 @@
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="K42">
         <v>0</v>
@@ -4388,13 +4313,13 @@
         <v>0</v>
       </c>
       <c r="M42">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="N42">
-        <v>18.96525299</v>
+        <v>16.20789147</v>
       </c>
       <c r="O42" s="1">
-        <v>45808</v>
+        <v>45899</v>
       </c>
       <c r="P42">
         <v>0</v>
@@ -4409,10 +4334,10 @@
         <v>0</v>
       </c>
       <c r="T42" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="V42" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="X42" t="s">
         <v>33</v>
@@ -4423,10 +4348,10 @@
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="C43" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="D43">
         <v>5</v>
@@ -4447,7 +4372,7 @@
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -4456,13 +4381,13 @@
         <v>0</v>
       </c>
       <c r="M43">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N43">
-        <v>16.5714711</v>
+        <v>12.489257289999999</v>
       </c>
       <c r="O43" s="1">
-        <v>45838</v>
+        <v>45899</v>
       </c>
       <c r="P43">
         <v>0</v>
@@ -4477,10 +4402,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="V43" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="X43" t="s">
         <v>33</v>
@@ -4491,10 +4416,10 @@
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="C44" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="D44">
         <v>5</v>
@@ -4515,7 +4440,7 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="K44">
         <v>0</v>
@@ -4524,13 +4449,13 @@
         <v>0</v>
       </c>
       <c r="M44">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N44">
-        <v>16.06377458</v>
+        <v>15.783574249999999</v>
       </c>
       <c r="O44" s="1">
-        <v>45838</v>
+        <v>45899</v>
       </c>
       <c r="P44">
         <v>0</v>
@@ -4545,10 +4470,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="V44" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="X44" t="s">
         <v>33</v>
@@ -4559,10 +4484,10 @@
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="C45" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="D45">
         <v>5</v>
@@ -4583,7 +4508,7 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="K45">
         <v>0</v>
@@ -4592,13 +4517,13 @@
         <v>0</v>
       </c>
       <c r="M45">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="N45">
-        <v>15.95149692</v>
+        <v>16.362517149999999</v>
       </c>
       <c r="O45" s="1">
-        <v>45838</v>
+        <v>45900</v>
       </c>
       <c r="P45">
         <v>0</v>
@@ -4613,10 +4538,10 @@
         <v>0</v>
       </c>
       <c r="T45" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="V45" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="X45" t="s">
         <v>33</v>
@@ -4627,10 +4552,10 @@
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="D46">
         <v>5</v>
@@ -4651,7 +4576,7 @@
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="K46">
         <v>0</v>
@@ -4660,13 +4585,13 @@
         <v>0</v>
       </c>
       <c r="M46">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="N46">
-        <v>15.80452107</v>
+        <v>15.30303237</v>
       </c>
       <c r="O46" s="1">
-        <v>45869</v>
+        <v>45899</v>
       </c>
       <c r="P46">
         <v>0</v>
@@ -4681,10 +4606,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="V46" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="X46" t="s">
         <v>33</v>
@@ -4695,10 +4620,10 @@
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="C47" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="D47">
         <v>5</v>
@@ -4719,7 +4644,7 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="K47">
         <v>0</v>
@@ -4728,13 +4653,13 @@
         <v>0</v>
       </c>
       <c r="M47">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="N47">
-        <v>17.617315229999999</v>
+        <v>14.74408764</v>
       </c>
       <c r="O47" s="1">
-        <v>45869</v>
+        <v>45899</v>
       </c>
       <c r="P47">
         <v>0</v>
@@ -4749,10 +4674,10 @@
         <v>0</v>
       </c>
       <c r="T47" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="V47" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="X47" t="s">
         <v>33</v>
@@ -4763,10 +4688,10 @@
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="C48" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="D48">
         <v>5</v>
@@ -4787,7 +4712,7 @@
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="K48">
         <v>0</v>
@@ -4796,13 +4721,13 @@
         <v>0</v>
       </c>
       <c r="M48">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="N48">
-        <v>15.68514367</v>
+        <v>-167.30579082</v>
       </c>
       <c r="O48" s="1">
-        <v>45869</v>
+        <v>45899</v>
       </c>
       <c r="P48">
         <v>0</v>
@@ -4817,10 +4742,10 @@
         <v>0</v>
       </c>
       <c r="T48" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="V48" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="X48" t="s">
         <v>33</v>
@@ -4831,10 +4756,10 @@
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="C49" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="D49">
         <v>5</v>
@@ -4855,7 +4780,7 @@
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -4864,13 +4789,13 @@
         <v>0</v>
       </c>
       <c r="M49">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N49">
-        <v>15.875601899999999</v>
+        <v>16.429637509999999</v>
       </c>
       <c r="O49" s="1">
-        <v>45869</v>
+        <v>45899</v>
       </c>
       <c r="P49">
         <v>0</v>
@@ -4885,10 +4810,10 @@
         <v>0</v>
       </c>
       <c r="T49" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="V49" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="X49" t="s">
         <v>33</v>
@@ -4899,10 +4824,10 @@
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="C50" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="D50">
         <v>5</v>
@@ -4923,7 +4848,7 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="K50">
         <v>0</v>
@@ -4932,13 +4857,13 @@
         <v>0</v>
       </c>
       <c r="M50">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="N50">
-        <v>15.553117840000001</v>
+        <v>15.504705660000001</v>
       </c>
       <c r="O50" s="1">
-        <v>45869</v>
+        <v>45930</v>
       </c>
       <c r="P50">
         <v>0</v>
@@ -4953,10 +4878,10 @@
         <v>0</v>
       </c>
       <c r="T50" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="V50" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="X50" t="s">
         <v>33</v>
@@ -4967,10 +4892,10 @@
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="C51" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="D51">
         <v>5</v>
@@ -4991,7 +4916,7 @@
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="K51">
         <v>0</v>
@@ -5000,13 +4925,13 @@
         <v>0</v>
       </c>
       <c r="M51">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N51">
-        <v>16.072372860000002</v>
+        <v>12.48350714</v>
       </c>
       <c r="O51" s="1">
-        <v>45869</v>
+        <v>45930</v>
       </c>
       <c r="P51">
         <v>0</v>
@@ -5021,10 +4946,10 @@
         <v>0</v>
       </c>
       <c r="T51" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="V51" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="X51" t="s">
         <v>33</v>
@@ -5035,10 +4960,10 @@
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="C52" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="D52">
         <v>5</v>
@@ -5059,7 +4984,7 @@
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="K52">
         <v>0</v>
@@ -5068,13 +4993,13 @@
         <v>0</v>
       </c>
       <c r="M52">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="N52">
-        <v>16.412520529999998</v>
+        <v>13.89320987</v>
       </c>
       <c r="O52" s="1">
-        <v>45869</v>
+        <v>45930</v>
       </c>
       <c r="P52">
         <v>0</v>
@@ -5089,10 +5014,10 @@
         <v>0</v>
       </c>
       <c r="T52" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="V52" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="X52" t="s">
         <v>33</v>
@@ -5103,10 +5028,10 @@
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="C53" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="D53">
         <v>5</v>
@@ -5127,7 +5052,7 @@
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="K53">
         <v>0</v>
@@ -5136,31 +5061,31 @@
         <v>0</v>
       </c>
       <c r="M53">
+        <v>2</v>
+      </c>
+      <c r="N53">
+        <v>14.70860188</v>
+      </c>
+      <c r="O53" s="1">
+        <v>45930</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>1</v>
+      </c>
+      <c r="R53">
+        <v>17.420000000000002</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53" t="s">
+        <v>47</v>
+      </c>
+      <c r="V53" t="s">
         <v>32</v>
-      </c>
-      <c r="N53">
-        <v>15.744386</v>
-      </c>
-      <c r="O53" s="1">
-        <v>45869</v>
-      </c>
-      <c r="P53">
-        <v>0</v>
-      </c>
-      <c r="Q53">
-        <v>1</v>
-      </c>
-      <c r="R53">
-        <v>17.420000000000002</v>
-      </c>
-      <c r="S53">
-        <v>0</v>
-      </c>
-      <c r="T53" t="s">
-        <v>106</v>
-      </c>
-      <c r="V53" t="s">
-        <v>41</v>
       </c>
       <c r="X53" t="s">
         <v>33</v>
@@ -5171,10 +5096,10 @@
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="C54" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="D54">
         <v>5</v>
@@ -5195,7 +5120,7 @@
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="K54">
         <v>0</v>
@@ -5204,31 +5129,31 @@
         <v>0</v>
       </c>
       <c r="M54">
+        <v>3</v>
+      </c>
+      <c r="N54">
+        <v>14.70286306</v>
+      </c>
+      <c r="O54" s="1">
+        <v>45930</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>1</v>
+      </c>
+      <c r="R54">
+        <v>17.420000000000002</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54" t="s">
+        <v>47</v>
+      </c>
+      <c r="V54" t="s">
         <v>32</v>
-      </c>
-      <c r="N54">
-        <v>15.744386</v>
-      </c>
-      <c r="O54" s="1">
-        <v>45869</v>
-      </c>
-      <c r="P54">
-        <v>0</v>
-      </c>
-      <c r="Q54">
-        <v>1</v>
-      </c>
-      <c r="R54">
-        <v>17.420000000000002</v>
-      </c>
-      <c r="S54">
-        <v>0</v>
-      </c>
-      <c r="T54" t="s">
-        <v>106</v>
-      </c>
-      <c r="V54" t="s">
-        <v>41</v>
       </c>
       <c r="X54" t="s">
         <v>33</v>
@@ -5239,10 +5164,10 @@
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="C55" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="D55">
         <v>5</v>
@@ -5263,7 +5188,7 @@
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="K55">
         <v>0</v>
@@ -5272,13 +5197,13 @@
         <v>0</v>
       </c>
       <c r="M55">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="N55">
-        <v>16.299073969999998</v>
+        <v>17.77806344</v>
       </c>
       <c r="O55" s="1">
-        <v>45868</v>
+        <v>45930</v>
       </c>
       <c r="P55">
         <v>0</v>
@@ -5293,10 +5218,10 @@
         <v>0</v>
       </c>
       <c r="T55" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="V55" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="X55" t="s">
         <v>33</v>
@@ -5307,10 +5232,10 @@
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="C56" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="D56">
         <v>5</v>
@@ -5331,7 +5256,7 @@
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="K56">
         <v>0</v>
@@ -5340,13 +5265,13 @@
         <v>0</v>
       </c>
       <c r="M56">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N56">
-        <v>15.685392909999999</v>
+        <v>-31.541053739999999</v>
       </c>
       <c r="O56" s="1">
-        <v>45869</v>
+        <v>46142</v>
       </c>
       <c r="P56">
         <v>0</v>
@@ -5361,10 +5286,10 @@
         <v>0</v>
       </c>
       <c r="T56" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="V56" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="X56" t="s">
         <v>33</v>
@@ -5375,10 +5300,10 @@
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="C57" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="D57">
         <v>5</v>
@@ -5399,7 +5324,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="K57">
         <v>0</v>
@@ -5408,13 +5333,13 @@
         <v>0</v>
       </c>
       <c r="M57">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="N57">
-        <v>15.80305983</v>
+        <v>-30.828954769999999</v>
       </c>
       <c r="O57" s="1">
-        <v>45869</v>
+        <v>46203</v>
       </c>
       <c r="P57">
         <v>0</v>
@@ -5429,10 +5354,10 @@
         <v>0</v>
       </c>
       <c r="T57" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="V57" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="X57" t="s">
         <v>33</v>
@@ -5443,10 +5368,10 @@
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="C58" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="D58">
         <v>5</v>
@@ -5467,7 +5392,7 @@
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="K58">
         <v>0</v>
@@ -5476,13 +5401,13 @@
         <v>0</v>
       </c>
       <c r="M58">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="N58">
-        <v>15.74372258</v>
+        <v>17.958016260000001</v>
       </c>
       <c r="O58" s="1">
-        <v>45869</v>
+        <v>46476</v>
       </c>
       <c r="P58">
         <v>0</v>
@@ -5497,10 +5422,10 @@
         <v>0</v>
       </c>
       <c r="T58" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="V58" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="X58" t="s">
         <v>33</v>
@@ -5511,10 +5436,10 @@
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="C59" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="D59">
         <v>5</v>
@@ -5535,7 +5460,7 @@
         <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="K59">
         <v>0</v>
@@ -5544,13 +5469,13 @@
         <v>0</v>
       </c>
       <c r="M59">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="N59">
-        <v>15.804721109999999</v>
+        <v>17.958016260000001</v>
       </c>
       <c r="O59" s="1">
-        <v>45869</v>
+        <v>46476</v>
       </c>
       <c r="P59">
         <v>0</v>
@@ -5565,10 +5490,10 @@
         <v>0</v>
       </c>
       <c r="T59" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="V59" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="X59" t="s">
         <v>33</v>
@@ -5579,10 +5504,10 @@
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="C60" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="D60">
         <v>5</v>
@@ -5603,7 +5528,7 @@
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="K60">
         <v>0</v>
@@ -5612,13 +5537,13 @@
         <v>0</v>
       </c>
       <c r="M60">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="N60">
-        <v>15.848007000000001</v>
+        <v>17.958016260000001</v>
       </c>
       <c r="O60" s="1">
-        <v>45869</v>
+        <v>46476</v>
       </c>
       <c r="P60">
         <v>0</v>
@@ -5633,10 +5558,10 @@
         <v>0</v>
       </c>
       <c r="T60" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="V60" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="X60" t="s">
         <v>33</v>
@@ -5647,10 +5572,10 @@
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="C61" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="D61">
         <v>5</v>
@@ -5671,7 +5596,7 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="K61">
         <v>0</v>
@@ -5680,13 +5605,13 @@
         <v>0</v>
       </c>
       <c r="M61">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="N61">
-        <v>16.153361360000002</v>
+        <v>17.958016199999999</v>
       </c>
       <c r="O61" s="1">
-        <v>45869</v>
+        <v>46476</v>
       </c>
       <c r="P61">
         <v>0</v>
@@ -5701,10 +5626,10 @@
         <v>0</v>
       </c>
       <c r="T61" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="V61" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="X61" t="s">
         <v>33</v>
@@ -5715,10 +5640,10 @@
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="C62" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="D62">
         <v>5</v>
@@ -5739,7 +5664,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="K62">
         <v>0</v>
@@ -5748,13 +5673,13 @@
         <v>0</v>
       </c>
       <c r="M62">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="N62">
-        <v>15.69670498</v>
+        <v>0</v>
       </c>
       <c r="O62" s="1">
-        <v>45869</v>
+        <v>46476</v>
       </c>
       <c r="P62">
         <v>0</v>
@@ -5769,10 +5694,10 @@
         <v>0</v>
       </c>
       <c r="T62" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="V62" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="X62" t="s">
         <v>33</v>
@@ -5783,10 +5708,10 @@
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="C63" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="D63">
         <v>5</v>
@@ -5807,7 +5732,7 @@
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="K63">
         <v>0</v>
@@ -5816,13 +5741,13 @@
         <v>0</v>
       </c>
       <c r="M63">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="N63">
-        <v>15.859595759999999</v>
+        <v>17.958016220000001</v>
       </c>
       <c r="O63" s="1">
-        <v>45868</v>
+        <v>46507</v>
       </c>
       <c r="P63">
         <v>0</v>
@@ -5837,10 +5762,10 @@
         <v>0</v>
       </c>
       <c r="T63" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="V63" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="X63" t="s">
         <v>33</v>
@@ -5851,10 +5776,10 @@
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="C64" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="D64">
         <v>5</v>
@@ -5875,7 +5800,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="K64">
         <v>0</v>
@@ -5884,13 +5809,13 @@
         <v>0</v>
       </c>
       <c r="M64">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="N64">
-        <v>16.232195659999999</v>
+        <v>17.958016260000001</v>
       </c>
       <c r="O64" s="1">
-        <v>45868</v>
+        <v>46507</v>
       </c>
       <c r="P64">
         <v>0</v>
@@ -5905,10 +5830,10 @@
         <v>0</v>
       </c>
       <c r="T64" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="V64" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="X64" t="s">
         <v>33</v>
@@ -5919,10 +5844,10 @@
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="C65" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="D65">
         <v>5</v>
@@ -5943,7 +5868,7 @@
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="K65">
         <v>0</v>
@@ -5952,13 +5877,13 @@
         <v>0</v>
       </c>
       <c r="M65">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N65">
-        <v>15.90906038</v>
+        <v>17.958016260000001</v>
       </c>
       <c r="O65" s="1">
-        <v>45868</v>
+        <v>46507</v>
       </c>
       <c r="P65">
         <v>0</v>
@@ -5973,10 +5898,10 @@
         <v>0</v>
       </c>
       <c r="T65" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="V65" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="X65" t="s">
         <v>33</v>
@@ -5987,10 +5912,10 @@
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="C66" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="D66">
         <v>5</v>
@@ -6011,7 +5936,7 @@
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="K66">
         <v>0</v>
@@ -6020,13 +5945,13 @@
         <v>0</v>
       </c>
       <c r="M66">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="N66">
-        <v>15.6787183</v>
+        <v>14.89</v>
       </c>
       <c r="O66" s="1">
-        <v>45899</v>
+        <v>46507</v>
       </c>
       <c r="P66">
         <v>0</v>
@@ -6041,10 +5966,10 @@
         <v>0</v>
       </c>
       <c r="T66" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="V66" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="X66" t="s">
         <v>33</v>
@@ -6055,10 +5980,10 @@
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>105</v>
-      </c>
-      <c r="C67" t="s">
-        <v>131</v>
+        <v>45</v>
+      </c>
+      <c r="C67" s="2">
+        <v>2.4999999999999999E+67</v>
       </c>
       <c r="D67">
         <v>5</v>
@@ -6079,7 +6004,7 @@
         <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="K67">
         <v>0</v>
@@ -6088,13 +6013,13 @@
         <v>0</v>
       </c>
       <c r="M67">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="N67">
-        <v>15.87980563</v>
+        <v>23.636849999999999</v>
       </c>
       <c r="O67" s="1">
-        <v>45899</v>
+        <v>46537</v>
       </c>
       <c r="P67">
         <v>0</v>
@@ -6109,10 +6034,10 @@
         <v>0</v>
       </c>
       <c r="T67" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="V67" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="X67" t="s">
         <v>33</v>
@@ -6123,10 +6048,10 @@
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>105</v>
-      </c>
-      <c r="C68" t="s">
-        <v>132</v>
+        <v>45</v>
+      </c>
+      <c r="C68" s="2">
+        <v>2.5000000000000002E+69</v>
       </c>
       <c r="D68">
         <v>5</v>
@@ -6147,7 +6072,7 @@
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="K68">
         <v>0</v>
@@ -6156,13 +6081,13 @@
         <v>0</v>
       </c>
       <c r="M68">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N68">
-        <v>15.90286044</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="O68" s="1">
-        <v>45899</v>
+        <v>46537</v>
       </c>
       <c r="P68">
         <v>0</v>
@@ -6177,10 +6102,10 @@
         <v>0</v>
       </c>
       <c r="T68" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="V68" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="X68" t="s">
         <v>33</v>
@@ -6191,11 +6116,11 @@
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
+        <v>45</v>
+      </c>
+      <c r="C69" t="s">
         <v>105</v>
       </c>
-      <c r="C69" t="s">
-        <v>133</v>
-      </c>
       <c r="D69">
         <v>5</v>
       </c>
@@ -6215,7 +6140,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="K69">
         <v>0</v>
@@ -6224,13 +6149,13 @@
         <v>0</v>
       </c>
       <c r="M69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N69">
-        <v>16.790501070000001</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="O69" s="1">
-        <v>45899</v>
+        <v>46568</v>
       </c>
       <c r="P69">
         <v>0</v>
@@ -6245,10 +6170,10 @@
         <v>0</v>
       </c>
       <c r="T69" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="V69" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="X69" t="s">
         <v>33</v>
@@ -6259,10 +6184,10 @@
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="C70" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="D70">
         <v>5</v>
@@ -6283,7 +6208,7 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="K70">
         <v>0</v>
@@ -6292,13 +6217,13 @@
         <v>0</v>
       </c>
       <c r="M70">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="N70">
-        <v>16.196605600000002</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="O70" s="1">
-        <v>45899</v>
+        <v>46568</v>
       </c>
       <c r="P70">
         <v>0</v>
@@ -6313,10 +6238,10 @@
         <v>0</v>
       </c>
       <c r="T70" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="V70" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="X70" t="s">
         <v>33</v>
@@ -6327,10 +6252,10 @@
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="C71" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="D71">
         <v>5</v>
@@ -6351,7 +6276,7 @@
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="K71">
         <v>0</v>
@@ -6360,13 +6285,13 @@
         <v>0</v>
       </c>
       <c r="M71">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="N71">
-        <v>16.71610707</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="O71" s="1">
-        <v>45899</v>
+        <v>46568</v>
       </c>
       <c r="P71">
         <v>0</v>
@@ -6381,10 +6306,10 @@
         <v>0</v>
       </c>
       <c r="T71" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="V71" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="X71" t="s">
         <v>33</v>
@@ -6395,10 +6320,10 @@
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="C72" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="D72">
         <v>5</v>
@@ -6419,7 +6344,7 @@
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="K72">
         <v>0</v>
@@ -6428,13 +6353,13 @@
         <v>0</v>
       </c>
       <c r="M72">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="N72">
-        <v>-15903.272727879999</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="O72" s="1">
-        <v>45899</v>
+        <v>46568</v>
       </c>
       <c r="P72">
         <v>0</v>
@@ -6449,10 +6374,10 @@
         <v>0</v>
       </c>
       <c r="T72" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="V72" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="X72" t="s">
         <v>33</v>
@@ -6463,10 +6388,10 @@
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="C73" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="D73">
         <v>5</v>
@@ -6487,7 +6412,7 @@
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="K73">
         <v>0</v>
@@ -6496,13 +6421,13 @@
         <v>0</v>
       </c>
       <c r="M73">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N73">
-        <v>-118.11523284</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="O73" s="1">
-        <v>45899</v>
+        <v>46568</v>
       </c>
       <c r="P73">
         <v>0</v>
@@ -6517,10 +6442,10 @@
         <v>0</v>
       </c>
       <c r="T73" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="V73" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="X73" t="s">
         <v>33</v>
@@ -6531,10 +6456,10 @@
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="C74" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="D74">
         <v>5</v>
@@ -6555,7 +6480,7 @@
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="K74">
         <v>0</v>
@@ -6564,13 +6489,13 @@
         <v>0</v>
       </c>
       <c r="M74">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="N74">
-        <v>16.725840550000001</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="O74" s="1">
-        <v>45899</v>
+        <v>46568</v>
       </c>
       <c r="P74">
         <v>0</v>
@@ -6585,10 +6510,10 @@
         <v>0</v>
       </c>
       <c r="T74" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="V74" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="X74" t="s">
         <v>33</v>
@@ -6599,10 +6524,10 @@
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="C75" t="s">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="D75">
         <v>5</v>
@@ -6623,7 +6548,7 @@
         <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="K75">
         <v>0</v>
@@ -6632,13 +6557,13 @@
         <v>0</v>
       </c>
       <c r="M75">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="N75">
-        <v>16.20789147</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="O75" s="1">
-        <v>45899</v>
+        <v>46568</v>
       </c>
       <c r="P75">
         <v>0</v>
@@ -6653,10 +6578,10 @@
         <v>0</v>
       </c>
       <c r="T75" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="V75" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="X75" t="s">
         <v>33</v>
@@ -6667,10 +6592,10 @@
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="C76" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="D76">
         <v>5</v>
@@ -6691,7 +6616,7 @@
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="K76">
         <v>0</v>
@@ -6700,13 +6625,13 @@
         <v>0</v>
       </c>
       <c r="M76">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="N76">
-        <v>12.489257289999999</v>
+        <v>35.335040429999999</v>
       </c>
       <c r="O76" s="1">
-        <v>45899</v>
+        <v>46568</v>
       </c>
       <c r="P76">
         <v>0</v>
@@ -6721,10 +6646,10 @@
         <v>0</v>
       </c>
       <c r="T76" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="V76" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="X76" t="s">
         <v>33</v>
@@ -6735,10 +6660,10 @@
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="C77" t="s">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="D77">
         <v>5</v>
@@ -6759,7 +6684,7 @@
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="K77">
         <v>0</v>
@@ -6768,13 +6693,13 @@
         <v>0</v>
       </c>
       <c r="M77">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N77">
-        <v>15.783574249999999</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="O77" s="1">
-        <v>45899</v>
+        <v>46599</v>
       </c>
       <c r="P77">
         <v>0</v>
@@ -6789,10 +6714,10 @@
         <v>0</v>
       </c>
       <c r="T77" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="V77" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="X77" t="s">
         <v>33</v>
@@ -6803,10 +6728,10 @@
     </row>
     <row r="78" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="C78" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="D78">
         <v>5</v>
@@ -6827,7 +6752,7 @@
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="K78">
         <v>0</v>
@@ -6836,13 +6761,13 @@
         <v>0</v>
       </c>
       <c r="M78">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N78">
-        <v>16.362517149999999</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="O78" s="1">
-        <v>45900</v>
+        <v>46599</v>
       </c>
       <c r="P78">
         <v>0</v>
@@ -6857,10 +6782,10 @@
         <v>0</v>
       </c>
       <c r="T78" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="V78" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="X78" t="s">
         <v>33</v>
@@ -6871,10 +6796,10 @@
     </row>
     <row r="79" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="C79" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="D79">
         <v>5</v>
@@ -6895,7 +6820,7 @@
         <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="K79">
         <v>0</v>
@@ -6904,13 +6829,13 @@
         <v>0</v>
       </c>
       <c r="M79">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="N79">
-        <v>15.30303237</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="O79" s="1">
-        <v>45899</v>
+        <v>46599</v>
       </c>
       <c r="P79">
         <v>0</v>
@@ -6925,10 +6850,10 @@
         <v>0</v>
       </c>
       <c r="T79" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="V79" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="X79" t="s">
         <v>33</v>
@@ -6939,10 +6864,10 @@
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="C80" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="D80">
         <v>5</v>
@@ -6954,7 +6879,7 @@
         <v>1</v>
       </c>
       <c r="G80">
-        <v>17.420000000000002</v>
+        <v>24.7177948</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -6963,7 +6888,7 @@
         <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="K80">
         <v>0</v>
@@ -6972,13 +6897,13 @@
         <v>0</v>
       </c>
       <c r="M80">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="N80">
-        <v>14.74408764</v>
+        <v>-123.591759</v>
       </c>
       <c r="O80" s="1">
-        <v>45899</v>
+        <v>46386</v>
       </c>
       <c r="P80">
         <v>0</v>
@@ -6987,16 +6912,16 @@
         <v>1</v>
       </c>
       <c r="R80">
-        <v>17.420000000000002</v>
+        <v>24.7177948</v>
       </c>
       <c r="S80">
         <v>0</v>
       </c>
       <c r="T80" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="V80" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="X80" t="s">
         <v>33</v>
@@ -7007,10 +6932,10 @@
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="C81" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="D81">
         <v>5</v>
@@ -7022,7 +6947,7 @@
         <v>1</v>
       </c>
       <c r="G81">
-        <v>17.420000000000002</v>
+        <v>24.7177948</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -7031,7 +6956,7 @@
         <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="K81">
         <v>0</v>
@@ -7040,31 +6965,31 @@
         <v>0</v>
       </c>
       <c r="M81">
+        <v>466</v>
+      </c>
+      <c r="N81">
+        <v>24.7177948</v>
+      </c>
+      <c r="O81" s="1">
+        <v>46476</v>
+      </c>
+      <c r="P81">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <v>1</v>
+      </c>
+      <c r="R81">
+        <v>24.7177948</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81" t="s">
+        <v>119</v>
+      </c>
+      <c r="V81" t="s">
         <v>44</v>
-      </c>
-      <c r="N81">
-        <v>-167.30579082</v>
-      </c>
-      <c r="O81" s="1">
-        <v>45899</v>
-      </c>
-      <c r="P81">
-        <v>0</v>
-      </c>
-      <c r="Q81">
-        <v>1</v>
-      </c>
-      <c r="R81">
-        <v>17.420000000000002</v>
-      </c>
-      <c r="S81">
-        <v>0</v>
-      </c>
-      <c r="T81" t="s">
-        <v>106</v>
-      </c>
-      <c r="V81" t="s">
-        <v>41</v>
       </c>
       <c r="X81" t="s">
         <v>33</v>
@@ -7075,10 +7000,10 @@
     </row>
     <row r="82" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C82" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="D82">
         <v>5</v>
@@ -7090,7 +7015,7 @@
         <v>1</v>
       </c>
       <c r="G82">
-        <v>17.420000000000002</v>
+        <v>11.85</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -7099,7 +7024,7 @@
         <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="K82">
         <v>0</v>
@@ -7108,13 +7033,13 @@
         <v>0</v>
       </c>
       <c r="M82">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="N82">
-        <v>16.429637509999999</v>
+        <v>17.581466670000001</v>
       </c>
       <c r="O82" s="1">
-        <v>45899</v>
+        <v>46417</v>
       </c>
       <c r="P82">
         <v>0</v>
@@ -7123,16 +7048,16 @@
         <v>1</v>
       </c>
       <c r="R82">
-        <v>17.420000000000002</v>
+        <v>11.85</v>
       </c>
       <c r="S82">
         <v>0</v>
       </c>
       <c r="T82" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="V82" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="X82" t="s">
         <v>33</v>
@@ -7143,10 +7068,10 @@
     </row>
     <row r="83" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>105</v>
-      </c>
-      <c r="C83" t="s">
-        <v>147</v>
+        <v>121</v>
+      </c>
+      <c r="C83" s="2">
+        <v>2.5000000000000001E+63</v>
       </c>
       <c r="D83">
         <v>5</v>
@@ -7158,7 +7083,7 @@
         <v>1</v>
       </c>
       <c r="G83">
-        <v>17.420000000000002</v>
+        <v>11.85</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -7167,7 +7092,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="K83">
         <v>0</v>
@@ -7176,13 +7101,13 @@
         <v>0</v>
       </c>
       <c r="M83">
-        <v>4</v>
+        <v>555</v>
       </c>
       <c r="N83">
-        <v>15.504705660000001</v>
+        <v>11.85</v>
       </c>
       <c r="O83" s="1">
-        <v>45930</v>
+        <v>46538</v>
       </c>
       <c r="P83">
         <v>0</v>
@@ -7191,16 +7116,16 @@
         <v>1</v>
       </c>
       <c r="R83">
-        <v>17.420000000000002</v>
+        <v>11.85</v>
       </c>
       <c r="S83">
         <v>0</v>
       </c>
       <c r="T83" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="V83" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="X83" t="s">
         <v>33</v>
@@ -7211,10 +7136,10 @@
     </row>
     <row r="84" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="C84" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="D84">
         <v>5</v>
@@ -7226,7 +7151,7 @@
         <v>1</v>
       </c>
       <c r="G84">
-        <v>17.420000000000002</v>
+        <v>21.445813000000001</v>
       </c>
       <c r="H84">
         <v>1</v>
@@ -7235,7 +7160,7 @@
         <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="K84">
         <v>0</v>
@@ -7244,13 +7169,13 @@
         <v>0</v>
       </c>
       <c r="M84">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="N84">
-        <v>12.48350714</v>
+        <v>0</v>
       </c>
       <c r="O84" s="1">
-        <v>45930</v>
+        <v>46203</v>
       </c>
       <c r="P84">
         <v>0</v>
@@ -7259,16 +7184,16 @@
         <v>1</v>
       </c>
       <c r="R84">
-        <v>17.420000000000002</v>
+        <v>21.445813000000001</v>
       </c>
       <c r="S84">
         <v>0</v>
       </c>
       <c r="T84" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="V84" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="X84" t="s">
         <v>33</v>
@@ -7279,10 +7204,10 @@
     </row>
     <row r="85" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="C85" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="D85">
         <v>5</v>
@@ -7294,7 +7219,7 @@
         <v>1</v>
       </c>
       <c r="G85">
-        <v>17.420000000000002</v>
+        <v>21.445813000000001</v>
       </c>
       <c r="H85">
         <v>1</v>
@@ -7303,7 +7228,7 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="K85">
         <v>0</v>
@@ -7312,13 +7237,13 @@
         <v>0</v>
       </c>
       <c r="M85">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N85">
-        <v>13.89320987</v>
+        <v>24.084548999999999</v>
       </c>
       <c r="O85" s="1">
-        <v>45930</v>
+        <v>46203</v>
       </c>
       <c r="P85">
         <v>0</v>
@@ -7327,16 +7252,16 @@
         <v>1</v>
       </c>
       <c r="R85">
-        <v>17.420000000000002</v>
+        <v>21.445813000000001</v>
       </c>
       <c r="S85">
         <v>0</v>
       </c>
       <c r="T85" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="V85" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="X85" t="s">
         <v>33</v>
@@ -7347,10 +7272,10 @@
     </row>
     <row r="86" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="C86" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="D86">
         <v>5</v>
@@ -7362,7 +7287,7 @@
         <v>1</v>
       </c>
       <c r="G86">
-        <v>17.420000000000002</v>
+        <v>21.445813000000001</v>
       </c>
       <c r="H86">
         <v>1</v>
@@ -7371,7 +7296,7 @@
         <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="K86">
         <v>0</v>
@@ -7380,13 +7305,13 @@
         <v>0</v>
       </c>
       <c r="M86">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="N86">
-        <v>14.70860188</v>
+        <v>21.443021550000001</v>
       </c>
       <c r="O86" s="1">
-        <v>45930</v>
+        <v>46356</v>
       </c>
       <c r="P86">
         <v>0</v>
@@ -7395,16 +7320,16 @@
         <v>1</v>
       </c>
       <c r="R86">
-        <v>17.420000000000002</v>
+        <v>21.445813000000001</v>
       </c>
       <c r="S86">
         <v>0</v>
       </c>
       <c r="T86" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="V86" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="X86" t="s">
         <v>33</v>
@@ -7415,10 +7340,10 @@
     </row>
     <row r="87" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="C87" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="D87">
         <v>5</v>
@@ -7430,7 +7355,7 @@
         <v>1</v>
       </c>
       <c r="G87">
-        <v>17.420000000000002</v>
+        <v>21.445813000000001</v>
       </c>
       <c r="H87">
         <v>1</v>
@@ -7439,7 +7364,7 @@
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="K87">
         <v>0</v>
@@ -7448,13 +7373,13 @@
         <v>0</v>
       </c>
       <c r="M87">
-        <v>3</v>
+        <v>781</v>
       </c>
       <c r="N87">
-        <v>14.70286306</v>
+        <v>21.445813000000001</v>
       </c>
       <c r="O87" s="1">
-        <v>45930</v>
+        <v>46630</v>
       </c>
       <c r="P87">
         <v>0</v>
@@ -7463,16 +7388,16 @@
         <v>1</v>
       </c>
       <c r="R87">
-        <v>17.420000000000002</v>
+        <v>21.445813000000001</v>
       </c>
       <c r="S87">
         <v>0</v>
       </c>
       <c r="T87" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="V87" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="X87" t="s">
         <v>33</v>
@@ -7483,10 +7408,10 @@
     </row>
     <row r="88" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="C88" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="D88">
         <v>5</v>
@@ -7498,7 +7423,7 @@
         <v>1</v>
       </c>
       <c r="G88">
-        <v>17.420000000000002</v>
+        <v>62.92</v>
       </c>
       <c r="H88">
         <v>1</v>
@@ -7507,7 +7432,7 @@
         <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="K88">
         <v>0</v>
@@ -7516,13 +7441,13 @@
         <v>0</v>
       </c>
       <c r="M88">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="N88">
-        <v>17.77806344</v>
+        <v>62.92</v>
       </c>
       <c r="O88" s="1">
-        <v>45930</v>
+        <v>46599</v>
       </c>
       <c r="P88">
         <v>0</v>
@@ -7531,16 +7456,16 @@
         <v>1</v>
       </c>
       <c r="R88">
-        <v>17.420000000000002</v>
+        <v>62.92</v>
       </c>
       <c r="S88">
         <v>0</v>
       </c>
       <c r="T88" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="V88" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="X88" t="s">
         <v>33</v>
@@ -7551,10 +7476,10 @@
     </row>
     <row r="89" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="C89" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="D89">
         <v>5</v>
@@ -7566,7 +7491,7 @@
         <v>1</v>
       </c>
       <c r="G89">
-        <v>17.420000000000002</v>
+        <v>62.92</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -7575,7 +7500,7 @@
         <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="K89">
         <v>0</v>
@@ -7584,13 +7509,13 @@
         <v>0</v>
       </c>
       <c r="M89">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="N89">
-        <v>-31.541053739999999</v>
+        <v>62.92</v>
       </c>
       <c r="O89" s="1">
-        <v>46142</v>
+        <v>46630</v>
       </c>
       <c r="P89">
         <v>0</v>
@@ -7599,16 +7524,16 @@
         <v>1</v>
       </c>
       <c r="R89">
-        <v>17.420000000000002</v>
+        <v>62.92</v>
       </c>
       <c r="S89">
         <v>0</v>
       </c>
       <c r="T89" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="V89" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="X89" t="s">
         <v>33</v>
@@ -7619,10 +7544,10 @@
     </row>
     <row r="90" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="C90" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="D90">
         <v>5</v>
@@ -7634,7 +7559,7 @@
         <v>1</v>
       </c>
       <c r="G90">
-        <v>17.420000000000002</v>
+        <v>62.92</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -7643,7 +7568,7 @@
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="K90">
         <v>0</v>
@@ -7652,13 +7577,13 @@
         <v>0</v>
       </c>
       <c r="M90">
-        <v>38</v>
+        <v>817</v>
       </c>
       <c r="N90">
-        <v>-30.828954769999999</v>
+        <v>62.92</v>
       </c>
       <c r="O90" s="1">
-        <v>46203</v>
+        <v>46630</v>
       </c>
       <c r="P90">
         <v>0</v>
@@ -7667,16 +7592,16 @@
         <v>1</v>
       </c>
       <c r="R90">
-        <v>17.420000000000002</v>
+        <v>62.92</v>
       </c>
       <c r="S90">
         <v>0</v>
       </c>
       <c r="T90" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="V90" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="X90" t="s">
         <v>33</v>
@@ -7687,10 +7612,10 @@
     </row>
     <row r="91" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="C91" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="D91">
         <v>5</v>
@@ -7702,7 +7627,7 @@
         <v>1</v>
       </c>
       <c r="G91">
-        <v>17.420000000000002</v>
+        <v>29.05</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -7711,7 +7636,7 @@
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="K91">
         <v>0</v>
@@ -7720,13 +7645,13 @@
         <v>0</v>
       </c>
       <c r="M91">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N91">
-        <v>17.958016260000001</v>
+        <v>0</v>
       </c>
       <c r="O91" s="1">
-        <v>46476</v>
+        <v>46782</v>
       </c>
       <c r="P91">
         <v>0</v>
@@ -7735,16 +7660,16 @@
         <v>1</v>
       </c>
       <c r="R91">
-        <v>17.420000000000002</v>
+        <v>29.05</v>
       </c>
       <c r="S91">
         <v>0</v>
       </c>
       <c r="T91" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="V91" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="X91" t="s">
         <v>33</v>
@@ -7755,10 +7680,10 @@
     </row>
     <row r="92" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="C92" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="D92">
         <v>5</v>
@@ -7770,7 +7695,7 @@
         <v>1</v>
       </c>
       <c r="G92">
-        <v>17.420000000000002</v>
+        <v>29.05</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -7779,7 +7704,7 @@
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="K92">
         <v>0</v>
@@ -7788,10 +7713,10 @@
         <v>0</v>
       </c>
       <c r="M92">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="N92">
-        <v>17.958016260000001</v>
+        <v>56.490813129999999</v>
       </c>
       <c r="O92" s="1">
         <v>46476</v>
@@ -7803,16 +7728,16 @@
         <v>1</v>
       </c>
       <c r="R92">
-        <v>17.420000000000002</v>
+        <v>29.05</v>
       </c>
       <c r="S92">
         <v>0</v>
       </c>
       <c r="T92" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="V92" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="X92" t="s">
         <v>33</v>
@@ -7823,10 +7748,10 @@
     </row>
     <row r="93" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="C93" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="D93">
         <v>5</v>
@@ -7838,7 +7763,7 @@
         <v>1</v>
       </c>
       <c r="G93">
-        <v>17.420000000000002</v>
+        <v>29.05</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -7847,7 +7772,7 @@
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="K93">
         <v>0</v>
@@ -7856,13 +7781,13 @@
         <v>0</v>
       </c>
       <c r="M93">
-        <v>80</v>
+        <v>4429</v>
       </c>
       <c r="N93">
-        <v>17.958016260000001</v>
+        <v>29.05</v>
       </c>
       <c r="O93" s="1">
-        <v>46476</v>
+        <v>46660</v>
       </c>
       <c r="P93">
         <v>0</v>
@@ -7871,16 +7796,16 @@
         <v>1</v>
       </c>
       <c r="R93">
-        <v>17.420000000000002</v>
+        <v>29.05</v>
       </c>
       <c r="S93">
         <v>0</v>
       </c>
       <c r="T93" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="V93" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="X93" t="s">
         <v>33</v>
@@ -7891,10 +7816,10 @@
     </row>
     <row r="94" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="C94" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="D94">
         <v>5</v>
@@ -7906,7 +7831,7 @@
         <v>1</v>
       </c>
       <c r="G94">
-        <v>17.420000000000002</v>
+        <v>24.469519999999999</v>
       </c>
       <c r="H94">
         <v>1</v>
@@ -7915,7 +7840,7 @@
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="K94">
         <v>0</v>
@@ -7924,13 +7849,13 @@
         <v>0</v>
       </c>
       <c r="M94">
-        <v>5</v>
+        <v>932</v>
       </c>
       <c r="N94">
-        <v>17.958016199999999</v>
+        <v>27.28715287</v>
       </c>
       <c r="O94" s="1">
-        <v>46476</v>
+        <v>46446</v>
       </c>
       <c r="P94">
         <v>0</v>
@@ -7939,16 +7864,16 @@
         <v>1</v>
       </c>
       <c r="R94">
-        <v>17.420000000000002</v>
+        <v>24.469519999999999</v>
       </c>
       <c r="S94">
         <v>0</v>
       </c>
       <c r="T94" t="s">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="V94" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="X94" t="s">
         <v>33</v>
@@ -7959,10 +7884,10 @@
     </row>
     <row r="95" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>105</v>
-      </c>
-      <c r="C95" t="s">
-        <v>159</v>
+        <v>143</v>
+      </c>
+      <c r="C95" s="2">
+        <v>2.5E+64</v>
       </c>
       <c r="D95">
         <v>5</v>
@@ -7974,7 +7899,7 @@
         <v>1</v>
       </c>
       <c r="G95">
-        <v>17.420000000000002</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -7983,7 +7908,7 @@
         <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="K95">
         <v>0</v>
@@ -7992,13 +7917,13 @@
         <v>0</v>
       </c>
       <c r="M95">
-        <v>35</v>
+        <v>1100</v>
       </c>
       <c r="N95">
-        <v>0</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="O95" s="1">
-        <v>46476</v>
+        <v>46538</v>
       </c>
       <c r="P95">
         <v>0</v>
@@ -8007,16 +7932,16 @@
         <v>1</v>
       </c>
       <c r="R95">
-        <v>17.420000000000002</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="S95">
         <v>0</v>
       </c>
       <c r="T95" t="s">
-        <v>106</v>
+        <v>144</v>
       </c>
       <c r="V95" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="X95" t="s">
         <v>33</v>
@@ -8027,10 +7952,10 @@
     </row>
     <row r="96" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="C96" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="D96">
         <v>5</v>
@@ -8042,7 +7967,7 @@
         <v>1</v>
       </c>
       <c r="G96">
-        <v>17.420000000000002</v>
+        <v>16.11</v>
       </c>
       <c r="H96">
         <v>1</v>
@@ -8051,22 +7976,22 @@
         <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="K96">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="L96">
         <v>0</v>
       </c>
       <c r="M96">
-        <v>30</v>
+        <v>1627</v>
       </c>
       <c r="N96">
-        <v>17.958016220000001</v>
+        <v>16.11</v>
       </c>
       <c r="O96" s="1">
-        <v>46507</v>
+        <v>46568</v>
       </c>
       <c r="P96">
         <v>0</v>
@@ -8075,16 +8000,16 @@
         <v>1</v>
       </c>
       <c r="R96">
-        <v>17.420000000000002</v>
+        <v>16.11</v>
       </c>
       <c r="S96">
-        <v>0</v>
+        <v>569.45000000000005</v>
       </c>
       <c r="T96" t="s">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="V96" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="X96" t="s">
         <v>33</v>
@@ -8095,10 +8020,10 @@
     </row>
     <row r="97" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="C97" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="D97">
         <v>5</v>
@@ -8110,7 +8035,7 @@
         <v>1</v>
       </c>
       <c r="G97">
-        <v>17.420000000000002</v>
+        <v>0</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -8119,7 +8044,7 @@
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="K97">
         <v>0</v>
@@ -8128,13 +8053,13 @@
         <v>0</v>
       </c>
       <c r="M97">
-        <v>22</v>
+        <v>527</v>
       </c>
       <c r="N97">
-        <v>17.958016260000001</v>
+        <v>108.16794982</v>
       </c>
       <c r="O97" s="1">
-        <v>46507</v>
+        <v>46568</v>
       </c>
       <c r="P97">
         <v>0</v>
@@ -8143,16 +8068,16 @@
         <v>1</v>
       </c>
       <c r="R97">
-        <v>17.420000000000002</v>
+        <v>0</v>
       </c>
       <c r="S97">
         <v>0</v>
       </c>
       <c r="T97" t="s">
-        <v>106</v>
+        <v>150</v>
       </c>
       <c r="V97" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="X97" t="s">
         <v>33</v>
@@ -8163,10 +8088,10 @@
     </row>
     <row r="98" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>105</v>
+        <v>151</v>
       </c>
       <c r="C98" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="D98">
         <v>5</v>
@@ -8178,7 +8103,7 @@
         <v>1</v>
       </c>
       <c r="G98">
-        <v>17.420000000000002</v>
+        <v>140.12</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -8187,7 +8112,7 @@
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="K98">
         <v>0</v>
@@ -8196,13 +8121,13 @@
         <v>0</v>
       </c>
       <c r="M98">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="N98">
-        <v>17.958016260000001</v>
+        <v>140.12</v>
       </c>
       <c r="O98" s="1">
-        <v>46507</v>
+        <v>46568</v>
       </c>
       <c r="P98">
         <v>0</v>
@@ -8211,16 +8136,16 @@
         <v>1</v>
       </c>
       <c r="R98">
-        <v>17.420000000000002</v>
+        <v>140.12</v>
       </c>
       <c r="S98">
         <v>0</v>
       </c>
       <c r="T98" t="s">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="V98" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="X98" t="s">
         <v>33</v>
@@ -8231,10 +8156,10 @@
     </row>
     <row r="99" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>105</v>
+        <v>151</v>
       </c>
       <c r="C99" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D99">
         <v>5</v>
@@ -8246,7 +8171,7 @@
         <v>1</v>
       </c>
       <c r="G99">
-        <v>17.420000000000002</v>
+        <v>140.12</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -8255,7 +8180,7 @@
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="K99">
         <v>0</v>
@@ -8264,13 +8189,13 @@
         <v>0</v>
       </c>
       <c r="M99">
-        <v>24</v>
+        <v>391</v>
       </c>
       <c r="N99">
-        <v>14.89</v>
+        <v>140.12</v>
       </c>
       <c r="O99" s="1">
-        <v>46507</v>
+        <v>46599</v>
       </c>
       <c r="P99">
         <v>0</v>
@@ -8279,16 +8204,16 @@
         <v>1</v>
       </c>
       <c r="R99">
-        <v>17.420000000000002</v>
+        <v>140.12</v>
       </c>
       <c r="S99">
         <v>0</v>
       </c>
       <c r="T99" t="s">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="V99" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="X99" t="s">
         <v>33</v>
@@ -8299,10 +8224,10 @@
     </row>
     <row r="100" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>105</v>
-      </c>
-      <c r="C100" s="2">
-        <v>2.4999999999999999E+67</v>
+        <v>155</v>
+      </c>
+      <c r="C100" t="s">
+        <v>156</v>
       </c>
       <c r="D100">
         <v>5</v>
@@ -8314,7 +8239,7 @@
         <v>1</v>
       </c>
       <c r="G100">
-        <v>17.420000000000002</v>
+        <v>7.4160399000000004</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -8323,7 +8248,7 @@
         <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="K100">
         <v>0</v>
@@ -8332,13 +8257,13 @@
         <v>0</v>
       </c>
       <c r="M100">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="N100">
-        <v>23.636849999999999</v>
+        <v>10.176050760000001</v>
       </c>
       <c r="O100" s="1">
-        <v>46537</v>
+        <v>46021</v>
       </c>
       <c r="P100">
         <v>0</v>
@@ -8347,16 +8272,16 @@
         <v>1</v>
       </c>
       <c r="R100">
-        <v>17.420000000000002</v>
+        <v>7.4160399000000004</v>
       </c>
       <c r="S100">
         <v>0</v>
       </c>
       <c r="T100" t="s">
-        <v>106</v>
+        <v>157</v>
       </c>
       <c r="V100" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="X100" t="s">
         <v>33</v>
@@ -8367,10 +8292,10 @@
     </row>
     <row r="101" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>105</v>
-      </c>
-      <c r="C101" s="2">
-        <v>2.5000000000000002E+69</v>
+        <v>155</v>
+      </c>
+      <c r="C101" t="s">
+        <v>158</v>
       </c>
       <c r="D101">
         <v>5</v>
@@ -8382,7 +8307,7 @@
         <v>1</v>
       </c>
       <c r="G101">
-        <v>17.420000000000002</v>
+        <v>7.4160399000000004</v>
       </c>
       <c r="H101">
         <v>1</v>
@@ -8391,7 +8316,7 @@
         <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="K101">
         <v>0</v>
@@ -8400,13 +8325,13 @@
         <v>0</v>
       </c>
       <c r="M101">
-        <v>5</v>
+        <v>2471</v>
       </c>
       <c r="N101">
-        <v>17.420000000000002</v>
+        <v>7.4096967100000004</v>
       </c>
       <c r="O101" s="1">
-        <v>46537</v>
+        <v>46417</v>
       </c>
       <c r="P101">
         <v>0</v>
@@ -8415,16 +8340,16 @@
         <v>1</v>
       </c>
       <c r="R101">
-        <v>17.420000000000002</v>
+        <v>7.4160399000000004</v>
       </c>
       <c r="S101">
         <v>0</v>
       </c>
       <c r="T101" t="s">
-        <v>106</v>
+        <v>157</v>
       </c>
       <c r="V101" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="X101" t="s">
         <v>33</v>
@@ -8435,10 +8360,10 @@
     </row>
     <row r="102" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>105</v>
+        <v>159</v>
       </c>
       <c r="C102" t="s">
-        <v>47</v>
+        <v>160</v>
       </c>
       <c r="D102">
         <v>5</v>
@@ -8450,7 +8375,7 @@
         <v>1</v>
       </c>
       <c r="G102">
-        <v>17.420000000000002</v>
+        <v>9.2899999999999991</v>
       </c>
       <c r="H102">
         <v>1</v>
@@ -8459,7 +8384,7 @@
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="K102">
         <v>0</v>
@@ -8468,13 +8393,13 @@
         <v>0</v>
       </c>
       <c r="M102">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="N102">
-        <v>17.420000000000002</v>
+        <v>0</v>
       </c>
       <c r="O102" s="1">
-        <v>46568</v>
+        <v>46052</v>
       </c>
       <c r="P102">
         <v>0</v>
@@ -8483,16 +8408,16 @@
         <v>1</v>
       </c>
       <c r="R102">
-        <v>17.420000000000002</v>
+        <v>9.2899999999999991</v>
       </c>
       <c r="S102">
         <v>0</v>
       </c>
       <c r="T102" t="s">
-        <v>106</v>
+        <v>161</v>
       </c>
       <c r="V102" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="X102" t="s">
         <v>33</v>
@@ -8503,10 +8428,10 @@
     </row>
     <row r="103" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>105</v>
+        <v>159</v>
       </c>
       <c r="C103" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D103">
         <v>5</v>
@@ -8518,7 +8443,7 @@
         <v>1</v>
       </c>
       <c r="G103">
-        <v>17.420000000000002</v>
+        <v>9.2899999999999991</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -8527,7 +8452,7 @@
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="K103">
         <v>0</v>
@@ -8536,13 +8461,13 @@
         <v>0</v>
       </c>
       <c r="M103">
-        <v>117</v>
+        <v>1</v>
       </c>
       <c r="N103">
-        <v>17.420000000000002</v>
+        <v>-9.0044384999999991</v>
       </c>
       <c r="O103" s="1">
-        <v>46568</v>
+        <v>46203</v>
       </c>
       <c r="P103">
         <v>0</v>
@@ -8551,16 +8476,16 @@
         <v>1</v>
       </c>
       <c r="R103">
-        <v>17.420000000000002</v>
+        <v>9.2899999999999991</v>
       </c>
       <c r="S103">
         <v>0</v>
       </c>
       <c r="T103" t="s">
-        <v>106</v>
+        <v>161</v>
       </c>
       <c r="V103" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="X103" t="s">
         <v>33</v>
@@ -8571,10 +8496,10 @@
     </row>
     <row r="104" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>105</v>
+        <v>159</v>
       </c>
       <c r="C104" t="s">
-        <v>49</v>
+        <v>163</v>
       </c>
       <c r="D104">
         <v>5</v>
@@ -8586,7 +8511,7 @@
         <v>1</v>
       </c>
       <c r="G104">
-        <v>17.420000000000002</v>
+        <v>9.2899999999999991</v>
       </c>
       <c r="H104">
         <v>1</v>
@@ -8595,7 +8520,7 @@
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="K104">
         <v>0</v>
@@ -8604,13 +8529,13 @@
         <v>0</v>
       </c>
       <c r="M104">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="N104">
-        <v>17.420000000000002</v>
+        <v>9.9091374999999999</v>
       </c>
       <c r="O104" s="1">
-        <v>46568</v>
+        <v>46476</v>
       </c>
       <c r="P104">
         <v>0</v>
@@ -8619,16 +8544,16 @@
         <v>1</v>
       </c>
       <c r="R104">
-        <v>17.420000000000002</v>
+        <v>9.2899999999999991</v>
       </c>
       <c r="S104">
         <v>0</v>
       </c>
       <c r="T104" t="s">
-        <v>106</v>
+        <v>161</v>
       </c>
       <c r="V104" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="X104" t="s">
         <v>33</v>
@@ -8639,10 +8564,10 @@
     </row>
     <row r="105" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>105</v>
-      </c>
-      <c r="C105" t="s">
-        <v>165</v>
+        <v>159</v>
+      </c>
+      <c r="C105" s="2">
+        <v>2.5000000000000001E+25</v>
       </c>
       <c r="D105">
         <v>5</v>
@@ -8654,7 +8579,7 @@
         <v>1</v>
       </c>
       <c r="G105">
-        <v>17.420000000000002</v>
+        <v>9.2899999999999991</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -8663,7 +8588,7 @@
         <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="K105">
         <v>0</v>
@@ -8672,13 +8597,13 @@
         <v>0</v>
       </c>
       <c r="M105">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="N105">
-        <v>17.420000000000002</v>
+        <v>9.9091374999999999</v>
       </c>
       <c r="O105" s="1">
-        <v>46568</v>
+        <v>46537</v>
       </c>
       <c r="P105">
         <v>0</v>
@@ -8687,16 +8612,16 @@
         <v>1</v>
       </c>
       <c r="R105">
-        <v>17.420000000000002</v>
+        <v>9.2899999999999991</v>
       </c>
       <c r="S105">
         <v>0</v>
       </c>
       <c r="T105" t="s">
-        <v>106</v>
+        <v>161</v>
       </c>
       <c r="V105" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="X105" t="s">
         <v>33</v>
@@ -8707,10 +8632,10 @@
     </row>
     <row r="106" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>105</v>
+        <v>159</v>
       </c>
       <c r="C106" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D106">
         <v>5</v>
@@ -8722,7 +8647,7 @@
         <v>1</v>
       </c>
       <c r="G106">
-        <v>17.420000000000002</v>
+        <v>9.2899999999999991</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -8731,7 +8656,7 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="K106">
         <v>0</v>
@@ -8740,10 +8665,10 @@
         <v>0</v>
       </c>
       <c r="M106">
-        <v>20</v>
+        <v>541</v>
       </c>
       <c r="N106">
-        <v>17.420000000000002</v>
+        <v>9.2899999999999991</v>
       </c>
       <c r="O106" s="1">
         <v>46568</v>
@@ -8755,16 +8680,16 @@
         <v>1</v>
       </c>
       <c r="R106">
-        <v>17.420000000000002</v>
+        <v>9.2899999999999991</v>
       </c>
       <c r="S106">
         <v>0</v>
       </c>
       <c r="T106" t="s">
-        <v>106</v>
+        <v>161</v>
       </c>
       <c r="V106" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="X106" t="s">
         <v>33</v>
@@ -8775,10 +8700,10 @@
     </row>
     <row r="107" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>105</v>
+        <v>165</v>
       </c>
       <c r="C107" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D107">
         <v>5</v>
@@ -8790,7 +8715,7 @@
         <v>1</v>
       </c>
       <c r="G107">
-        <v>17.420000000000002</v>
+        <v>6.77</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -8799,7 +8724,7 @@
         <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="K107">
         <v>0</v>
@@ -8808,10 +8733,10 @@
         <v>0</v>
       </c>
       <c r="M107">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="N107">
-        <v>17.420000000000002</v>
+        <v>6.77</v>
       </c>
       <c r="O107" s="1">
         <v>46568</v>
@@ -8823,16 +8748,16 @@
         <v>1</v>
       </c>
       <c r="R107">
-        <v>17.420000000000002</v>
+        <v>6.77</v>
       </c>
       <c r="S107">
         <v>0</v>
       </c>
       <c r="T107" t="s">
-        <v>106</v>
+        <v>167</v>
       </c>
       <c r="V107" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="X107" t="s">
         <v>33</v>
@@ -8843,7 +8768,7 @@
     </row>
     <row r="108" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>105</v>
+        <v>165</v>
       </c>
       <c r="C108" t="s">
         <v>168</v>
@@ -8858,7 +8783,7 @@
         <v>1</v>
       </c>
       <c r="G108">
-        <v>17.420000000000002</v>
+        <v>6.77</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -8867,7 +8792,7 @@
         <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="K108">
         <v>0</v>
@@ -8876,13 +8801,13 @@
         <v>0</v>
       </c>
       <c r="M108">
-        <v>47</v>
+        <v>2118</v>
       </c>
       <c r="N108">
-        <v>17.420000000000002</v>
+        <v>6.77</v>
       </c>
       <c r="O108" s="1">
-        <v>46568</v>
+        <v>46599</v>
       </c>
       <c r="P108">
         <v>0</v>
@@ -8891,16 +8816,16 @@
         <v>1</v>
       </c>
       <c r="R108">
-        <v>17.420000000000002</v>
+        <v>6.77</v>
       </c>
       <c r="S108">
         <v>0</v>
       </c>
       <c r="T108" t="s">
-        <v>106</v>
+        <v>167</v>
       </c>
       <c r="V108" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="X108" t="s">
         <v>33</v>
@@ -8911,10 +8836,10 @@
     </row>
     <row r="109" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>105</v>
+        <v>169</v>
       </c>
       <c r="C109" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D109">
         <v>5</v>
@@ -8926,7 +8851,7 @@
         <v>1</v>
       </c>
       <c r="G109">
-        <v>17.420000000000002</v>
+        <v>0</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -8935,7 +8860,7 @@
         <v>1</v>
       </c>
       <c r="J109" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="K109">
         <v>0</v>
@@ -8944,13 +8869,13 @@
         <v>0</v>
       </c>
       <c r="M109">
-        <v>33</v>
+        <v>202</v>
       </c>
       <c r="N109">
-        <v>35.335040429999999</v>
+        <v>0</v>
       </c>
       <c r="O109" s="1">
-        <v>46568</v>
+        <v>46629</v>
       </c>
       <c r="P109">
         <v>0</v>
@@ -8959,16 +8884,16 @@
         <v>1</v>
       </c>
       <c r="R109">
-        <v>17.420000000000002</v>
+        <v>0</v>
       </c>
       <c r="S109">
         <v>0</v>
       </c>
       <c r="T109" t="s">
-        <v>106</v>
+        <v>171</v>
       </c>
       <c r="V109" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="X109" t="s">
         <v>33</v>
@@ -8979,10 +8904,10 @@
     </row>
     <row r="110" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="C110" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D110">
         <v>5</v>
@@ -8994,7 +8919,7 @@
         <v>1</v>
       </c>
       <c r="G110">
-        <v>17.420000000000002</v>
+        <v>21.12</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -9003,7 +8928,7 @@
         <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="K110">
         <v>0</v>
@@ -9012,10 +8937,10 @@
         <v>0</v>
       </c>
       <c r="M110">
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="N110">
-        <v>17.420000000000002</v>
+        <v>21.12</v>
       </c>
       <c r="O110" s="1">
         <v>46599</v>
@@ -9027,16 +8952,19 @@
         <v>1</v>
       </c>
       <c r="R110">
-        <v>17.420000000000002</v>
+        <v>21.12</v>
       </c>
       <c r="S110">
         <v>0</v>
       </c>
       <c r="T110" t="s">
-        <v>106</v>
+        <v>174</v>
+      </c>
+      <c r="U110">
+        <v>7506375207240</v>
       </c>
       <c r="V110" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="X110" t="s">
         <v>33</v>
@@ -9047,10 +8975,10 @@
     </row>
     <row r="111" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>105</v>
+        <v>175</v>
       </c>
       <c r="C111" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="D111">
         <v>5</v>
@@ -9062,7 +8990,7 @@
         <v>1</v>
       </c>
       <c r="G111">
-        <v>17.420000000000002</v>
+        <v>10.810359999999999</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -9071,7 +8999,7 @@
         <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="K111">
         <v>0</v>
@@ -9080,13 +9008,13 @@
         <v>0</v>
       </c>
       <c r="M111">
-        <v>23</v>
+        <v>1653</v>
       </c>
       <c r="N111">
-        <v>17.420000000000002</v>
+        <v>10.506751469999999</v>
       </c>
       <c r="O111" s="1">
-        <v>46599</v>
+        <v>46386</v>
       </c>
       <c r="P111">
         <v>0</v>
@@ -9095,16 +9023,16 @@
         <v>1</v>
       </c>
       <c r="R111">
-        <v>17.420000000000002</v>
+        <v>10.810359999999999</v>
       </c>
       <c r="S111">
         <v>0</v>
       </c>
       <c r="T111" t="s">
-        <v>106</v>
+        <v>177</v>
       </c>
       <c r="V111" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="X111" t="s">
         <v>33</v>
@@ -9115,10 +9043,10 @@
     </row>
     <row r="112" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>105</v>
+        <v>178</v>
       </c>
       <c r="C112" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="D112">
         <v>5</v>
@@ -9130,7 +9058,7 @@
         <v>1</v>
       </c>
       <c r="G112">
-        <v>17.420000000000002</v>
+        <v>7.3037999999999998</v>
       </c>
       <c r="H112">
         <v>1</v>
@@ -9139,7 +9067,7 @@
         <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="K112">
         <v>0</v>
@@ -9148,13 +9076,13 @@
         <v>0</v>
       </c>
       <c r="M112">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N112">
-        <v>17.420000000000002</v>
+        <v>-7.8902360000000005E-2</v>
       </c>
       <c r="O112" s="1">
-        <v>46599</v>
+        <v>46052</v>
       </c>
       <c r="P112">
         <v>0</v>
@@ -9163,16 +9091,16 @@
         <v>1</v>
       </c>
       <c r="R112">
-        <v>17.420000000000002</v>
+        <v>7.3037999999999998</v>
       </c>
       <c r="S112">
         <v>0</v>
       </c>
       <c r="T112" t="s">
-        <v>106</v>
+        <v>180</v>
       </c>
       <c r="V112" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="X112" t="s">
         <v>33</v>
@@ -9183,10 +9111,10 @@
     </row>
     <row r="113" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C113" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="D113">
         <v>5</v>
@@ -9198,7 +9126,7 @@
         <v>1</v>
       </c>
       <c r="G113">
-        <v>140.12</v>
+        <v>7.3037999999999998</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -9207,7 +9135,7 @@
         <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="K113">
         <v>0</v>
@@ -9216,13 +9144,13 @@
         <v>0</v>
       </c>
       <c r="M113">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="N113">
-        <v>140.12</v>
+        <v>7.8232012199999996</v>
       </c>
       <c r="O113" s="1">
-        <v>46568</v>
+        <v>46285</v>
       </c>
       <c r="P113">
         <v>0</v>
@@ -9231,16 +9159,16 @@
         <v>1</v>
       </c>
       <c r="R113">
-        <v>140.12</v>
+        <v>7.3037999999999998</v>
       </c>
       <c r="S113">
         <v>0</v>
       </c>
       <c r="T113" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="V113" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="X113" t="s">
         <v>33</v>
@@ -9251,10 +9179,10 @@
     </row>
     <row r="114" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="C114" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="D114">
         <v>5</v>
@@ -9266,7 +9194,7 @@
         <v>1</v>
       </c>
       <c r="G114">
-        <v>9.2899999999999991</v>
+        <v>11.6244525</v>
       </c>
       <c r="H114">
         <v>1</v>
@@ -9275,7 +9203,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="K114">
         <v>0</v>
@@ -9284,13 +9212,13 @@
         <v>0</v>
       </c>
       <c r="M114">
-        <v>49</v>
+        <v>165</v>
       </c>
       <c r="N114">
-        <v>0</v>
+        <v>11.45253943</v>
       </c>
       <c r="O114" s="1">
-        <v>46052</v>
+        <v>46233</v>
       </c>
       <c r="P114">
         <v>0</v>
@@ -9299,16 +9227,16 @@
         <v>1</v>
       </c>
       <c r="R114">
-        <v>9.2899999999999991</v>
+        <v>11.6244525</v>
       </c>
       <c r="S114">
         <v>0</v>
       </c>
       <c r="T114" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="V114" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="X114" t="s">
         <v>33</v>
@@ -9319,10 +9247,10 @@
     </row>
     <row r="115" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="C115" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="D115">
         <v>5</v>
@@ -9334,7 +9262,7 @@
         <v>1</v>
       </c>
       <c r="G115">
-        <v>9.2899999999999991</v>
+        <v>7.71</v>
       </c>
       <c r="H115">
         <v>1</v>
@@ -9343,7 +9271,7 @@
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="K115">
         <v>0</v>
@@ -9352,13 +9280,13 @@
         <v>0</v>
       </c>
       <c r="M115">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N115">
-        <v>-9.0044384999999991</v>
+        <v>3.0707444399999999</v>
       </c>
       <c r="O115" s="1">
-        <v>46203</v>
+        <v>46021</v>
       </c>
       <c r="P115">
         <v>0</v>
@@ -9367,16 +9295,16 @@
         <v>1</v>
       </c>
       <c r="R115">
-        <v>9.2899999999999991</v>
+        <v>7.71</v>
       </c>
       <c r="S115">
         <v>0</v>
       </c>
       <c r="T115" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="V115" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="X115" t="s">
         <v>33</v>
@@ -9387,10 +9315,10 @@
     </row>
     <row r="116" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="C116" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="D116">
         <v>5</v>
@@ -9402,7 +9330,7 @@
         <v>1</v>
       </c>
       <c r="G116">
-        <v>9.2899999999999991</v>
+        <v>7.71</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -9411,7 +9339,7 @@
         <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="K116">
         <v>0</v>
@@ -9420,13 +9348,13 @@
         <v>0</v>
       </c>
       <c r="M116">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N116">
-        <v>9.4051674100000007</v>
+        <v>10.89314774</v>
       </c>
       <c r="O116" s="1">
-        <v>46417</v>
+        <v>46234</v>
       </c>
       <c r="P116">
         <v>0</v>
@@ -9435,16 +9363,16 @@
         <v>1</v>
       </c>
       <c r="R116">
-        <v>9.2899999999999991</v>
+        <v>7.71</v>
       </c>
       <c r="S116">
         <v>0</v>
       </c>
       <c r="T116" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="V116" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="X116" t="s">
         <v>33</v>
@@ -9455,10 +9383,10 @@
     </row>
     <row r="117" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="C117" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="D117">
         <v>5</v>
@@ -9470,7 +9398,7 @@
         <v>1</v>
       </c>
       <c r="G117">
-        <v>9.2899999999999991</v>
+        <v>7.71</v>
       </c>
       <c r="H117">
         <v>1</v>
@@ -9479,7 +9407,7 @@
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="K117">
         <v>0</v>
@@ -9488,13 +9416,13 @@
         <v>0</v>
       </c>
       <c r="M117">
-        <v>13</v>
+        <v>478</v>
       </c>
       <c r="N117">
-        <v>9.9091374999999999</v>
+        <v>7.71106566</v>
       </c>
       <c r="O117" s="1">
-        <v>46476</v>
+        <v>46568</v>
       </c>
       <c r="P117">
         <v>0</v>
@@ -9503,1121 +9431,21 @@
         <v>1</v>
       </c>
       <c r="R117">
-        <v>9.2899999999999991</v>
+        <v>7.71</v>
       </c>
       <c r="S117">
         <v>0</v>
       </c>
       <c r="T117" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="V117" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="X117" t="s">
         <v>33</v>
       </c>
       <c r="Y117" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>176</v>
-      </c>
-      <c r="C118" s="2">
-        <v>2.5000000000000001E+25</v>
-      </c>
-      <c r="D118">
-        <v>5</v>
-      </c>
-      <c r="E118">
-        <v>1</v>
-      </c>
-      <c r="F118">
-        <v>1</v>
-      </c>
-      <c r="G118">
-        <v>9.2899999999999991</v>
-      </c>
-      <c r="H118">
-        <v>1</v>
-      </c>
-      <c r="I118">
-        <v>1</v>
-      </c>
-      <c r="J118" t="s">
-        <v>64</v>
-      </c>
-      <c r="K118">
-        <v>0</v>
-      </c>
-      <c r="L118">
-        <v>0</v>
-      </c>
-      <c r="M118">
-        <v>11</v>
-      </c>
-      <c r="N118">
-        <v>9.9091374999999999</v>
-      </c>
-      <c r="O118" s="1">
-        <v>46537</v>
-      </c>
-      <c r="P118">
-        <v>0</v>
-      </c>
-      <c r="Q118">
-        <v>1</v>
-      </c>
-      <c r="R118">
-        <v>9.2899999999999991</v>
-      </c>
-      <c r="S118">
-        <v>0</v>
-      </c>
-      <c r="T118" t="s">
-        <v>178</v>
-      </c>
-      <c r="V118" t="s">
-        <v>41</v>
-      </c>
-      <c r="X118" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y118" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>176</v>
-      </c>
-      <c r="C119" t="s">
-        <v>182</v>
-      </c>
-      <c r="D119">
-        <v>5</v>
-      </c>
-      <c r="E119">
-        <v>1</v>
-      </c>
-      <c r="F119">
-        <v>1</v>
-      </c>
-      <c r="G119">
-        <v>9.2899999999999991</v>
-      </c>
-      <c r="H119">
-        <v>1</v>
-      </c>
-      <c r="I119">
-        <v>1</v>
-      </c>
-      <c r="J119" t="s">
-        <v>64</v>
-      </c>
-      <c r="K119">
-        <v>0</v>
-      </c>
-      <c r="L119">
-        <v>0</v>
-      </c>
-      <c r="M119">
-        <v>583</v>
-      </c>
-      <c r="N119">
-        <v>9.2899999999999991</v>
-      </c>
-      <c r="O119" s="1">
-        <v>46568</v>
-      </c>
-      <c r="P119">
-        <v>0</v>
-      </c>
-      <c r="Q119">
-        <v>1</v>
-      </c>
-      <c r="R119">
-        <v>9.2899999999999991</v>
-      </c>
-      <c r="S119">
-        <v>0</v>
-      </c>
-      <c r="T119" t="s">
-        <v>178</v>
-      </c>
-      <c r="V119" t="s">
-        <v>41</v>
-      </c>
-      <c r="X119" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y119" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>183</v>
-      </c>
-      <c r="C120" t="s">
-        <v>184</v>
-      </c>
-      <c r="D120">
-        <v>5</v>
-      </c>
-      <c r="E120">
-        <v>1</v>
-      </c>
-      <c r="F120">
-        <v>1</v>
-      </c>
-      <c r="G120">
-        <v>6.77</v>
-      </c>
-      <c r="H120">
-        <v>1</v>
-      </c>
-      <c r="I120">
-        <v>1</v>
-      </c>
-      <c r="J120" t="s">
-        <v>64</v>
-      </c>
-      <c r="K120">
-        <v>0</v>
-      </c>
-      <c r="L120">
-        <v>0</v>
-      </c>
-      <c r="M120">
-        <v>316</v>
-      </c>
-      <c r="N120">
-        <v>6.77</v>
-      </c>
-      <c r="O120" s="1">
-        <v>46568</v>
-      </c>
-      <c r="P120">
-        <v>0</v>
-      </c>
-      <c r="Q120">
-        <v>1</v>
-      </c>
-      <c r="R120">
-        <v>6.77</v>
-      </c>
-      <c r="S120">
-        <v>0</v>
-      </c>
-      <c r="T120" t="s">
-        <v>185</v>
-      </c>
-      <c r="V120" t="s">
-        <v>41</v>
-      </c>
-      <c r="X120" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y120" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>183</v>
-      </c>
-      <c r="C121" t="s">
-        <v>186</v>
-      </c>
-      <c r="D121">
-        <v>5</v>
-      </c>
-      <c r="E121">
-        <v>1</v>
-      </c>
-      <c r="F121">
-        <v>1</v>
-      </c>
-      <c r="G121">
-        <v>6.77</v>
-      </c>
-      <c r="H121">
-        <v>1</v>
-      </c>
-      <c r="I121">
-        <v>1</v>
-      </c>
-      <c r="J121" t="s">
-        <v>64</v>
-      </c>
-      <c r="K121">
-        <v>0</v>
-      </c>
-      <c r="L121">
-        <v>0</v>
-      </c>
-      <c r="M121">
-        <v>2410</v>
-      </c>
-      <c r="N121">
-        <v>6.77</v>
-      </c>
-      <c r="O121" s="1">
-        <v>46599</v>
-      </c>
-      <c r="P121">
-        <v>0</v>
-      </c>
-      <c r="Q121">
-        <v>1</v>
-      </c>
-      <c r="R121">
-        <v>6.77</v>
-      </c>
-      <c r="S121">
-        <v>0</v>
-      </c>
-      <c r="T121" t="s">
-        <v>185</v>
-      </c>
-      <c r="V121" t="s">
-        <v>41</v>
-      </c>
-      <c r="X121" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y121" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
-        <v>187</v>
-      </c>
-      <c r="C122" t="s">
-        <v>188</v>
-      </c>
-      <c r="D122">
-        <v>5</v>
-      </c>
-      <c r="E122">
-        <v>1</v>
-      </c>
-      <c r="F122">
-        <v>1</v>
-      </c>
-      <c r="G122">
-        <v>21.12</v>
-      </c>
-      <c r="H122">
-        <v>1</v>
-      </c>
-      <c r="I122">
-        <v>1</v>
-      </c>
-      <c r="J122" t="s">
-        <v>64</v>
-      </c>
-      <c r="K122">
-        <v>0</v>
-      </c>
-      <c r="L122">
-        <v>0</v>
-      </c>
-      <c r="M122">
-        <v>20</v>
-      </c>
-      <c r="N122">
-        <v>0</v>
-      </c>
-      <c r="O122" s="1">
-        <v>45503</v>
-      </c>
-      <c r="P122">
-        <v>0</v>
-      </c>
-      <c r="Q122">
-        <v>1</v>
-      </c>
-      <c r="R122">
-        <v>21.12</v>
-      </c>
-      <c r="S122">
-        <v>0</v>
-      </c>
-      <c r="T122" t="s">
-        <v>189</v>
-      </c>
-      <c r="U122">
-        <v>7506375207240</v>
-      </c>
-      <c r="V122" t="s">
-        <v>32</v>
-      </c>
-      <c r="X122" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y122" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
-        <v>187</v>
-      </c>
-      <c r="C123" t="s">
-        <v>190</v>
-      </c>
-      <c r="D123">
-        <v>5</v>
-      </c>
-      <c r="E123">
-        <v>1</v>
-      </c>
-      <c r="F123">
-        <v>1</v>
-      </c>
-      <c r="G123">
-        <v>21.12</v>
-      </c>
-      <c r="H123">
-        <v>1</v>
-      </c>
-      <c r="I123">
-        <v>1</v>
-      </c>
-      <c r="J123" t="s">
-        <v>64</v>
-      </c>
-      <c r="K123">
-        <v>0</v>
-      </c>
-      <c r="L123">
-        <v>0</v>
-      </c>
-      <c r="M123">
-        <v>4</v>
-      </c>
-      <c r="N123">
-        <v>0</v>
-      </c>
-      <c r="O123" s="1">
-        <v>46021</v>
-      </c>
-      <c r="P123">
-        <v>0</v>
-      </c>
-      <c r="Q123">
-        <v>1</v>
-      </c>
-      <c r="R123">
-        <v>21.12</v>
-      </c>
-      <c r="S123">
-        <v>0</v>
-      </c>
-      <c r="T123" t="s">
-        <v>189</v>
-      </c>
-      <c r="U123">
-        <v>7506375207240</v>
-      </c>
-      <c r="V123" t="s">
-        <v>32</v>
-      </c>
-      <c r="X123" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y123" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
-        <v>187</v>
-      </c>
-      <c r="C124" t="s">
-        <v>191</v>
-      </c>
-      <c r="D124">
-        <v>5</v>
-      </c>
-      <c r="E124">
-        <v>1</v>
-      </c>
-      <c r="F124">
-        <v>1</v>
-      </c>
-      <c r="G124">
-        <v>21.12</v>
-      </c>
-      <c r="H124">
-        <v>1</v>
-      </c>
-      <c r="I124">
-        <v>1</v>
-      </c>
-      <c r="J124" t="s">
-        <v>64</v>
-      </c>
-      <c r="K124">
-        <v>0</v>
-      </c>
-      <c r="L124">
-        <v>0</v>
-      </c>
-      <c r="M124">
-        <v>25</v>
-      </c>
-      <c r="N124">
-        <v>26.937799829999999</v>
-      </c>
-      <c r="O124" s="1">
-        <v>46476</v>
-      </c>
-      <c r="P124">
-        <v>0</v>
-      </c>
-      <c r="Q124">
-        <v>1</v>
-      </c>
-      <c r="R124">
-        <v>21.12</v>
-      </c>
-      <c r="S124">
-        <v>0</v>
-      </c>
-      <c r="T124" t="s">
-        <v>189</v>
-      </c>
-      <c r="U124">
-        <v>7506375207240</v>
-      </c>
-      <c r="V124" t="s">
-        <v>32</v>
-      </c>
-      <c r="X124" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y124" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
-        <v>187</v>
-      </c>
-      <c r="C125" t="s">
-        <v>192</v>
-      </c>
-      <c r="D125">
-        <v>5</v>
-      </c>
-      <c r="E125">
-        <v>1</v>
-      </c>
-      <c r="F125">
-        <v>1</v>
-      </c>
-      <c r="G125">
-        <v>21.12</v>
-      </c>
-      <c r="H125">
-        <v>1</v>
-      </c>
-      <c r="I125">
-        <v>1</v>
-      </c>
-      <c r="J125" t="s">
-        <v>64</v>
-      </c>
-      <c r="K125">
-        <v>0</v>
-      </c>
-      <c r="L125">
-        <v>0</v>
-      </c>
-      <c r="M125">
-        <v>480</v>
-      </c>
-      <c r="N125">
-        <v>21.12</v>
-      </c>
-      <c r="O125" s="1">
-        <v>46599</v>
-      </c>
-      <c r="P125">
-        <v>0</v>
-      </c>
-      <c r="Q125">
-        <v>1</v>
-      </c>
-      <c r="R125">
-        <v>21.12</v>
-      </c>
-      <c r="S125">
-        <v>0</v>
-      </c>
-      <c r="T125" t="s">
-        <v>189</v>
-      </c>
-      <c r="U125">
-        <v>7506375207240</v>
-      </c>
-      <c r="V125" t="s">
-        <v>32</v>
-      </c>
-      <c r="X125" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y125" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
-        <v>193</v>
-      </c>
-      <c r="C126" t="s">
-        <v>194</v>
-      </c>
-      <c r="D126">
-        <v>5</v>
-      </c>
-      <c r="E126">
-        <v>1</v>
-      </c>
-      <c r="F126">
-        <v>1</v>
-      </c>
-      <c r="G126">
-        <v>10.810359999999999</v>
-      </c>
-      <c r="H126">
-        <v>1</v>
-      </c>
-      <c r="I126">
-        <v>1</v>
-      </c>
-      <c r="J126" t="s">
-        <v>64</v>
-      </c>
-      <c r="K126">
-        <v>0</v>
-      </c>
-      <c r="L126">
-        <v>0</v>
-      </c>
-      <c r="M126">
-        <v>1653</v>
-      </c>
-      <c r="N126">
-        <v>10.506751469999999</v>
-      </c>
-      <c r="O126" s="1">
-        <v>46386</v>
-      </c>
-      <c r="P126">
-        <v>0</v>
-      </c>
-      <c r="Q126">
-        <v>1</v>
-      </c>
-      <c r="R126">
-        <v>10.810359999999999</v>
-      </c>
-      <c r="S126">
-        <v>0</v>
-      </c>
-      <c r="T126" t="s">
-        <v>195</v>
-      </c>
-      <c r="V126" t="s">
-        <v>41</v>
-      </c>
-      <c r="X126" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y126" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
-        <v>196</v>
-      </c>
-      <c r="C127" t="s">
-        <v>197</v>
-      </c>
-      <c r="D127">
-        <v>5</v>
-      </c>
-      <c r="E127">
-        <v>1</v>
-      </c>
-      <c r="F127">
-        <v>1</v>
-      </c>
-      <c r="G127">
-        <v>7.3037999999999998</v>
-      </c>
-      <c r="H127">
-        <v>1</v>
-      </c>
-      <c r="I127">
-        <v>1</v>
-      </c>
-      <c r="J127" t="s">
-        <v>64</v>
-      </c>
-      <c r="K127">
-        <v>0</v>
-      </c>
-      <c r="L127">
-        <v>0</v>
-      </c>
-      <c r="M127">
-        <v>17</v>
-      </c>
-      <c r="N127">
-        <v>-7.8902360000000005E-2</v>
-      </c>
-      <c r="O127" s="1">
-        <v>46052</v>
-      </c>
-      <c r="P127">
-        <v>0</v>
-      </c>
-      <c r="Q127">
-        <v>1</v>
-      </c>
-      <c r="R127">
-        <v>7.3037999999999998</v>
-      </c>
-      <c r="S127">
-        <v>0</v>
-      </c>
-      <c r="T127" t="s">
-        <v>198</v>
-      </c>
-      <c r="V127" t="s">
-        <v>32</v>
-      </c>
-      <c r="X127" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y127" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
-        <v>196</v>
-      </c>
-      <c r="C128" t="s">
-        <v>199</v>
-      </c>
-      <c r="D128">
-        <v>5</v>
-      </c>
-      <c r="E128">
-        <v>1</v>
-      </c>
-      <c r="F128">
-        <v>1</v>
-      </c>
-      <c r="G128">
-        <v>7.3037999999999998</v>
-      </c>
-      <c r="H128">
-        <v>1</v>
-      </c>
-      <c r="I128">
-        <v>1</v>
-      </c>
-      <c r="J128" t="s">
-        <v>64</v>
-      </c>
-      <c r="K128">
-        <v>0</v>
-      </c>
-      <c r="L128">
-        <v>0</v>
-      </c>
-      <c r="M128">
-        <v>1</v>
-      </c>
-      <c r="N128">
-        <v>7.8232012199999996</v>
-      </c>
-      <c r="O128" s="1">
-        <v>46285</v>
-      </c>
-      <c r="P128">
-        <v>0</v>
-      </c>
-      <c r="Q128">
-        <v>1</v>
-      </c>
-      <c r="R128">
-        <v>7.3037999999999998</v>
-      </c>
-      <c r="S128">
-        <v>0</v>
-      </c>
-      <c r="T128" t="s">
-        <v>198</v>
-      </c>
-      <c r="V128" t="s">
-        <v>32</v>
-      </c>
-      <c r="X128" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y128" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
-        <v>196</v>
-      </c>
-      <c r="C129" t="s">
-        <v>200</v>
-      </c>
-      <c r="D129">
-        <v>5</v>
-      </c>
-      <c r="E129">
-        <v>1</v>
-      </c>
-      <c r="F129">
-        <v>1</v>
-      </c>
-      <c r="G129">
-        <v>7.3037999999999998</v>
-      </c>
-      <c r="H129">
-        <v>1</v>
-      </c>
-      <c r="I129">
-        <v>1</v>
-      </c>
-      <c r="J129" t="s">
-        <v>64</v>
-      </c>
-      <c r="K129">
-        <v>0</v>
-      </c>
-      <c r="L129">
-        <v>0</v>
-      </c>
-      <c r="M129">
-        <v>224</v>
-      </c>
-      <c r="N129">
-        <v>7.3037999999999998</v>
-      </c>
-      <c r="O129" s="1">
-        <v>46568</v>
-      </c>
-      <c r="P129">
-        <v>0</v>
-      </c>
-      <c r="Q129">
-        <v>1</v>
-      </c>
-      <c r="R129">
-        <v>7.3037999999999998</v>
-      </c>
-      <c r="S129">
-        <v>0</v>
-      </c>
-      <c r="T129" t="s">
-        <v>198</v>
-      </c>
-      <c r="V129" t="s">
-        <v>32</v>
-      </c>
-      <c r="X129" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y129" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
-        <v>201</v>
-      </c>
-      <c r="C130" t="s">
-        <v>202</v>
-      </c>
-      <c r="D130">
-        <v>5</v>
-      </c>
-      <c r="E130">
-        <v>1</v>
-      </c>
-      <c r="F130">
-        <v>1</v>
-      </c>
-      <c r="G130">
-        <v>11.6244525</v>
-      </c>
-      <c r="H130">
-        <v>1</v>
-      </c>
-      <c r="I130">
-        <v>1</v>
-      </c>
-      <c r="J130" t="s">
-        <v>64</v>
-      </c>
-      <c r="K130">
-        <v>0</v>
-      </c>
-      <c r="L130">
-        <v>0</v>
-      </c>
-      <c r="M130">
-        <v>415</v>
-      </c>
-      <c r="N130">
-        <v>11.45253943</v>
-      </c>
-      <c r="O130" s="1">
-        <v>46233</v>
-      </c>
-      <c r="P130">
-        <v>0</v>
-      </c>
-      <c r="Q130">
-        <v>1</v>
-      </c>
-      <c r="R130">
-        <v>11.6244525</v>
-      </c>
-      <c r="S130">
-        <v>0</v>
-      </c>
-      <c r="T130" t="s">
-        <v>203</v>
-      </c>
-      <c r="V130" t="s">
-        <v>41</v>
-      </c>
-      <c r="X130" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y130" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
-        <v>204</v>
-      </c>
-      <c r="C131" t="s">
-        <v>205</v>
-      </c>
-      <c r="D131">
-        <v>5</v>
-      </c>
-      <c r="E131">
-        <v>1</v>
-      </c>
-      <c r="F131">
-        <v>1</v>
-      </c>
-      <c r="G131">
-        <v>7.71</v>
-      </c>
-      <c r="H131">
-        <v>1</v>
-      </c>
-      <c r="I131">
-        <v>1</v>
-      </c>
-      <c r="J131" t="s">
-        <v>64</v>
-      </c>
-      <c r="K131">
-        <v>0</v>
-      </c>
-      <c r="L131">
-        <v>0</v>
-      </c>
-      <c r="M131">
-        <v>5</v>
-      </c>
-      <c r="N131">
-        <v>3.0707444399999999</v>
-      </c>
-      <c r="O131" s="1">
-        <v>46021</v>
-      </c>
-      <c r="P131">
-        <v>0</v>
-      </c>
-      <c r="Q131">
-        <v>1</v>
-      </c>
-      <c r="R131">
-        <v>7.71</v>
-      </c>
-      <c r="S131">
-        <v>0</v>
-      </c>
-      <c r="T131" t="s">
-        <v>206</v>
-      </c>
-      <c r="V131" t="s">
-        <v>32</v>
-      </c>
-      <c r="X131" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y131" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
-        <v>204</v>
-      </c>
-      <c r="C132" t="s">
-        <v>207</v>
-      </c>
-      <c r="D132">
-        <v>5</v>
-      </c>
-      <c r="E132">
-        <v>1</v>
-      </c>
-      <c r="F132">
-        <v>1</v>
-      </c>
-      <c r="G132">
-        <v>7.71</v>
-      </c>
-      <c r="H132">
-        <v>1</v>
-      </c>
-      <c r="I132">
-        <v>1</v>
-      </c>
-      <c r="J132" t="s">
-        <v>64</v>
-      </c>
-      <c r="K132">
-        <v>0</v>
-      </c>
-      <c r="L132">
-        <v>0</v>
-      </c>
-      <c r="M132">
-        <v>7</v>
-      </c>
-      <c r="N132">
-        <v>10.89314774</v>
-      </c>
-      <c r="O132" s="1">
-        <v>46234</v>
-      </c>
-      <c r="P132">
-        <v>0</v>
-      </c>
-      <c r="Q132">
-        <v>1</v>
-      </c>
-      <c r="R132">
-        <v>7.71</v>
-      </c>
-      <c r="S132">
-        <v>0</v>
-      </c>
-      <c r="T132" t="s">
-        <v>206</v>
-      </c>
-      <c r="V132" t="s">
-        <v>32</v>
-      </c>
-      <c r="X132" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y132" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="133" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
-        <v>204</v>
-      </c>
-      <c r="C133" t="s">
-        <v>208</v>
-      </c>
-      <c r="D133">
-        <v>5</v>
-      </c>
-      <c r="E133">
-        <v>1</v>
-      </c>
-      <c r="F133">
-        <v>1</v>
-      </c>
-      <c r="G133">
-        <v>7.71</v>
-      </c>
-      <c r="H133">
-        <v>1</v>
-      </c>
-      <c r="I133">
-        <v>1</v>
-      </c>
-      <c r="J133" t="s">
-        <v>64</v>
-      </c>
-      <c r="K133">
-        <v>0</v>
-      </c>
-      <c r="L133">
-        <v>0</v>
-      </c>
-      <c r="M133">
-        <v>784</v>
-      </c>
-      <c r="N133">
-        <v>7.7110655599999998</v>
-      </c>
-      <c r="O133" s="1">
-        <v>46568</v>
-      </c>
-      <c r="P133">
-        <v>0</v>
-      </c>
-      <c r="Q133">
-        <v>1</v>
-      </c>
-      <c r="R133">
-        <v>7.71</v>
-      </c>
-      <c r="S133">
-        <v>0</v>
-      </c>
-      <c r="T133" t="s">
-        <v>206</v>
-      </c>
-      <c r="V133" t="s">
-        <v>32</v>
-      </c>
-      <c r="X133" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y133" t="s">
         <v>34</v>
       </c>
     </row>
